--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.73949203373041</v>
+        <v>17.73949203373045</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.935741451453822</v>
+        <v>6.93574145145381</v>
       </c>
       <c r="E2">
-        <v>21.60694279649446</v>
+        <v>21.60694279649451</v>
       </c>
       <c r="F2">
-        <v>41.5276223289063</v>
+        <v>41.52762232890625</v>
       </c>
       <c r="G2">
-        <v>33.88561498395882</v>
+        <v>33.8856149839588</v>
       </c>
       <c r="H2">
-        <v>14.08759352525405</v>
+        <v>14.087593525254</v>
       </c>
       <c r="I2">
-        <v>13.7900974999769</v>
+        <v>13.79009749997693</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>32.98188873504491</v>
+        <v>32.98188873504481</v>
       </c>
       <c r="L2">
-        <v>28.69820167290992</v>
+        <v>28.69820167290988</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.5310523151331</v>
+        <v>16.53105231513314</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.41033092935209</v>
+        <v>6.410330929352162</v>
       </c>
       <c r="E3">
-        <v>20.29038829739899</v>
+        <v>20.29038829739898</v>
       </c>
       <c r="F3">
-        <v>38.28947972834644</v>
+        <v>38.28947972834636</v>
       </c>
       <c r="G3">
-        <v>31.18063265215906</v>
+        <v>31.18063265215902</v>
       </c>
       <c r="H3">
-        <v>14.1680247851457</v>
+        <v>14.16802478514566</v>
       </c>
       <c r="I3">
-        <v>13.09957383256239</v>
+        <v>13.09957383256238</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>30.61086719155243</v>
+        <v>30.61086719155238</v>
       </c>
       <c r="L3">
-        <v>26.7021395763616</v>
+        <v>26.70213957636158</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74894319228651</v>
+        <v>15.74894319228653</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.078469877704329</v>
+        <v>6.078469877704245</v>
       </c>
       <c r="E4">
-        <v>19.44809184796502</v>
+        <v>19.44809184796501</v>
       </c>
       <c r="F4">
-        <v>36.33747311590567</v>
+        <v>36.33747311590558</v>
       </c>
       <c r="G4">
-        <v>29.4867854953054</v>
+        <v>29.48678549530533</v>
       </c>
       <c r="H4">
-        <v>14.24870714839373</v>
+        <v>14.24870714839377</v>
       </c>
       <c r="I4">
         <v>12.66146474830942</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.08775270693735</v>
+        <v>29.08775270693737</v>
       </c>
       <c r="L4">
-        <v>25.41740887488125</v>
+        <v>25.41740887488126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.41998929584864</v>
+        <v>15.41998929584859</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.940685238544945</v>
+        <v>5.940685238545012</v>
       </c>
       <c r="E5">
-        <v>19.09621783578177</v>
+        <v>19.09621783578178</v>
       </c>
       <c r="F5">
-        <v>35.58128098727915</v>
+        <v>35.58128098727914</v>
       </c>
       <c r="G5">
         <v>28.83596448305443</v>
       </c>
       <c r="H5">
-        <v>14.28878328864259</v>
+        <v>14.28878328864269</v>
       </c>
       <c r="I5">
-        <v>12.47943498032028</v>
+        <v>12.47943498032026</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>28.44957212997494</v>
       </c>
       <c r="L5">
-        <v>24.87861447779683</v>
+        <v>24.87861447779681</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.3647443380538</v>
+        <v>15.36474433805376</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.917646454081689</v>
+        <v>5.917646454081734</v>
       </c>
       <c r="E6">
-        <v>19.03726658496395</v>
+        <v>19.03726658496379</v>
       </c>
       <c r="F6">
-        <v>35.45555075410246</v>
+        <v>35.4555507541025</v>
       </c>
       <c r="G6">
-        <v>28.73549038300731</v>
+        <v>28.73549038300734</v>
       </c>
       <c r="H6">
         <v>14.29585385423696</v>
       </c>
       <c r="I6">
-        <v>12.44900033522718</v>
+        <v>12.44900033522705</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.34253024810194</v>
+        <v>28.34253024810195</v>
       </c>
       <c r="L6">
-        <v>24.78821638273689</v>
+        <v>24.78821638273688</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.744548444518</v>
+        <v>15.74454844451804</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.076622252499617</v>
+        <v>6.076622252499548</v>
       </c>
       <c r="E7">
-        <v>19.44338137961089</v>
+        <v>19.44338137961092</v>
       </c>
       <c r="F7">
-        <v>36.32728584367791</v>
+        <v>36.32728584367796</v>
       </c>
       <c r="G7">
-        <v>29.47739195507161</v>
+        <v>29.47739195507169</v>
       </c>
       <c r="H7">
-        <v>14.24921934131581</v>
+        <v>14.24921934131568</v>
       </c>
       <c r="I7">
-        <v>12.65902388480746</v>
+        <v>12.65902388480752</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.07921754700511</v>
+        <v>29.07921754700515</v>
       </c>
       <c r="L7">
-        <v>25.41020474808395</v>
+        <v>25.41020474808398</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.33105445893652</v>
+        <v>17.33105445893649</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.756356933428435</v>
+        <v>6.756356933428374</v>
       </c>
       <c r="E8">
-        <v>21.15995252672381</v>
+        <v>21.15995252672383</v>
       </c>
       <c r="F8">
-        <v>40.41686492117177</v>
+        <v>40.41686492117171</v>
       </c>
       <c r="G8">
-        <v>32.959253591712</v>
+        <v>32.95925359171194</v>
       </c>
       <c r="H8">
-        <v>14.10841116787246</v>
+        <v>14.10841116787251</v>
       </c>
       <c r="I8">
-        <v>13.5549555593838</v>
+        <v>13.55495555938383</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>32.17795812053478</v>
+        <v>32.17795812053475</v>
       </c>
       <c r="L8">
-        <v>28.02198487114863</v>
+        <v>28.02198487114858</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.13154406044193</v>
+        <v>20.13154406044189</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.028047867355671</v>
+        <v>8.028047867355676</v>
       </c>
       <c r="E9">
-        <v>24.2657826144223</v>
+        <v>24.26578261442245</v>
       </c>
       <c r="F9">
-        <v>48.38011089145428</v>
+        <v>48.38011089145443</v>
       </c>
       <c r="G9">
-        <v>39.57369693390041</v>
+        <v>39.57369693390053</v>
       </c>
       <c r="H9">
-        <v>14.11323016193464</v>
+        <v>14.11323016193465</v>
       </c>
       <c r="I9">
-        <v>15.19991590234708</v>
+        <v>15.19991590234716</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>37.75114641236173</v>
+        <v>37.75114641236178</v>
       </c>
       <c r="L9">
-        <v>32.6951713833387</v>
+        <v>32.69517138333873</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01234356633065</v>
+        <v>22.01234356633066</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.946636961617267</v>
+        <v>8.946636961617187</v>
       </c>
       <c r="E10">
-        <v>26.40877353869501</v>
+        <v>26.40877353869504</v>
       </c>
       <c r="F10">
-        <v>54.22179089522242</v>
+        <v>54.22179089522259</v>
       </c>
       <c r="G10">
-        <v>44.39664909000239</v>
+        <v>44.39664909000252</v>
       </c>
       <c r="H10">
-        <v>14.33661197807611</v>
+        <v>14.33661197807604</v>
       </c>
       <c r="I10">
-        <v>16.34467930463572</v>
+        <v>16.34467930463576</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>41.59106433266192</v>
+        <v>41.59106433266195</v>
       </c>
       <c r="L10">
-        <v>35.89091103537347</v>
+        <v>35.89091103537349</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83314856503207</v>
+        <v>22.83314856503199</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.367841718703074</v>
+        <v>9.367841718703108</v>
       </c>
       <c r="E11">
-        <v>27.36071326436122</v>
+        <v>27.36071326436125</v>
       </c>
       <c r="F11">
-        <v>56.91355538723851</v>
+        <v>56.91355538723857</v>
       </c>
       <c r="G11">
-        <v>46.61346922433498</v>
+        <v>46.61346922433503</v>
       </c>
       <c r="H11">
-        <v>14.49769247006278</v>
+        <v>14.4976924700628</v>
       </c>
       <c r="I11">
-        <v>16.85407865764925</v>
+        <v>16.85407865764927</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>43.29822228798801</v>
+        <v>43.29822228798809</v>
       </c>
       <c r="L11">
-        <v>37.30384188022406</v>
+        <v>37.30384188022405</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.13934156462408</v>
+        <v>23.13934156462399</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.528597333139999</v>
+        <v>9.528597333139992</v>
       </c>
       <c r="E12">
-        <v>27.71877559326328</v>
+        <v>27.71877559326326</v>
       </c>
       <c r="F12">
-        <v>57.94209543763051</v>
+        <v>57.94209543763047</v>
       </c>
       <c r="G12">
-        <v>47.45980303485931</v>
+        <v>47.45980303485929</v>
       </c>
       <c r="H12">
-        <v>14.56832206371267</v>
+        <v>14.56832206371263</v>
       </c>
       <c r="I12">
         <v>17.04568502113933</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>43.94072660263779</v>
+        <v>43.94072660263774</v>
       </c>
       <c r="L12">
-        <v>37.83420936312123</v>
+        <v>37.83420936312118</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.0735963320186</v>
+        <v>23.07359633201856</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.493904983621817</v>
+        <v>9.493904983621773</v>
       </c>
       <c r="E13">
-        <v>27.64175058995181</v>
+        <v>27.64175058995182</v>
       </c>
       <c r="F13">
-        <v>57.72008729149415</v>
+        <v>57.7200872914942</v>
       </c>
       <c r="G13">
-        <v>47.27715487323867</v>
+        <v>47.2771548732387</v>
       </c>
       <c r="H13">
-        <v>14.55266381393158</v>
+        <v>14.55266381393155</v>
       </c>
       <c r="I13">
         <v>17.00446962044933</v>
@@ -860,7 +860,7 @@
         <v>43.80249472926538</v>
       </c>
       <c r="L13">
-        <v>37.72017064769427</v>
+        <v>37.72017064769425</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.85842953988444</v>
+        <v>22.85842953988439</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.381036740142658</v>
+        <v>9.381036740142719</v>
       </c>
       <c r="E14">
-        <v>27.39021356350568</v>
+        <v>27.39021356350573</v>
       </c>
       <c r="F14">
-        <v>56.99795958784988</v>
+        <v>56.99795958785</v>
       </c>
       <c r="G14">
-        <v>46.68293531120587</v>
+        <v>46.68293531120597</v>
       </c>
       <c r="H14">
-        <v>14.50330355049939</v>
+        <v>14.50330355049927</v>
       </c>
       <c r="I14">
-        <v>16.86986565217848</v>
+        <v>16.86986565217852</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>43.35114909740894</v>
+        <v>43.35114909740893</v>
       </c>
       <c r="L14">
-        <v>37.3475612605617</v>
+        <v>37.34756126056165</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72604355824484</v>
+        <v>22.72604355824486</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.312092101991556</v>
+        <v>9.312092101991578</v>
       </c>
       <c r="E15">
-        <v>27.23585644031185</v>
+        <v>27.23585644031192</v>
       </c>
       <c r="F15">
-        <v>56.55698764642199</v>
+        <v>56.55698764642214</v>
       </c>
       <c r="G15">
-        <v>46.31997910105297</v>
+        <v>46.31997910105309</v>
       </c>
       <c r="H15">
-        <v>14.47435742668328</v>
+        <v>14.47435742668331</v>
       </c>
       <c r="I15">
-        <v>16.78726113422324</v>
+        <v>16.7872611342233</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>43.07423133070854</v>
+        <v>43.07423133070863</v>
       </c>
       <c r="L15">
-        <v>37.11875903679435</v>
+        <v>37.11875903679442</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.9580321432929</v>
+        <v>21.95803214329286</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.919238467836134</v>
+        <v>8.919238467836202</v>
       </c>
       <c r="E16">
-        <v>26.34616942431198</v>
+        <v>26.34616942431191</v>
       </c>
       <c r="F16">
-        <v>54.04690600434105</v>
+        <v>54.04690600434081</v>
       </c>
       <c r="G16">
-        <v>44.25251684005516</v>
+        <v>44.25251684005497</v>
       </c>
       <c r="H16">
         <v>14.32737140789989</v>
       </c>
       <c r="I16">
-        <v>16.31118635310454</v>
+        <v>16.31118635310445</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>41.47883802119625</v>
+        <v>41.47883802119613</v>
       </c>
       <c r="L16">
-        <v>35.79784579157362</v>
+        <v>35.79784579157354</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47821386012809</v>
+        <v>21.47821386012812</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.679572911894184</v>
+        <v>8.679572911894194</v>
       </c>
       <c r="E17">
-        <v>25.79504323275791</v>
+        <v>25.79504323275798</v>
       </c>
       <c r="F17">
-        <v>52.51850809984521</v>
+        <v>52.51850809984515</v>
       </c>
       <c r="G17">
-        <v>42.9922767174889</v>
+        <v>42.99227671748886</v>
       </c>
       <c r="H17">
-        <v>14.25316547743589</v>
+        <v>14.25316547743592</v>
       </c>
       <c r="I17">
-        <v>16.01642192094821</v>
+        <v>16.01642192094825</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>40.49105984302789</v>
+        <v>40.49105984302788</v>
       </c>
       <c r="L17">
         <v>34.97780327914999</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.19893485444409</v>
+        <v>21.19893485444411</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.541980099848502</v>
+        <v>8.541980099848537</v>
       </c>
       <c r="E18">
-        <v>25.47582604995694</v>
+        <v>25.47582604995692</v>
       </c>
       <c r="F18">
-        <v>51.64232661730108</v>
+        <v>51.64232661730109</v>
       </c>
       <c r="G18">
-        <v>42.26930213959317</v>
+        <v>42.26930213959319</v>
       </c>
       <c r="H18">
-        <v>14.2160109239765</v>
+        <v>14.21601092397649</v>
       </c>
       <c r="I18">
-        <v>15.84578474152006</v>
+        <v>15.84578474152008</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>39.91905774402665</v>
       </c>
       <c r="L18">
-        <v>34.50220670134519</v>
+        <v>34.5022067013452</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1067,28 +1067,28 @@
         <v>8.495417517629217</v>
       </c>
       <c r="E19">
-        <v>25.36734041579363</v>
+        <v>25.36734041579357</v>
       </c>
       <c r="F19">
-        <v>51.34605674647089</v>
+        <v>51.34605674647095</v>
       </c>
       <c r="G19">
-        <v>42.02474602873939</v>
+        <v>42.02474602873943</v>
       </c>
       <c r="H19">
-        <v>14.20434907424012</v>
+        <v>14.20434907424005</v>
       </c>
       <c r="I19">
-        <v>15.7878133630199</v>
+        <v>15.78781336301986</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>39.7246793719405</v>
+        <v>39.72467937194048</v>
       </c>
       <c r="L19">
-        <v>34.34047162891206</v>
+        <v>34.34047162891204</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1105,19 +1105,19 @@
         <v>8.705054276233666</v>
       </c>
       <c r="E20">
-        <v>25.85393628343083</v>
+        <v>25.85393628343079</v>
       </c>
       <c r="F20">
-        <v>52.68088029997458</v>
+        <v>52.68088029997454</v>
       </c>
       <c r="G20">
-        <v>43.12621400297274</v>
+        <v>43.1262140029727</v>
       </c>
       <c r="H20">
-        <v>14.26048535317409</v>
+        <v>14.26048535317408</v>
       </c>
       <c r="I20">
-        <v>16.04791154022608</v>
+        <v>16.04791154022602</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92175142191842</v>
+        <v>22.92175142191844</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.414147458921262</v>
+        <v>9.414147458921233</v>
       </c>
       <c r="E21">
-        <v>27.46415313004263</v>
+        <v>27.46415313004278</v>
       </c>
       <c r="F21">
-        <v>57.20977454123551</v>
+        <v>57.20977454123574</v>
       </c>
       <c r="G21">
-        <v>46.85725128493283</v>
+        <v>46.85725128493301</v>
       </c>
       <c r="H21">
-        <v>14.51753123584329</v>
+        <v>14.51753123584326</v>
       </c>
       <c r="I21">
-        <v>16.90943372680414</v>
+        <v>16.90943372680426</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>43.48381134011998</v>
+        <v>43.48381134012006</v>
       </c>
       <c r="L21">
-        <v>37.45712145830444</v>
+        <v>37.45712145830449</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80485270913188</v>
+        <v>23.80485270913189</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.885447023795331</v>
+        <v>9.885447023795408</v>
       </c>
       <c r="E22">
-        <v>28.50309378401708</v>
+        <v>28.50309378401711</v>
       </c>
       <c r="F22">
-        <v>60.22654779757709</v>
+        <v>60.22654779757718</v>
       </c>
       <c r="G22">
-        <v>49.33832639244841</v>
+        <v>49.33832639244849</v>
       </c>
       <c r="H22">
-        <v>14.74226667862923</v>
+        <v>14.74226667862925</v>
       </c>
       <c r="I22">
-        <v>17.46523115040455</v>
+        <v>17.46523115040458</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>45.34890516936389</v>
+        <v>45.34890516936393</v>
       </c>
       <c r="L22">
-        <v>38.99374152047152</v>
+        <v>38.99374152047156</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.33582203377393</v>
+        <v>23.33582203377391</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.632861727903101</v>
+        <v>9.632861727903052</v>
       </c>
       <c r="E23">
-        <v>27.94944279325308</v>
+        <v>27.9494427932532</v>
       </c>
       <c r="F23">
-        <v>58.60942994882106</v>
+        <v>58.60942994882114</v>
       </c>
       <c r="G23">
-        <v>48.00872636037893</v>
+        <v>48.00872636037899</v>
       </c>
       <c r="H23">
-        <v>14.61673804388822</v>
+        <v>14.6167380438882</v>
       </c>
       <c r="I23">
-        <v>17.16910212657787</v>
+        <v>17.169102126578</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>44.35475364899968</v>
+        <v>44.35475364899966</v>
       </c>
       <c r="L23">
-        <v>38.17554837115192</v>
+        <v>38.17554837115191</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.693533601868829</v>
+        <v>8.693533601868801</v>
       </c>
       <c r="E24">
-        <v>25.8273181710459</v>
+        <v>25.82731817104601</v>
       </c>
       <c r="F24">
-        <v>52.60746429917391</v>
+        <v>52.60746429917399</v>
       </c>
       <c r="G24">
-        <v>43.06565636988978</v>
+        <v>43.06565636988985</v>
       </c>
       <c r="H24">
-        <v>14.2571589630483</v>
+        <v>14.25715896304838</v>
       </c>
       <c r="I24">
-        <v>16.03367876124283</v>
+        <v>16.03367876124289</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>40.54889753089111</v>
+        <v>40.54889753089115</v>
       </c>
       <c r="L24">
-        <v>35.02586382558388</v>
+        <v>35.02586382558391</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.40600898176043</v>
+        <v>19.40600898176045</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.688643420883558</v>
+        <v>7.688643420883605</v>
       </c>
       <c r="E25">
-        <v>23.45183151612685</v>
+        <v>23.4518315161268</v>
       </c>
       <c r="F25">
-        <v>46.23708898960514</v>
+        <v>46.2370889896051</v>
       </c>
       <c r="G25">
-        <v>37.79908879167667</v>
+        <v>37.79908879167665</v>
       </c>
       <c r="H25">
-        <v>14.07704967813914</v>
+        <v>14.07704967813912</v>
       </c>
       <c r="I25">
-        <v>14.76666800800272</v>
+        <v>14.76666800800265</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>36.29257853549763</v>
+        <v>36.2925785354976</v>
       </c>
       <c r="L25">
-        <v>31.47570738775854</v>
+        <v>31.47570738775853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.73949203373045</v>
+        <v>17.73949203373041</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.93574145145381</v>
+        <v>6.935741451453822</v>
       </c>
       <c r="E2">
-        <v>21.60694279649451</v>
+        <v>21.60694279649446</v>
       </c>
       <c r="F2">
-        <v>41.52762232890625</v>
+        <v>41.5276223289063</v>
       </c>
       <c r="G2">
-        <v>33.8856149839588</v>
+        <v>33.88561498395882</v>
       </c>
       <c r="H2">
-        <v>14.087593525254</v>
+        <v>14.08759352525405</v>
       </c>
       <c r="I2">
-        <v>13.79009749997693</v>
+        <v>13.7900974999769</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>32.98188873504481</v>
+        <v>32.98188873504491</v>
       </c>
       <c r="L2">
-        <v>28.69820167290988</v>
+        <v>28.69820167290992</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.53105231513314</v>
+        <v>16.5310523151331</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.410330929352162</v>
+        <v>6.41033092935209</v>
       </c>
       <c r="E3">
-        <v>20.29038829739898</v>
+        <v>20.29038829739899</v>
       </c>
       <c r="F3">
-        <v>38.28947972834636</v>
+        <v>38.28947972834644</v>
       </c>
       <c r="G3">
-        <v>31.18063265215902</v>
+        <v>31.18063265215906</v>
       </c>
       <c r="H3">
-        <v>14.16802478514566</v>
+        <v>14.1680247851457</v>
       </c>
       <c r="I3">
-        <v>13.09957383256238</v>
+        <v>13.09957383256239</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>30.61086719155238</v>
+        <v>30.61086719155243</v>
       </c>
       <c r="L3">
-        <v>26.70213957636158</v>
+        <v>26.7021395763616</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74894319228653</v>
+        <v>15.74894319228651</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.078469877704245</v>
+        <v>6.078469877704329</v>
       </c>
       <c r="E4">
-        <v>19.44809184796501</v>
+        <v>19.44809184796502</v>
       </c>
       <c r="F4">
-        <v>36.33747311590558</v>
+        <v>36.33747311590567</v>
       </c>
       <c r="G4">
-        <v>29.48678549530533</v>
+        <v>29.4867854953054</v>
       </c>
       <c r="H4">
-        <v>14.24870714839377</v>
+        <v>14.24870714839373</v>
       </c>
       <c r="I4">
         <v>12.66146474830942</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.08775270693737</v>
+        <v>29.08775270693735</v>
       </c>
       <c r="L4">
-        <v>25.41740887488126</v>
+        <v>25.41740887488125</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.41998929584859</v>
+        <v>15.41998929584864</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.940685238545012</v>
+        <v>5.940685238544945</v>
       </c>
       <c r="E5">
-        <v>19.09621783578178</v>
+        <v>19.09621783578177</v>
       </c>
       <c r="F5">
-        <v>35.58128098727914</v>
+        <v>35.58128098727915</v>
       </c>
       <c r="G5">
         <v>28.83596448305443</v>
       </c>
       <c r="H5">
-        <v>14.28878328864269</v>
+        <v>14.28878328864259</v>
       </c>
       <c r="I5">
-        <v>12.47943498032026</v>
+        <v>12.47943498032028</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>28.44957212997494</v>
       </c>
       <c r="L5">
-        <v>24.87861447779681</v>
+        <v>24.87861447779683</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.36474433805376</v>
+        <v>15.3647443380538</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.917646454081734</v>
+        <v>5.917646454081689</v>
       </c>
       <c r="E6">
-        <v>19.03726658496379</v>
+        <v>19.03726658496395</v>
       </c>
       <c r="F6">
-        <v>35.4555507541025</v>
+        <v>35.45555075410246</v>
       </c>
       <c r="G6">
-        <v>28.73549038300734</v>
+        <v>28.73549038300731</v>
       </c>
       <c r="H6">
         <v>14.29585385423696</v>
       </c>
       <c r="I6">
-        <v>12.44900033522705</v>
+        <v>12.44900033522718</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.34253024810195</v>
+        <v>28.34253024810194</v>
       </c>
       <c r="L6">
-        <v>24.78821638273688</v>
+        <v>24.78821638273689</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.74454844451804</v>
+        <v>15.744548444518</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.076622252499548</v>
+        <v>6.076622252499617</v>
       </c>
       <c r="E7">
-        <v>19.44338137961092</v>
+        <v>19.44338137961089</v>
       </c>
       <c r="F7">
-        <v>36.32728584367796</v>
+        <v>36.32728584367791</v>
       </c>
       <c r="G7">
-        <v>29.47739195507169</v>
+        <v>29.47739195507161</v>
       </c>
       <c r="H7">
-        <v>14.24921934131568</v>
+        <v>14.24921934131581</v>
       </c>
       <c r="I7">
-        <v>12.65902388480752</v>
+        <v>12.65902388480746</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.07921754700515</v>
+        <v>29.07921754700511</v>
       </c>
       <c r="L7">
-        <v>25.41020474808398</v>
+        <v>25.41020474808395</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.33105445893649</v>
+        <v>17.33105445893652</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.756356933428374</v>
+        <v>6.756356933428435</v>
       </c>
       <c r="E8">
-        <v>21.15995252672383</v>
+        <v>21.15995252672381</v>
       </c>
       <c r="F8">
-        <v>40.41686492117171</v>
+        <v>40.41686492117177</v>
       </c>
       <c r="G8">
-        <v>32.95925359171194</v>
+        <v>32.959253591712</v>
       </c>
       <c r="H8">
-        <v>14.10841116787251</v>
+        <v>14.10841116787246</v>
       </c>
       <c r="I8">
-        <v>13.55495555938383</v>
+        <v>13.5549555593838</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>32.17795812053475</v>
+        <v>32.17795812053478</v>
       </c>
       <c r="L8">
-        <v>28.02198487114858</v>
+        <v>28.02198487114863</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.13154406044189</v>
+        <v>20.13154406044193</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.028047867355676</v>
+        <v>8.028047867355671</v>
       </c>
       <c r="E9">
-        <v>24.26578261442245</v>
+        <v>24.2657826144223</v>
       </c>
       <c r="F9">
-        <v>48.38011089145443</v>
+        <v>48.38011089145428</v>
       </c>
       <c r="G9">
-        <v>39.57369693390053</v>
+        <v>39.57369693390041</v>
       </c>
       <c r="H9">
-        <v>14.11323016193465</v>
+        <v>14.11323016193464</v>
       </c>
       <c r="I9">
-        <v>15.19991590234716</v>
+        <v>15.19991590234708</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>37.75114641236178</v>
+        <v>37.75114641236173</v>
       </c>
       <c r="L9">
-        <v>32.69517138333873</v>
+        <v>32.6951713833387</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01234356633066</v>
+        <v>22.01234356633065</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.946636961617187</v>
+        <v>8.946636961617267</v>
       </c>
       <c r="E10">
-        <v>26.40877353869504</v>
+        <v>26.40877353869501</v>
       </c>
       <c r="F10">
-        <v>54.22179089522259</v>
+        <v>54.22179089522242</v>
       </c>
       <c r="G10">
-        <v>44.39664909000252</v>
+        <v>44.39664909000239</v>
       </c>
       <c r="H10">
-        <v>14.33661197807604</v>
+        <v>14.33661197807611</v>
       </c>
       <c r="I10">
-        <v>16.34467930463576</v>
+        <v>16.34467930463572</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>41.59106433266195</v>
+        <v>41.59106433266192</v>
       </c>
       <c r="L10">
-        <v>35.89091103537349</v>
+        <v>35.89091103537347</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83314856503199</v>
+        <v>22.83314856503207</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.367841718703108</v>
+        <v>9.367841718703074</v>
       </c>
       <c r="E11">
-        <v>27.36071326436125</v>
+        <v>27.36071326436122</v>
       </c>
       <c r="F11">
-        <v>56.91355538723857</v>
+        <v>56.91355538723851</v>
       </c>
       <c r="G11">
-        <v>46.61346922433503</v>
+        <v>46.61346922433498</v>
       </c>
       <c r="H11">
-        <v>14.4976924700628</v>
+        <v>14.49769247006278</v>
       </c>
       <c r="I11">
-        <v>16.85407865764927</v>
+        <v>16.85407865764925</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>43.29822228798809</v>
+        <v>43.29822228798801</v>
       </c>
       <c r="L11">
-        <v>37.30384188022405</v>
+        <v>37.30384188022406</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.13934156462399</v>
+        <v>23.13934156462408</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.528597333139992</v>
+        <v>9.528597333139999</v>
       </c>
       <c r="E12">
-        <v>27.71877559326326</v>
+        <v>27.71877559326328</v>
       </c>
       <c r="F12">
-        <v>57.94209543763047</v>
+        <v>57.94209543763051</v>
       </c>
       <c r="G12">
-        <v>47.45980303485929</v>
+        <v>47.45980303485931</v>
       </c>
       <c r="H12">
-        <v>14.56832206371263</v>
+        <v>14.56832206371267</v>
       </c>
       <c r="I12">
         <v>17.04568502113933</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>43.94072660263774</v>
+        <v>43.94072660263779</v>
       </c>
       <c r="L12">
-        <v>37.83420936312118</v>
+        <v>37.83420936312123</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.07359633201856</v>
+        <v>23.0735963320186</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.493904983621773</v>
+        <v>9.493904983621817</v>
       </c>
       <c r="E13">
-        <v>27.64175058995182</v>
+        <v>27.64175058995181</v>
       </c>
       <c r="F13">
-        <v>57.7200872914942</v>
+        <v>57.72008729149415</v>
       </c>
       <c r="G13">
-        <v>47.2771548732387</v>
+        <v>47.27715487323867</v>
       </c>
       <c r="H13">
-        <v>14.55266381393155</v>
+        <v>14.55266381393158</v>
       </c>
       <c r="I13">
         <v>17.00446962044933</v>
@@ -860,7 +860,7 @@
         <v>43.80249472926538</v>
       </c>
       <c r="L13">
-        <v>37.72017064769425</v>
+        <v>37.72017064769427</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.85842953988439</v>
+        <v>22.85842953988444</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.381036740142719</v>
+        <v>9.381036740142658</v>
       </c>
       <c r="E14">
-        <v>27.39021356350573</v>
+        <v>27.39021356350568</v>
       </c>
       <c r="F14">
-        <v>56.99795958785</v>
+        <v>56.99795958784988</v>
       </c>
       <c r="G14">
-        <v>46.68293531120597</v>
+        <v>46.68293531120587</v>
       </c>
       <c r="H14">
-        <v>14.50330355049927</v>
+        <v>14.50330355049939</v>
       </c>
       <c r="I14">
-        <v>16.86986565217852</v>
+        <v>16.86986565217848</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>43.35114909740893</v>
+        <v>43.35114909740894</v>
       </c>
       <c r="L14">
-        <v>37.34756126056165</v>
+        <v>37.3475612605617</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72604355824486</v>
+        <v>22.72604355824484</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.312092101991578</v>
+        <v>9.312092101991556</v>
       </c>
       <c r="E15">
-        <v>27.23585644031192</v>
+        <v>27.23585644031185</v>
       </c>
       <c r="F15">
-        <v>56.55698764642214</v>
+        <v>56.55698764642199</v>
       </c>
       <c r="G15">
-        <v>46.31997910105309</v>
+        <v>46.31997910105297</v>
       </c>
       <c r="H15">
-        <v>14.47435742668331</v>
+        <v>14.47435742668328</v>
       </c>
       <c r="I15">
-        <v>16.7872611342233</v>
+        <v>16.78726113422324</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>43.07423133070863</v>
+        <v>43.07423133070854</v>
       </c>
       <c r="L15">
-        <v>37.11875903679442</v>
+        <v>37.11875903679435</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.95803214329286</v>
+        <v>21.9580321432929</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.919238467836202</v>
+        <v>8.919238467836134</v>
       </c>
       <c r="E16">
-        <v>26.34616942431191</v>
+        <v>26.34616942431198</v>
       </c>
       <c r="F16">
-        <v>54.04690600434081</v>
+        <v>54.04690600434105</v>
       </c>
       <c r="G16">
-        <v>44.25251684005497</v>
+        <v>44.25251684005516</v>
       </c>
       <c r="H16">
         <v>14.32737140789989</v>
       </c>
       <c r="I16">
-        <v>16.31118635310445</v>
+        <v>16.31118635310454</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>41.47883802119613</v>
+        <v>41.47883802119625</v>
       </c>
       <c r="L16">
-        <v>35.79784579157354</v>
+        <v>35.79784579157362</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47821386012812</v>
+        <v>21.47821386012809</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.679572911894194</v>
+        <v>8.679572911894184</v>
       </c>
       <c r="E17">
-        <v>25.79504323275798</v>
+        <v>25.79504323275791</v>
       </c>
       <c r="F17">
-        <v>52.51850809984515</v>
+        <v>52.51850809984521</v>
       </c>
       <c r="G17">
-        <v>42.99227671748886</v>
+        <v>42.9922767174889</v>
       </c>
       <c r="H17">
-        <v>14.25316547743592</v>
+        <v>14.25316547743589</v>
       </c>
       <c r="I17">
-        <v>16.01642192094825</v>
+        <v>16.01642192094821</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>40.49105984302788</v>
+        <v>40.49105984302789</v>
       </c>
       <c r="L17">
         <v>34.97780327914999</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.19893485444411</v>
+        <v>21.19893485444409</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.541980099848537</v>
+        <v>8.541980099848502</v>
       </c>
       <c r="E18">
-        <v>25.47582604995692</v>
+        <v>25.47582604995694</v>
       </c>
       <c r="F18">
-        <v>51.64232661730109</v>
+        <v>51.64232661730108</v>
       </c>
       <c r="G18">
-        <v>42.26930213959319</v>
+        <v>42.26930213959317</v>
       </c>
       <c r="H18">
-        <v>14.21601092397649</v>
+        <v>14.2160109239765</v>
       </c>
       <c r="I18">
-        <v>15.84578474152008</v>
+        <v>15.84578474152006</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>39.91905774402665</v>
       </c>
       <c r="L18">
-        <v>34.5022067013452</v>
+        <v>34.50220670134519</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1067,28 +1067,28 @@
         <v>8.495417517629217</v>
       </c>
       <c r="E19">
-        <v>25.36734041579357</v>
+        <v>25.36734041579363</v>
       </c>
       <c r="F19">
-        <v>51.34605674647095</v>
+        <v>51.34605674647089</v>
       </c>
       <c r="G19">
-        <v>42.02474602873943</v>
+        <v>42.02474602873939</v>
       </c>
       <c r="H19">
-        <v>14.20434907424005</v>
+        <v>14.20434907424012</v>
       </c>
       <c r="I19">
-        <v>15.78781336301986</v>
+        <v>15.7878133630199</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>39.72467937194048</v>
+        <v>39.7246793719405</v>
       </c>
       <c r="L19">
-        <v>34.34047162891204</v>
+        <v>34.34047162891206</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1105,19 +1105,19 @@
         <v>8.705054276233666</v>
       </c>
       <c r="E20">
-        <v>25.85393628343079</v>
+        <v>25.85393628343083</v>
       </c>
       <c r="F20">
-        <v>52.68088029997454</v>
+        <v>52.68088029997458</v>
       </c>
       <c r="G20">
-        <v>43.1262140029727</v>
+        <v>43.12621400297274</v>
       </c>
       <c r="H20">
-        <v>14.26048535317408</v>
+        <v>14.26048535317409</v>
       </c>
       <c r="I20">
-        <v>16.04791154022602</v>
+        <v>16.04791154022608</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92175142191844</v>
+        <v>22.92175142191842</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.414147458921233</v>
+        <v>9.414147458921262</v>
       </c>
       <c r="E21">
-        <v>27.46415313004278</v>
+        <v>27.46415313004263</v>
       </c>
       <c r="F21">
-        <v>57.20977454123574</v>
+        <v>57.20977454123551</v>
       </c>
       <c r="G21">
-        <v>46.85725128493301</v>
+        <v>46.85725128493283</v>
       </c>
       <c r="H21">
-        <v>14.51753123584326</v>
+        <v>14.51753123584329</v>
       </c>
       <c r="I21">
-        <v>16.90943372680426</v>
+        <v>16.90943372680414</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>43.48381134012006</v>
+        <v>43.48381134011998</v>
       </c>
       <c r="L21">
-        <v>37.45712145830449</v>
+        <v>37.45712145830444</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80485270913189</v>
+        <v>23.80485270913188</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.885447023795408</v>
+        <v>9.885447023795331</v>
       </c>
       <c r="E22">
-        <v>28.50309378401711</v>
+        <v>28.50309378401708</v>
       </c>
       <c r="F22">
-        <v>60.22654779757718</v>
+        <v>60.22654779757709</v>
       </c>
       <c r="G22">
-        <v>49.33832639244849</v>
+        <v>49.33832639244841</v>
       </c>
       <c r="H22">
-        <v>14.74226667862925</v>
+        <v>14.74226667862923</v>
       </c>
       <c r="I22">
-        <v>17.46523115040458</v>
+        <v>17.46523115040455</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>45.34890516936393</v>
+        <v>45.34890516936389</v>
       </c>
       <c r="L22">
-        <v>38.99374152047156</v>
+        <v>38.99374152047152</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.33582203377391</v>
+        <v>23.33582203377393</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.632861727903052</v>
+        <v>9.632861727903101</v>
       </c>
       <c r="E23">
-        <v>27.9494427932532</v>
+        <v>27.94944279325308</v>
       </c>
       <c r="F23">
-        <v>58.60942994882114</v>
+        <v>58.60942994882106</v>
       </c>
       <c r="G23">
-        <v>48.00872636037899</v>
+        <v>48.00872636037893</v>
       </c>
       <c r="H23">
-        <v>14.6167380438882</v>
+        <v>14.61673804388822</v>
       </c>
       <c r="I23">
-        <v>17.169102126578</v>
+        <v>17.16910212657787</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>44.35475364899966</v>
+        <v>44.35475364899968</v>
       </c>
       <c r="L23">
-        <v>38.17554837115191</v>
+        <v>38.17554837115192</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.693533601868801</v>
+        <v>8.693533601868829</v>
       </c>
       <c r="E24">
-        <v>25.82731817104601</v>
+        <v>25.8273181710459</v>
       </c>
       <c r="F24">
-        <v>52.60746429917399</v>
+        <v>52.60746429917391</v>
       </c>
       <c r="G24">
-        <v>43.06565636988985</v>
+        <v>43.06565636988978</v>
       </c>
       <c r="H24">
-        <v>14.25715896304838</v>
+        <v>14.2571589630483</v>
       </c>
       <c r="I24">
-        <v>16.03367876124289</v>
+        <v>16.03367876124283</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>40.54889753089115</v>
+        <v>40.54889753089111</v>
       </c>
       <c r="L24">
-        <v>35.02586382558391</v>
+        <v>35.02586382558388</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.40600898176045</v>
+        <v>19.40600898176043</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.688643420883605</v>
+        <v>7.688643420883558</v>
       </c>
       <c r="E25">
-        <v>23.4518315161268</v>
+        <v>23.45183151612685</v>
       </c>
       <c r="F25">
-        <v>46.2370889896051</v>
+        <v>46.23708898960514</v>
       </c>
       <c r="G25">
-        <v>37.79908879167665</v>
+        <v>37.79908879167667</v>
       </c>
       <c r="H25">
-        <v>14.07704967813912</v>
+        <v>14.07704967813914</v>
       </c>
       <c r="I25">
-        <v>14.76666800800265</v>
+        <v>14.76666800800272</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>36.2925785354976</v>
+        <v>36.29257853549763</v>
       </c>
       <c r="L25">
-        <v>31.47570738775853</v>
+        <v>31.47570738775854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.73949203373041</v>
+        <v>17.74008423409118</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.935741451453822</v>
+        <v>6.92526721357192</v>
       </c>
       <c r="E2">
-        <v>21.60694279649446</v>
+        <v>21.5937553296132</v>
       </c>
       <c r="F2">
-        <v>41.5276223289063</v>
+        <v>41.48806551471569</v>
       </c>
       <c r="G2">
-        <v>33.88561498395882</v>
+        <v>33.9339033603678</v>
       </c>
       <c r="H2">
-        <v>14.08759352525405</v>
+        <v>33.72366474569726</v>
       </c>
       <c r="I2">
-        <v>13.7900974999769</v>
+        <v>14.0987989283542</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.78504671555985</v>
       </c>
       <c r="K2">
-        <v>32.98188873504491</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>28.69820167290992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>32.97019779109033</v>
+      </c>
+      <c r="M2">
+        <v>28.69094823438635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.5310523151331</v>
+        <v>16.53168776681361</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.41033092935209</v>
+        <v>6.400879580919204</v>
       </c>
       <c r="E3">
-        <v>20.29038829739899</v>
+        <v>20.27856754655063</v>
       </c>
       <c r="F3">
-        <v>38.28947972834644</v>
+        <v>38.25364873167228</v>
       </c>
       <c r="G3">
-        <v>31.18063265215906</v>
+        <v>31.22567696547922</v>
       </c>
       <c r="H3">
-        <v>14.1680247851457</v>
+        <v>31.09788132929678</v>
       </c>
       <c r="I3">
-        <v>13.09957383256239</v>
+        <v>14.17761592926256</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.09511989623781</v>
       </c>
       <c r="K3">
-        <v>30.61086719155243</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>26.7021395763616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>30.6004146764439</v>
+      </c>
+      <c r="M3">
+        <v>26.69570022959677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74894319228651</v>
+        <v>15.74959717026378</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.078469877704329</v>
+        <v>6.069653967323001</v>
       </c>
       <c r="E4">
-        <v>19.44809184796502</v>
+        <v>19.43712950224533</v>
       </c>
       <c r="F4">
-        <v>36.33747311590567</v>
+        <v>36.30528930100117</v>
       </c>
       <c r="G4">
-        <v>29.4867854953054</v>
+        <v>29.52974237673406</v>
       </c>
       <c r="H4">
-        <v>14.24870714839373</v>
+        <v>29.48337507983114</v>
       </c>
       <c r="I4">
-        <v>12.66146474830942</v>
+        <v>14.25728262913529</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.65738701812605</v>
       </c>
       <c r="K4">
-        <v>29.08775270693735</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>25.41740887488125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>29.07804408959792</v>
+      </c>
+      <c r="M4">
+        <v>25.41145960744997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.41998929584864</v>
+        <v>15.4206490975528</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.940685238544945</v>
+        <v>5.93213118730688</v>
       </c>
       <c r="E5">
-        <v>19.09621783578177</v>
+        <v>19.08561177225531</v>
       </c>
       <c r="F5">
-        <v>35.58128098727915</v>
+        <v>35.55000279532228</v>
       </c>
       <c r="G5">
-        <v>28.83596448305443</v>
+        <v>28.82957339392735</v>
       </c>
       <c r="H5">
-        <v>14.28878328864259</v>
+        <v>28.87816483453859</v>
       </c>
       <c r="I5">
-        <v>12.47943498032028</v>
+        <v>14.29694072976279</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.47551368171905</v>
       </c>
       <c r="K5">
-        <v>28.44957212997494</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>24.87861447779683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>28.44016433896023</v>
+      </c>
+      <c r="M5">
+        <v>24.87286375879092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.3647443380538</v>
+        <v>15.36540501017121</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.917646454081689</v>
+        <v>5.909136088438767</v>
       </c>
       <c r="E6">
-        <v>19.03726658496395</v>
+        <v>19.02672011734535</v>
       </c>
       <c r="F6">
-        <v>35.45555075410246</v>
+        <v>35.42442264957435</v>
       </c>
       <c r="G6">
-        <v>28.73549038300731</v>
+        <v>28.71274638440904</v>
       </c>
       <c r="H6">
-        <v>14.29585385423696</v>
+        <v>28.7775601841369</v>
       </c>
       <c r="I6">
-        <v>12.44900033522718</v>
+        <v>14.30394167919075</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.44510521843384</v>
       </c>
       <c r="K6">
-        <v>28.34253024810194</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>24.78821638273689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>28.33317231636919</v>
+      </c>
+      <c r="M6">
+        <v>24.78249859628012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.744548444518</v>
+        <v>15.74520250767349</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.076622252499617</v>
+        <v>6.067809860558158</v>
       </c>
       <c r="E7">
-        <v>19.44338137961089</v>
+        <v>19.43242381058973</v>
       </c>
       <c r="F7">
-        <v>36.32728584367791</v>
+        <v>36.2951142637998</v>
       </c>
       <c r="G7">
-        <v>29.47739195507161</v>
+        <v>29.52033715388179</v>
       </c>
       <c r="H7">
-        <v>14.24921934131581</v>
+        <v>29.47522032156292</v>
       </c>
       <c r="I7">
-        <v>12.65902388480746</v>
+        <v>14.25778919872137</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.65494825084838</v>
       </c>
       <c r="K7">
-        <v>29.07921754700511</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>25.41020474808395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>29.0695129939219</v>
+      </c>
+      <c r="M7">
+        <v>25.40425816149454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.33105445893652</v>
+        <v>17.33166343326943</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.756356933428435</v>
+        <v>6.746234544946854</v>
       </c>
       <c r="E8">
-        <v>21.15995252672381</v>
+        <v>21.14723336322098</v>
       </c>
       <c r="F8">
-        <v>40.41686492117177</v>
+        <v>40.37860408934998</v>
       </c>
       <c r="G8">
-        <v>32.959253591712</v>
+        <v>33.0064445194897</v>
       </c>
       <c r="H8">
-        <v>14.10841116787246</v>
+        <v>32.823009448734</v>
       </c>
       <c r="I8">
-        <v>13.5549555593838</v>
+        <v>14.11906642843256</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.55010898971021</v>
       </c>
       <c r="K8">
-        <v>32.17795812053478</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>28.02198487114863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>32.16669882967257</v>
+      </c>
+      <c r="M8">
+        <v>28.01501501336899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.13154406044193</v>
+        <v>20.13198394656755</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.028047867355671</v>
+        <v>8.015356223176836</v>
       </c>
       <c r="E9">
-        <v>24.2657826144223</v>
+        <v>24.24967339646834</v>
       </c>
       <c r="F9">
-        <v>48.38011089145428</v>
+        <v>48.33207405401697</v>
       </c>
       <c r="G9">
-        <v>39.57369693390041</v>
+        <v>39.62834671820989</v>
       </c>
       <c r="H9">
-        <v>14.11323016193464</v>
+        <v>39.27938851082226</v>
       </c>
       <c r="I9">
-        <v>15.19991590234708</v>
+        <v>14.12766180778148</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15.19359691209654</v>
       </c>
       <c r="K9">
-        <v>37.75114641236173</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>32.6951713833387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>37.73660065787474</v>
+      </c>
+      <c r="M9">
+        <v>32.68604341751009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01234356633065</v>
+        <v>22.01257747708375</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.946636961617267</v>
+        <v>8.931947505470047</v>
       </c>
       <c r="E10">
-        <v>26.40877353869501</v>
+        <v>26.39005320887296</v>
       </c>
       <c r="F10">
-        <v>54.22179089522242</v>
+        <v>54.16570351846725</v>
       </c>
       <c r="G10">
-        <v>44.39664909000239</v>
+        <v>44.45603673906995</v>
       </c>
       <c r="H10">
-        <v>14.33661197807611</v>
+        <v>44.01558359423696</v>
       </c>
       <c r="I10">
-        <v>16.34467930463572</v>
+        <v>14.35341847334895</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.33723222906348</v>
       </c>
       <c r="K10">
-        <v>41.59106433266192</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>35.89091103537347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>41.57375338010986</v>
+      </c>
+      <c r="M10">
+        <v>35.87996458231763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83314856503207</v>
+        <v>22.83325963036532</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.367841718703074</v>
+        <v>9.352181880940435</v>
       </c>
       <c r="E11">
-        <v>27.36071326436122</v>
+        <v>27.34072567154465</v>
       </c>
       <c r="F11">
-        <v>56.91355538723851</v>
+        <v>56.85343253706638</v>
       </c>
       <c r="G11">
-        <v>46.61346922433498</v>
+        <v>46.67476998604804</v>
       </c>
       <c r="H11">
-        <v>14.49769247006278</v>
+        <v>46.19820200221393</v>
       </c>
       <c r="I11">
-        <v>16.85407865764925</v>
+        <v>14.51543319846703</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>16.84608454201534</v>
       </c>
       <c r="K11">
-        <v>43.29822228798801</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>37.30384188022406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>43.27950512299162</v>
+      </c>
+      <c r="M11">
+        <v>37.29196876887977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.13934156462408</v>
+        <v>23.13940045617392</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.528597333139999</v>
+        <v>9.51255639694376</v>
       </c>
       <c r="E12">
-        <v>27.71877559326328</v>
+        <v>27.6982899943553</v>
       </c>
       <c r="F12">
-        <v>57.94209543763051</v>
+        <v>57.88036680832577</v>
       </c>
       <c r="G12">
-        <v>47.45980303485931</v>
+        <v>47.52178206272312</v>
       </c>
       <c r="H12">
-        <v>14.56832206371267</v>
+        <v>47.03225881697873</v>
       </c>
       <c r="I12">
-        <v>17.04568502113933</v>
+        <v>14.58638951545952</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>17.03747587711603</v>
       </c>
       <c r="K12">
-        <v>43.94072660263779</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>37.83420936312123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>43.92144633886342</v>
+      </c>
+      <c r="M12">
+        <v>37.82196479932887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.0735963320186</v>
+        <v>23.0736667416166</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.493904983621817</v>
+        <v>9.477946828022867</v>
       </c>
       <c r="E13">
-        <v>27.64175058995181</v>
+        <v>27.62137318782925</v>
       </c>
       <c r="F13">
-        <v>57.72008729149415</v>
+        <v>57.65870844113518</v>
       </c>
       <c r="G13">
-        <v>47.27715487323867</v>
+        <v>47.33899012234708</v>
       </c>
       <c r="H13">
-        <v>14.55266381393158</v>
+        <v>46.85222603600124</v>
       </c>
       <c r="I13">
-        <v>17.00446962044933</v>
+        <v>14.57066221059049</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>16.9963071982176</v>
       </c>
       <c r="K13">
-        <v>43.80249472926538</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>37.72017064769427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>43.78333728972567</v>
+      </c>
+      <c r="M13">
+        <v>37.7080071246712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.85842953988444</v>
+        <v>22.8585364367475</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.381036740142658</v>
+        <v>9.365345856919145</v>
       </c>
       <c r="E14">
-        <v>27.39021356350568</v>
+        <v>27.37018541065284</v>
       </c>
       <c r="F14">
-        <v>56.99795958784988</v>
+        <v>56.9377063587707</v>
       </c>
       <c r="G14">
-        <v>46.68293531120587</v>
+        <v>46.74429288552081</v>
       </c>
       <c r="H14">
-        <v>14.50330355049939</v>
+        <v>46.26664500535261</v>
       </c>
       <c r="I14">
-        <v>16.86986565217848</v>
+        <v>14.52107173910006</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>16.86185402547972</v>
       </c>
       <c r="K14">
-        <v>43.35114909740894</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>37.3475612605617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>43.33238628609615</v>
+      </c>
+      <c r="M14">
+        <v>37.33565804649609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72604355824484</v>
+        <v>22.72617201450148</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.312092101991556</v>
+        <v>9.296562979973279</v>
       </c>
       <c r="E15">
-        <v>27.23585644031185</v>
+        <v>27.21603960862486</v>
       </c>
       <c r="F15">
-        <v>56.55698764642199</v>
+        <v>56.49741290099137</v>
       </c>
       <c r="G15">
-        <v>46.31997910105297</v>
+        <v>46.38103763772213</v>
       </c>
       <c r="H15">
-        <v>14.47435742668328</v>
+        <v>45.9090655514232</v>
       </c>
       <c r="I15">
-        <v>16.78726113422324</v>
+        <v>14.49198088648296</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>16.779340738671</v>
       </c>
       <c r="K15">
-        <v>43.07423133070854</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>37.11875903679435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>43.05570591586794</v>
+      </c>
+      <c r="M15">
+        <v>37.10701236452503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.9580321432929</v>
+        <v>21.95827338346798</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.919238467836134</v>
+        <v>8.904610822040461</v>
       </c>
       <c r="E16">
-        <v>26.34616942431198</v>
+        <v>26.32752979872965</v>
       </c>
       <c r="F16">
-        <v>54.04690600434105</v>
+        <v>53.99107300984261</v>
       </c>
       <c r="G16">
-        <v>44.25251684005516</v>
+        <v>44.31177373695484</v>
       </c>
       <c r="H16">
-        <v>14.32737140789989</v>
+        <v>43.87378533504421</v>
       </c>
       <c r="I16">
-        <v>16.31118635310454</v>
+        <v>14.34411341511407</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>16.30377411508177</v>
       </c>
       <c r="K16">
-        <v>41.47883802119625</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>35.79784579157362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>41.46161527243833</v>
+      </c>
+      <c r="M16">
+        <v>35.78695741744541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47821386012809</v>
+        <v>21.47851595145944</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.679572911894184</v>
+        <v>8.665479664322676</v>
       </c>
       <c r="E17">
-        <v>25.79504323275791</v>
+        <v>25.77710141710513</v>
       </c>
       <c r="F17">
-        <v>52.51850809984521</v>
+        <v>52.46486071019697</v>
       </c>
       <c r="G17">
-        <v>42.9922767174889</v>
+        <v>43.05035980738581</v>
       </c>
       <c r="H17">
-        <v>14.25316547743589</v>
+        <v>42.63457657739605</v>
       </c>
       <c r="I17">
-        <v>16.01642192094821</v>
+        <v>14.26932532810673</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>16.00931094513132</v>
       </c>
       <c r="K17">
-        <v>40.49105984302789</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>34.97780327914999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>40.47459272524974</v>
+      </c>
+      <c r="M17">
+        <v>34.96741224887517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.19893485444409</v>
+        <v>21.19926931573977</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.541980099848502</v>
+        <v>8.528188798152895</v>
       </c>
       <c r="E18">
-        <v>25.47582604995694</v>
+        <v>25.45827863174534</v>
       </c>
       <c r="F18">
-        <v>51.64232661730108</v>
+        <v>51.58990306216042</v>
       </c>
       <c r="G18">
-        <v>42.26930213959317</v>
+        <v>42.32668820227991</v>
       </c>
       <c r="H18">
-        <v>14.2160109239765</v>
+        <v>41.92419878781104</v>
       </c>
       <c r="I18">
-        <v>15.84578474152006</v>
+        <v>14.23182259629752</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>15.83884408718688</v>
       </c>
       <c r="K18">
-        <v>39.91905774402665</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>34.50220670134519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>39.90301200381899</v>
+      </c>
+      <c r="M18">
+        <v>34.49209285592362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.10379893393299</v>
+        <v>21.10414393924329</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.495417517629217</v>
+        <v>8.481727635071527</v>
       </c>
       <c r="E19">
-        <v>25.36734041579363</v>
+        <v>25.34992550266961</v>
       </c>
       <c r="F19">
-        <v>51.34605674647089</v>
+        <v>51.29404243046676</v>
       </c>
       <c r="G19">
-        <v>42.02474602873939</v>
+        <v>42.08189259653579</v>
       </c>
       <c r="H19">
-        <v>14.20434907424012</v>
+        <v>41.68399618488245</v>
       </c>
       <c r="I19">
-        <v>15.7878133630199</v>
+        <v>14.2200407370105</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>15.78092994279789</v>
       </c>
       <c r="K19">
-        <v>39.7246793719405</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>34.34047162891206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>39.70877425535584</v>
+      </c>
+      <c r="M19">
+        <v>34.33045026239515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.52963046171037</v>
+        <v>21.52992635634294</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.705054276233666</v>
+        <v>8.690904731482524</v>
       </c>
       <c r="E20">
-        <v>25.85393628343083</v>
+        <v>25.83592094607085</v>
       </c>
       <c r="F20">
-        <v>52.68088029997458</v>
+        <v>52.62700383578921</v>
       </c>
       <c r="G20">
-        <v>43.12621400297274</v>
+        <v>43.18442437733788</v>
       </c>
       <c r="H20">
-        <v>14.26048535317409</v>
+        <v>42.76622388393856</v>
       </c>
       <c r="I20">
-        <v>16.04791154022608</v>
+        <v>14.27670859639048</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>16.04076881871584</v>
       </c>
       <c r="K20">
-        <v>40.59659871045351</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>35.06549730377579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>40.58005258069497</v>
+      </c>
+      <c r="M20">
+        <v>35.05505428650487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92175142191842</v>
+        <v>22.92184776976681</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.414147458921262</v>
+        <v>9.398378489353357</v>
       </c>
       <c r="E21">
-        <v>27.46415313004263</v>
+        <v>27.44402295289852</v>
       </c>
       <c r="F21">
-        <v>57.20977454123551</v>
+        <v>57.1491930385211</v>
       </c>
       <c r="G21">
-        <v>46.85725128493283</v>
+        <v>46.91875053653946</v>
       </c>
       <c r="H21">
-        <v>14.51753123584329</v>
+        <v>46.43840598128139</v>
       </c>
       <c r="I21">
-        <v>16.90943372680414</v>
+        <v>14.53536782962702</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.90137805162498</v>
       </c>
       <c r="K21">
-        <v>43.48381134011998</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>37.45712145830444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>43.46493354051575</v>
+      </c>
+      <c r="M21">
+        <v>37.44514240560854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80485270913188</v>
+        <v>23.80478449227132</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.885447023795331</v>
+        <v>9.868536316824599</v>
       </c>
       <c r="E22">
-        <v>28.50309378401708</v>
+        <v>28.4814704374526</v>
       </c>
       <c r="F22">
-        <v>60.22654779757709</v>
+        <v>60.161112050581</v>
       </c>
       <c r="G22">
-        <v>49.33832639244841</v>
+        <v>49.40169576248488</v>
       </c>
       <c r="H22">
-        <v>14.74226667862923</v>
+        <v>48.88490801327265</v>
       </c>
       <c r="I22">
-        <v>17.46523115040455</v>
+        <v>14.76099638400603</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>17.45653047906986</v>
       </c>
       <c r="K22">
-        <v>45.34890516936389</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>38.99374152047152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>45.32831761111173</v>
+      </c>
+      <c r="M22">
+        <v>38.98063374418349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.33582203377393</v>
+        <v>23.33584543322546</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.632861727903101</v>
+        <v>9.616570166729636</v>
       </c>
       <c r="E23">
-        <v>27.94944279325308</v>
+        <v>27.92862953504176</v>
       </c>
       <c r="F23">
-        <v>58.60942994882106</v>
+        <v>58.54663906638603</v>
       </c>
       <c r="G23">
-        <v>48.00872636037893</v>
+        <v>48.07112860751086</v>
       </c>
       <c r="H23">
-        <v>14.61673804388822</v>
+        <v>47.57343150143618</v>
       </c>
       <c r="I23">
-        <v>17.16910212657787</v>
+        <v>14.63500812820874</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>17.16075147258184</v>
       </c>
       <c r="K23">
-        <v>44.35475364899968</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>38.17554837115192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>44.3350998148059</v>
+      </c>
+      <c r="M23">
+        <v>38.16305725717181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.50639571142187</v>
+        <v>21.50669441562331</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.693533601868829</v>
+        <v>8.679409525208387</v>
       </c>
       <c r="E24">
-        <v>25.8273181710459</v>
+        <v>25.80933609351215</v>
       </c>
       <c r="F24">
-        <v>52.60746429917391</v>
+        <v>52.55369149978091</v>
       </c>
       <c r="G24">
-        <v>43.06565636988978</v>
+        <v>43.12380926729411</v>
       </c>
       <c r="H24">
-        <v>14.2571589630483</v>
+        <v>42.70669996935618</v>
       </c>
       <c r="I24">
-        <v>16.03367876124283</v>
+        <v>14.27335358806661</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>16.02655040071708</v>
       </c>
       <c r="K24">
-        <v>40.54889753089111</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>35.02586382558388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>40.53238716243898</v>
+      </c>
+      <c r="M24">
+        <v>35.01544433843919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.40600898176043</v>
+        <v>19.4065060261325</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.688643420883558</v>
+        <v>7.676656379494602</v>
       </c>
       <c r="E25">
-        <v>23.45183151612685</v>
+        <v>23.43664651762612</v>
       </c>
       <c r="F25">
-        <v>46.23708898960514</v>
+        <v>46.19180213687123</v>
       </c>
       <c r="G25">
-        <v>37.79908879167667</v>
+        <v>37.85183131069245</v>
       </c>
       <c r="H25">
-        <v>14.07704967813914</v>
+        <v>37.54197317494155</v>
       </c>
       <c r="I25">
-        <v>14.76666800800272</v>
+        <v>14.09051228641262</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.76074923972967</v>
       </c>
       <c r="K25">
-        <v>36.29257853549763</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>31.47570738775854</v>
+        <v>36.27896483172502</v>
+      </c>
+      <c r="M25">
+        <v>31.46719151679284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.74008423409118</v>
+        <v>18.7940537423919</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.92526721357192</v>
+        <v>5.77933375769872</v>
       </c>
       <c r="E2">
-        <v>21.5937553296132</v>
+        <v>10.18232614463645</v>
       </c>
       <c r="F2">
-        <v>41.48806551471569</v>
+        <v>37.06719020419668</v>
       </c>
       <c r="G2">
-        <v>33.9339033603678</v>
+        <v>2.085799831897732</v>
       </c>
       <c r="H2">
-        <v>33.72366474569726</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14.0987989283542</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.78504671555985</v>
+        <v>7.119960838232488</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>26.28765581475334</v>
       </c>
       <c r="L2">
-        <v>32.97019779109033</v>
+        <v>11.65056130998849</v>
       </c>
       <c r="M2">
-        <v>28.69094823438635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.49559740666781</v>
+      </c>
+      <c r="O2">
+        <v>29.13450760076906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.53168776681361</v>
+        <v>17.81092211019837</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.400879580919204</v>
+        <v>5.481628679214882</v>
       </c>
       <c r="E3">
-        <v>20.27856754655063</v>
+        <v>9.831045693237719</v>
       </c>
       <c r="F3">
-        <v>38.25364873167228</v>
+        <v>35.82310496669025</v>
       </c>
       <c r="G3">
-        <v>31.22567696547922</v>
+        <v>2.097623796165498</v>
       </c>
       <c r="H3">
-        <v>31.09788132929678</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>14.17761592926256</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.09511989623781</v>
+        <v>7.028189563248771</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>24.41908923138028</v>
       </c>
       <c r="L3">
-        <v>30.6004146764439</v>
+        <v>11.0202700060615</v>
       </c>
       <c r="M3">
-        <v>26.69570022959677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.79240478886208</v>
+      </c>
+      <c r="O3">
+        <v>28.09972416138657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74959717026378</v>
+        <v>17.19216130400895</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.069653967323001</v>
+        <v>5.293923941478414</v>
       </c>
       <c r="E4">
-        <v>19.43712950224533</v>
+        <v>9.611333169187809</v>
       </c>
       <c r="F4">
-        <v>36.30528930100117</v>
+        <v>35.08182425240946</v>
       </c>
       <c r="G4">
-        <v>29.52974237673406</v>
+        <v>2.10504554475489</v>
       </c>
       <c r="H4">
-        <v>29.48337507983114</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>14.25728262913529</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.65738701812605</v>
+        <v>6.971964343720266</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>23.21265112132592</v>
       </c>
       <c r="L4">
-        <v>29.07804408959792</v>
+        <v>10.62302752617439</v>
       </c>
       <c r="M4">
-        <v>25.41145960744997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.97691471358614</v>
+      </c>
+      <c r="O4">
+        <v>27.48079331881257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.4206490975528</v>
+        <v>16.93646910165692</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.93213118730688</v>
+        <v>5.216179534949138</v>
       </c>
       <c r="E5">
-        <v>19.08561177225531</v>
+        <v>9.52078926265292</v>
       </c>
       <c r="F5">
-        <v>35.55000279532228</v>
+        <v>34.78554662712895</v>
       </c>
       <c r="G5">
-        <v>28.82957339392735</v>
+        <v>2.108113688007131</v>
       </c>
       <c r="H5">
-        <v>28.87816483453859</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>14.29694072976279</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12.47551368171905</v>
+        <v>6.949068743380939</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.70593827594212</v>
       </c>
       <c r="L5">
-        <v>28.44016433896023</v>
+        <v>10.45871359923007</v>
       </c>
       <c r="M5">
-        <v>24.87286375879092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>14.0527470098125</v>
+      </c>
+      <c r="O5">
+        <v>27.23282524778254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.36540501017121</v>
+        <v>16.89380638162997</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.909136088438767</v>
+        <v>5.203194160124416</v>
       </c>
       <c r="E6">
-        <v>19.02672011734535</v>
+        <v>9.505693862323332</v>
       </c>
       <c r="F6">
-        <v>35.42442264957435</v>
+        <v>34.73670403232732</v>
       </c>
       <c r="G6">
-        <v>28.71274638440904</v>
+        <v>2.108625875671836</v>
       </c>
       <c r="H6">
-        <v>28.7775601841369</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>14.30394167919075</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12.44510521843384</v>
+        <v>6.945267573525864</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.62088241387043</v>
       </c>
       <c r="L6">
-        <v>28.33317231636919</v>
+        <v>10.43128724000817</v>
       </c>
       <c r="M6">
-        <v>24.78249859628012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>14.06537975113372</v>
+      </c>
+      <c r="O6">
+        <v>27.19191093691347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.74520250767349</v>
+        <v>17.18872690664687</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.067809860558158</v>
+        <v>5.292880542074001</v>
       </c>
       <c r="E7">
-        <v>19.43242381058973</v>
+        <v>9.610116136779535</v>
       </c>
       <c r="F7">
-        <v>36.2951142637998</v>
+        <v>35.07780489491554</v>
       </c>
       <c r="G7">
-        <v>29.52033715388179</v>
+        <v>2.105086741945447</v>
       </c>
       <c r="H7">
-        <v>29.47522032156292</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>14.25778919872137</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.65494825084838</v>
+        <v>6.971655515627137</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>23.20587873695724</v>
       </c>
       <c r="L7">
-        <v>29.0695129939219</v>
+        <v>10.62082117335374</v>
       </c>
       <c r="M7">
-        <v>25.40425816149454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.97793471929424</v>
+      </c>
+      <c r="O7">
+        <v>27.4774317499357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.33166343326943</v>
+        <v>18.45834363839322</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.746234544946854</v>
+        <v>5.677689946696353</v>
       </c>
       <c r="E8">
-        <v>21.14723336322098</v>
+        <v>10.06203789307515</v>
       </c>
       <c r="F8">
-        <v>40.37860408934998</v>
+        <v>36.63360551219545</v>
       </c>
       <c r="G8">
-        <v>33.0064445194897</v>
+        <v>2.089845065352094</v>
       </c>
       <c r="H8">
-        <v>32.823009448734</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>14.11906642843256</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>13.55010898971021</v>
+        <v>7.088283374265971</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>25.65551396324403</v>
       </c>
       <c r="L8">
-        <v>32.16669882967257</v>
+        <v>11.43543493698023</v>
       </c>
       <c r="M8">
-        <v>28.01501501336899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.59751116349187</v>
+      </c>
+      <c r="O8">
+        <v>28.77436889454438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.13198394656755</v>
+        <v>20.81980147473673</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.015356223176836</v>
+        <v>6.394834357883767</v>
       </c>
       <c r="E9">
-        <v>24.24967339646834</v>
+        <v>10.91691537838341</v>
       </c>
       <c r="F9">
-        <v>48.33207405401697</v>
+        <v>39.86018243517386</v>
       </c>
       <c r="G9">
-        <v>39.62834671820989</v>
+        <v>2.061088037020543</v>
       </c>
       <c r="H9">
-        <v>39.27938851082226</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>14.12766180778148</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>15.19359691209654</v>
+        <v>7.318742736407968</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.00060235251247</v>
       </c>
       <c r="L9">
-        <v>37.73660065787474</v>
+        <v>13.02124878180405</v>
       </c>
       <c r="M9">
-        <v>32.68604341751009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.86588929070005</v>
+      </c>
+      <c r="O9">
+        <v>31.44439439859194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01257747708375</v>
+        <v>22.46947716517803</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.931947505470047</v>
+        <v>6.902069628312122</v>
       </c>
       <c r="E10">
-        <v>26.39005320887296</v>
+        <v>11.52790567888393</v>
       </c>
       <c r="F10">
-        <v>54.16570351846725</v>
+        <v>42.33683320465088</v>
       </c>
       <c r="G10">
-        <v>44.45603673906995</v>
+        <v>2.040412520932667</v>
       </c>
       <c r="H10">
-        <v>44.01558359423696</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.35341847334895</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>16.33723222906348</v>
+        <v>7.490467695135661</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>32.92971273511205</v>
       </c>
       <c r="L10">
-        <v>41.57375338010986</v>
+        <v>14.28825185141213</v>
       </c>
       <c r="M10">
-        <v>35.87996458231763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.33149686227076</v>
+      </c>
+      <c r="O10">
+        <v>33.48200072791202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83325963036532</v>
+        <v>23.20102465023787</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.352181880940435</v>
+        <v>7.129587527561555</v>
       </c>
       <c r="E11">
-        <v>27.34072567154465</v>
+        <v>11.80296532151342</v>
       </c>
       <c r="F11">
-        <v>56.85343253706638</v>
+        <v>43.48777214206287</v>
       </c>
       <c r="G11">
-        <v>46.67476998604804</v>
+        <v>2.031043354921625</v>
       </c>
       <c r="H11">
-        <v>46.19820200221393</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.51543319846703</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>16.84608454201534</v>
+        <v>7.569495570420613</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>34.20925384792891</v>
       </c>
       <c r="L11">
-        <v>43.27950512299162</v>
+        <v>14.84176903964879</v>
       </c>
       <c r="M11">
-        <v>37.29196876887977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.08761888478014</v>
+      </c>
+      <c r="O11">
+        <v>34.42644408953193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.13940045617392</v>
+        <v>23.4753564626679</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.51255639694376</v>
+        <v>7.215389704158783</v>
       </c>
       <c r="E12">
-        <v>27.6982899943553</v>
+        <v>11.90680504411401</v>
       </c>
       <c r="F12">
-        <v>57.88036680832577</v>
+        <v>43.92731467552198</v>
       </c>
       <c r="G12">
-        <v>47.52178206272312</v>
+        <v>2.027494749001777</v>
       </c>
       <c r="H12">
-        <v>47.03225881697873</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.58638951545952</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>17.03747587711603</v>
+        <v>7.599591839467286</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>34.68656822887378</v>
       </c>
       <c r="L12">
-        <v>43.92144633886342</v>
+        <v>15.04826226597278</v>
       </c>
       <c r="M12">
-        <v>37.82196479932887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.99501758971621</v>
+      </c>
+      <c r="O12">
+        <v>34.78678546745741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.0736667416166</v>
+        <v>23.4163928210113</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.477946828022867</v>
+        <v>7.196924411242729</v>
       </c>
       <c r="E13">
-        <v>27.62137318782925</v>
+        <v>11.88445370926605</v>
       </c>
       <c r="F13">
-        <v>57.65870844113518</v>
+        <v>43.83248187071111</v>
       </c>
       <c r="G13">
-        <v>47.33899012234708</v>
+        <v>2.028259139371097</v>
       </c>
       <c r="H13">
-        <v>46.85222603600124</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.57066221059049</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>16.9963071982176</v>
+        <v>7.59310179188837</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>34.58408438609234</v>
       </c>
       <c r="L13">
-        <v>43.78333728972567</v>
+        <v>15.00392564660516</v>
       </c>
       <c r="M13">
-        <v>37.7080071246712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.0149744466206</v>
+      </c>
+      <c r="O13">
+        <v>34.70905546113006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.8585364367475</v>
+        <v>23.22364765115983</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.365345856919145</v>
+        <v>7.136652905010695</v>
       </c>
       <c r="E14">
-        <v>27.37018541065284</v>
+        <v>11.81151404039804</v>
       </c>
       <c r="F14">
-        <v>56.9377063587707</v>
+        <v>43.52385766148511</v>
       </c>
       <c r="G14">
-        <v>46.74429288552081</v>
+        <v>2.030751459988271</v>
       </c>
       <c r="H14">
-        <v>46.26664500535261</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.52107173910006</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>16.86185402547972</v>
+        <v>7.57196794562593</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>34.24866507245456</v>
       </c>
       <c r="L14">
-        <v>43.33238628609615</v>
+        <v>14.85881865168631</v>
       </c>
       <c r="M14">
-        <v>37.33565804649609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.08000638576811</v>
+      </c>
+      <c r="O14">
+        <v>34.45603407914624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72617201450148</v>
+        <v>23.10523713387187</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.296562979973279</v>
+        <v>7.099692433094601</v>
       </c>
       <c r="E15">
-        <v>27.21603960862486</v>
+        <v>11.76679806296517</v>
       </c>
       <c r="F15">
-        <v>56.49741290099137</v>
+        <v>43.33530738538079</v>
       </c>
       <c r="G15">
-        <v>46.38103763772213</v>
+        <v>2.032277796655368</v>
       </c>
       <c r="H15">
-        <v>45.9090655514232</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.49198088648296</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>16.779340738671</v>
+        <v>7.559046310993729</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>34.04228324274634</v>
       </c>
       <c r="L15">
-        <v>43.05570591586794</v>
+        <v>14.76953671878401</v>
       </c>
       <c r="M15">
-        <v>37.10701236452503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.11980336715413</v>
+      </c>
+      <c r="O15">
+        <v>34.30140994165236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.95827338346798</v>
+        <v>22.42128980103957</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.904610822040461</v>
+        <v>6.88714477225859</v>
       </c>
       <c r="E16">
-        <v>26.32752979872965</v>
+        <v>11.50987942480998</v>
       </c>
       <c r="F16">
-        <v>53.99107300984261</v>
+        <v>42.26212130872798</v>
       </c>
       <c r="G16">
-        <v>44.31177373695484</v>
+        <v>2.041025059683566</v>
       </c>
       <c r="H16">
-        <v>43.87378533504421</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.34411341511407</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>16.30377411508177</v>
+        <v>7.485324529071905</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>32.84505898392428</v>
       </c>
       <c r="L16">
-        <v>41.46161527243833</v>
+        <v>14.25163281344631</v>
       </c>
       <c r="M16">
-        <v>35.78695741744541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.34740778830735</v>
+      </c>
+      <c r="O16">
+        <v>33.42064515079117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47851595145944</v>
+        <v>21.99687416157871</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.665479664322676</v>
+        <v>6.755998676386341</v>
       </c>
       <c r="E17">
-        <v>25.77710141710513</v>
+        <v>11.35158954275482</v>
       </c>
       <c r="F17">
-        <v>52.46486071019697</v>
+        <v>41.61009762380532</v>
       </c>
       <c r="G17">
-        <v>43.05035980738581</v>
+        <v>2.046396541848736</v>
       </c>
       <c r="H17">
-        <v>42.63457657739605</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.26932532810673</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>16.00931094513132</v>
+        <v>7.440357186845175</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>32.09730785516907</v>
       </c>
       <c r="L17">
-        <v>40.47459272524974</v>
+        <v>13.92818067025728</v>
       </c>
       <c r="M17">
-        <v>34.96741224887517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.48674337093525</v>
+      </c>
+      <c r="O17">
+        <v>32.88491318925759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.19926931573977</v>
+        <v>21.75097788496243</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.528188798152895</v>
+        <v>6.680255405965423</v>
       </c>
       <c r="E18">
-        <v>25.45827863174534</v>
+        <v>11.26026688871298</v>
       </c>
       <c r="F18">
-        <v>51.58990306216042</v>
+        <v>41.23733907145994</v>
       </c>
       <c r="G18">
-        <v>42.32668820227991</v>
+        <v>2.049489884885266</v>
       </c>
       <c r="H18">
-        <v>41.92419878781104</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.23182259629752</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>15.83884408718688</v>
+        <v>7.414575983181787</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>31.66221346678273</v>
       </c>
       <c r="L18">
-        <v>39.90301200381899</v>
+        <v>13.73997735237587</v>
       </c>
       <c r="M18">
-        <v>34.49209285592362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.56682131243418</v>
+      </c>
+      <c r="O18">
+        <v>32.57840787169236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.10414393924329</v>
+        <v>21.66741525052897</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.481727635071527</v>
+        <v>6.654553546587073</v>
       </c>
       <c r="E19">
-        <v>25.34992550266961</v>
+        <v>11.22929628731783</v>
       </c>
       <c r="F19">
-        <v>51.29404243046676</v>
+        <v>41.1115142603045</v>
       </c>
       <c r="G19">
-        <v>42.08189259653579</v>
+        <v>2.050538059095115</v>
       </c>
       <c r="H19">
-        <v>41.68399618488245</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>14.2200407370105</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>15.78092994279789</v>
+        <v>7.405860056995482</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>31.51402678909804</v>
       </c>
       <c r="L19">
-        <v>39.70877425535584</v>
+        <v>13.67587862038807</v>
       </c>
       <c r="M19">
-        <v>34.33045026239515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.59392721322474</v>
+      </c>
+      <c r="O19">
+        <v>32.47490698636049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.52992635634294</v>
+        <v>22.04223848425518</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.690904731482524</v>
+        <v>6.769990916700085</v>
       </c>
       <c r="E20">
-        <v>25.83592094607085</v>
+        <v>11.36846798678857</v>
       </c>
       <c r="F20">
-        <v>52.62700383578921</v>
+        <v>41.67927070887534</v>
       </c>
       <c r="G20">
-        <v>43.18442437733788</v>
+        <v>2.045824384510303</v>
       </c>
       <c r="H20">
-        <v>42.76622388393856</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.27670859639048</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>16.04076881871584</v>
+        <v>7.445135204295698</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>32.17742284556984</v>
       </c>
       <c r="L20">
-        <v>40.58005258069497</v>
+        <v>13.96283528953629</v>
       </c>
       <c r="M20">
-        <v>35.05505428650487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.47191844619613</v>
+      </c>
+      <c r="O20">
+        <v>32.94177269204535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92184776976681</v>
+        <v>23.28033409293389</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.398378489353357</v>
+        <v>7.154364721301685</v>
       </c>
       <c r="E21">
-        <v>27.44402295289852</v>
+        <v>11.83294596850568</v>
       </c>
       <c r="F21">
-        <v>57.1491930385211</v>
+        <v>43.61440521688565</v>
       </c>
       <c r="G21">
-        <v>46.91875053653946</v>
+        <v>2.03001947546595</v>
       </c>
       <c r="H21">
-        <v>46.43840598128139</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.53536782962702</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>16.90137805162498</v>
+        <v>7.57817049876304</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>34.347378441501</v>
       </c>
       <c r="L21">
-        <v>43.46493354051575</v>
+        <v>14.90152305087477</v>
       </c>
       <c r="M21">
-        <v>37.44514240560854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.06091290343607</v>
+      </c>
+      <c r="O21">
+        <v>34.53027736648677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80478449227132</v>
+        <v>24.07387473661597</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.868536316824599</v>
+        <v>7.403580639998442</v>
       </c>
       <c r="E22">
-        <v>28.4814704374526</v>
+        <v>12.13471132665753</v>
       </c>
       <c r="F22">
-        <v>60.161112050581</v>
+        <v>44.90091676590671</v>
       </c>
       <c r="G22">
-        <v>49.40169576248488</v>
+        <v>2.019682561222318</v>
       </c>
       <c r="H22">
-        <v>48.88490801327265</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.76099638400603</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>17.45653047906986</v>
+        <v>7.666132595535352</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>35.7237053129254</v>
       </c>
       <c r="L22">
-        <v>45.32831761111173</v>
+        <v>15.49696942183642</v>
       </c>
       <c r="M22">
-        <v>38.98063374418349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.79076201256562</v>
+      </c>
+      <c r="O22">
+        <v>35.58435688364639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.33584543322546</v>
+        <v>23.65175451332659</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.616570166729636</v>
+        <v>7.270709387515832</v>
       </c>
       <c r="E23">
-        <v>27.92862953504176</v>
+        <v>11.97377948569959</v>
       </c>
       <c r="F23">
-        <v>58.54663906638603</v>
+        <v>44.21218732606101</v>
       </c>
       <c r="G23">
-        <v>48.07112860751086</v>
+        <v>2.025202432669938</v>
       </c>
       <c r="H23">
-        <v>47.57343150143618</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.63500812820874</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>17.16075147258184</v>
+        <v>7.619077494683818</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>34.99282163517173</v>
       </c>
       <c r="L23">
-        <v>44.3350998148059</v>
+        <v>15.18075585070617</v>
       </c>
       <c r="M23">
-        <v>38.16305725717181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.93513757592553</v>
+      </c>
+      <c r="O23">
+        <v>35.02023457360779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.50669441562331</v>
+        <v>22.02173517508924</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.679409525208387</v>
+        <v>6.763666109405612</v>
       </c>
       <c r="E24">
-        <v>25.80933609351215</v>
+        <v>11.36083824482031</v>
       </c>
       <c r="F24">
-        <v>52.55369149978091</v>
+        <v>41.64799103518354</v>
       </c>
       <c r="G24">
-        <v>43.12380926729411</v>
+        <v>2.046083040190976</v>
       </c>
       <c r="H24">
-        <v>42.70669996935618</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.27335358806661</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>16.02655040071708</v>
+        <v>7.442974843939368</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>32.1412190912547</v>
       </c>
       <c r="L24">
-        <v>40.53238716243898</v>
+        <v>13.94717494595293</v>
       </c>
       <c r="M24">
-        <v>35.01544433843919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.47862087154358</v>
+      </c>
+      <c r="O24">
+        <v>32.91606186936386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.4065060261325</v>
+        <v>20.19563092047384</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.676656379494602</v>
+        <v>6.204567243558897</v>
       </c>
       <c r="E25">
-        <v>23.43664651762612</v>
+        <v>10.68885761367551</v>
       </c>
       <c r="F25">
-        <v>46.19180213687123</v>
+        <v>38.96881883305134</v>
       </c>
       <c r="G25">
-        <v>37.85183131069245</v>
+        <v>2.068769293007663</v>
       </c>
       <c r="H25">
-        <v>37.54197317494155</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14.09051228641262</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>14.76074923972967</v>
+        <v>7.256086393126303</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>28.8726558453156</v>
       </c>
       <c r="L25">
-        <v>36.27896483172502</v>
+        <v>12.54798073824803</v>
       </c>
       <c r="M25">
-        <v>31.46719151679284</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.06281688479191</v>
+      </c>
+      <c r="O25">
+        <v>30.70884566591416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.7940537423919</v>
+        <v>12.6174379379578</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.77933375769872</v>
+        <v>5.115478086288052</v>
       </c>
       <c r="E2">
-        <v>10.18232614463645</v>
+        <v>13.826858191089</v>
       </c>
       <c r="F2">
-        <v>37.06719020419668</v>
+        <v>16.59162196014292</v>
       </c>
       <c r="G2">
-        <v>2.085799831897732</v>
+        <v>20.0484492753571</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.362663586036586</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.119960838232488</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>26.28765581475334</v>
+        <v>14.51718717898117</v>
       </c>
       <c r="L2">
-        <v>11.65056130998849</v>
+        <v>5.517118417337348</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.776386296945756</v>
       </c>
       <c r="N2">
-        <v>13.49559740666781</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>29.13450760076906</v>
+        <v>13.36937972807923</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.81092211019837</v>
+        <v>12.07251522209737</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.481628679214882</v>
+        <v>4.913974175995614</v>
       </c>
       <c r="E3">
-        <v>9.831045693237719</v>
+        <v>14.05817152845554</v>
       </c>
       <c r="F3">
-        <v>35.82310496669025</v>
+        <v>16.34108267583403</v>
       </c>
       <c r="G3">
-        <v>2.097623796165498</v>
+        <v>19.7843622818038</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.427145822318021</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.028189563248771</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>24.41908923138028</v>
+        <v>13.97543234456078</v>
       </c>
       <c r="L3">
-        <v>11.0202700060615</v>
+        <v>5.315158008776166</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.499180478204353</v>
       </c>
       <c r="N3">
-        <v>13.79240478886208</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>28.09972416138657</v>
+        <v>13.39793503211269</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.19216130400895</v>
+        <v>11.73045395802446</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.293923941478414</v>
+        <v>4.785378846179677</v>
       </c>
       <c r="E4">
-        <v>9.611333169187809</v>
+        <v>14.20532795811047</v>
       </c>
       <c r="F4">
-        <v>35.08182425240946</v>
+        <v>16.20093064699423</v>
       </c>
       <c r="G4">
-        <v>2.10504554475489</v>
+        <v>19.64503863116511</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.471784233762076</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.971964343720266</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>23.21265112132592</v>
+        <v>13.63127775961962</v>
       </c>
       <c r="L4">
-        <v>10.62302752617439</v>
+        <v>5.188857466472133</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.32836503094703</v>
       </c>
       <c r="N4">
-        <v>13.97691471358614</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>27.48079331881257</v>
+        <v>13.4270912859706</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.93646910165692</v>
+        <v>11.58938557312794</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.216179534949138</v>
+        <v>4.731793879681448</v>
       </c>
       <c r="E5">
-        <v>9.52078926265292</v>
+        <v>14.26659722732961</v>
       </c>
       <c r="F5">
-        <v>34.78554662712895</v>
+        <v>16.14724519936234</v>
       </c>
       <c r="G5">
-        <v>2.108113688007131</v>
+        <v>19.59389591126557</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.491203738717354</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.949068743380939</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>22.70593827594212</v>
+        <v>13.48826909673763</v>
       </c>
       <c r="L5">
-        <v>10.45871359923007</v>
+        <v>5.136883969844237</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.258698810359409</v>
       </c>
       <c r="N5">
-        <v>14.0527470098125</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>27.23282524778254</v>
+        <v>13.44178637564811</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.89380638162997</v>
+        <v>11.56586654940898</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.203194160124416</v>
+        <v>4.72282617964852</v>
       </c>
       <c r="E6">
-        <v>9.505693862323332</v>
+        <v>14.27684992280598</v>
       </c>
       <c r="F6">
-        <v>34.73670403232732</v>
+        <v>16.13853717629533</v>
       </c>
       <c r="G6">
-        <v>2.108625875671836</v>
+        <v>19.58574030630211</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.494501428577541</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.945267573525864</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>22.62088241387043</v>
+        <v>13.464359954644</v>
       </c>
       <c r="L6">
-        <v>10.43128724000817</v>
+        <v>5.128225564011738</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.247130208859902</v>
       </c>
       <c r="N6">
-        <v>14.06537975113372</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>27.19191093691347</v>
+        <v>13.44439323382441</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.18872690664687</v>
+        <v>11.72855795602327</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.292880542074001</v>
+        <v>4.784660901749602</v>
       </c>
       <c r="E7">
-        <v>9.610116136779535</v>
+        <v>14.20614896984162</v>
       </c>
       <c r="F7">
-        <v>35.07780489491554</v>
+        <v>16.20019277372491</v>
       </c>
       <c r="G7">
-        <v>2.105086741945447</v>
+        <v>19.64432625483311</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.47204120724432</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.971655515627137</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>23.20587873695724</v>
+        <v>13.62936009392407</v>
       </c>
       <c r="L7">
-        <v>10.62082117335374</v>
+        <v>5.1881584775767</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.327425590623669</v>
       </c>
       <c r="N7">
-        <v>13.97793471929424</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>27.4774317499357</v>
+        <v>13.42727822073084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.45834363839322</v>
+        <v>12.43121501151808</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.677689946696353</v>
+        <v>5.047034821848269</v>
       </c>
       <c r="E8">
-        <v>10.06203789307515</v>
+        <v>13.90555778407919</v>
       </c>
       <c r="F8">
-        <v>36.63360551219545</v>
+        <v>16.50239319670872</v>
       </c>
       <c r="G8">
-        <v>2.089845065352094</v>
+        <v>19.95259738026018</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.383825208045234</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.088283374265971</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>25.65551396324403</v>
+        <v>14.33285443002799</v>
       </c>
       <c r="L8">
-        <v>11.43543493698023</v>
+        <v>5.448000186803704</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.680988206597915</v>
       </c>
       <c r="N8">
-        <v>13.59751116349187</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>28.77436889454438</v>
+        <v>13.37674768062047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.81980147473673</v>
+        <v>13.742119557203</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.394834357883767</v>
+        <v>5.521283114658494</v>
       </c>
       <c r="E9">
-        <v>10.91691537838341</v>
+        <v>13.35624426953068</v>
       </c>
       <c r="F9">
-        <v>39.86018243517386</v>
+        <v>17.20350339268605</v>
       </c>
       <c r="G9">
-        <v>2.061088037020543</v>
+        <v>20.74178730725094</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.252751683832953</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.318742736407968</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>30.00060235251247</v>
+        <v>15.61605467024995</v>
       </c>
       <c r="L9">
-        <v>13.02124878180405</v>
+        <v>6.066515857311905</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.36556204400414</v>
       </c>
       <c r="N9">
-        <v>12.86588929070005</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>31.44439439859194</v>
+        <v>13.37472840850996</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.46947716517803</v>
+        <v>14.65582833617985</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.902069628312122</v>
+        <v>5.843380733034298</v>
       </c>
       <c r="E10">
-        <v>11.52790567888393</v>
+        <v>12.9763668956913</v>
       </c>
       <c r="F10">
-        <v>42.33683320465088</v>
+        <v>17.78397694366326</v>
       </c>
       <c r="G10">
-        <v>2.040412520932667</v>
+        <v>21.4373849684827</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.18472904755725</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.490467695135661</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>32.92971273511205</v>
+        <v>16.49451176665461</v>
       </c>
       <c r="L10">
-        <v>14.28825185141213</v>
+        <v>6.504253690104902</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.85839231380048</v>
       </c>
       <c r="N10">
-        <v>12.33149686227076</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>33.48200072791202</v>
+        <v>13.43895859223662</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.20102465023787</v>
+        <v>15.05940728389674</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.129587527561555</v>
+        <v>5.98391129538929</v>
       </c>
       <c r="E11">
-        <v>11.80296532151342</v>
+        <v>12.80853479036631</v>
       </c>
       <c r="F11">
-        <v>43.48777214206287</v>
+        <v>18.0619068935885</v>
       </c>
       <c r="G11">
-        <v>2.031043354921625</v>
+        <v>21.77922332077081</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.160553817907381</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.569495570420613</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>34.20925384792891</v>
+        <v>16.87928639423174</v>
       </c>
       <c r="L11">
-        <v>14.84176903964879</v>
+        <v>6.694529735027539</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.0795255429127</v>
       </c>
       <c r="N11">
-        <v>12.08761888478014</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>34.42644408953193</v>
+        <v>13.48380668652953</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.4753564626679</v>
+        <v>15.2104088184742</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.215389704158783</v>
+        <v>6.036246433980508</v>
       </c>
       <c r="E12">
-        <v>11.90680504411401</v>
+        <v>12.74568424696165</v>
       </c>
       <c r="F12">
-        <v>43.92731467552198</v>
+        <v>18.16910921849287</v>
       </c>
       <c r="G12">
-        <v>2.027494749001777</v>
+        <v>21.91231760925471</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.152427667347286</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.599591839467286</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>34.68656822887378</v>
+        <v>17.02279817460518</v>
       </c>
       <c r="L12">
-        <v>15.04826226597278</v>
+        <v>6.765303749856905</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.16276067696854</v>
       </c>
       <c r="N12">
-        <v>11.99501758971621</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>34.78678546745741</v>
+        <v>13.50314449425302</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.4163928210113</v>
+        <v>15.17797033870389</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.196924411242729</v>
+        <v>6.025014559688219</v>
       </c>
       <c r="E13">
-        <v>11.88445370926605</v>
+        <v>12.75918911528744</v>
       </c>
       <c r="F13">
-        <v>43.83248187071111</v>
+        <v>18.14593490953698</v>
       </c>
       <c r="G13">
-        <v>2.028259139371097</v>
+        <v>21.88349137829594</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.154131133756874</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.59310179188837</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>34.58408438609234</v>
+        <v>16.99198876224461</v>
       </c>
       <c r="L13">
-        <v>15.00392564660516</v>
+        <v>6.750118258420676</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.14485781327945</v>
       </c>
       <c r="N13">
-        <v>12.0149744466206</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>34.70905546113006</v>
+        <v>13.49887334933733</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.22364765115983</v>
+        <v>15.0718672958305</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.136652905010695</v>
+        <v>5.988234685614261</v>
       </c>
       <c r="E14">
-        <v>11.81151404039804</v>
+        <v>12.80334999821195</v>
       </c>
       <c r="F14">
-        <v>43.52385766148511</v>
+        <v>18.07068751491484</v>
       </c>
       <c r="G14">
-        <v>2.030751459988271</v>
+        <v>21.79010004602441</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.159864337919762</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.57196794562593</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>34.24866507245456</v>
+        <v>16.89113747045899</v>
       </c>
       <c r="L14">
-        <v>14.85881865168631</v>
+        <v>6.700378018548159</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.08638376968214</v>
       </c>
       <c r="N14">
-        <v>12.08000638576811</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>34.45603407914624</v>
+        <v>13.48534982350268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10523713387187</v>
+        <v>15.00663609850839</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.099692433094601</v>
+        <v>5.965590752946674</v>
       </c>
       <c r="E15">
-        <v>11.76679806296517</v>
+        <v>12.83049113273898</v>
       </c>
       <c r="F15">
-        <v>43.33530738538079</v>
+        <v>18.02484989774656</v>
       </c>
       <c r="G15">
-        <v>2.032277796655368</v>
+        <v>21.73336977442496</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.163511707383758</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.559046310993729</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>34.04228324274634</v>
+        <v>16.82907582509598</v>
       </c>
       <c r="L15">
-        <v>14.76953671878401</v>
+        <v>6.669743952580333</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.05049943950967</v>
       </c>
       <c r="N15">
-        <v>12.11980336715413</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>34.30140994165236</v>
+        <v>13.4773760645755</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.42128980103957</v>
+        <v>14.62920255886072</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.88714477225859</v>
+        <v>5.834074430920935</v>
       </c>
       <c r="E16">
-        <v>11.50987942480998</v>
+        <v>12.98743423922734</v>
       </c>
       <c r="F16">
-        <v>42.26212130872798</v>
+        <v>17.76608947131344</v>
       </c>
       <c r="G16">
-        <v>2.041025059683566</v>
+        <v>21.41555608071434</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.186449819666581</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.485324529071905</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>32.84505898392428</v>
+        <v>16.46906182972378</v>
       </c>
       <c r="L16">
-        <v>14.25163281344631</v>
+        <v>6.491639920160535</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.84387360474968</v>
       </c>
       <c r="N16">
-        <v>12.34740778830735</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>33.42064515079117</v>
+        <v>13.43635141937633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.99687416157871</v>
+        <v>14.39449827388652</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.755998676386341</v>
+        <v>5.751843786676999</v>
       </c>
       <c r="E17">
-        <v>11.35158954275482</v>
+        <v>13.08497978571451</v>
       </c>
       <c r="F17">
-        <v>41.61009762380532</v>
+        <v>17.61087461702243</v>
       </c>
       <c r="G17">
-        <v>2.046396541848736</v>
+        <v>21.22709521826806</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.202293720209266</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.440357186845175</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>32.09730785516907</v>
+        <v>16.24435767862904</v>
       </c>
       <c r="L17">
-        <v>13.92818067025728</v>
+        <v>6.380105534314703</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.71628458854303</v>
       </c>
       <c r="N17">
-        <v>12.48674337093525</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>32.88491318925759</v>
+        <v>13.41526462082253</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.75097788496243</v>
+        <v>14.25837045644693</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.680255405965423</v>
+        <v>5.703983666224275</v>
       </c>
       <c r="E18">
-        <v>11.26026688871298</v>
+        <v>13.1415544527587</v>
       </c>
       <c r="F18">
-        <v>41.23733907145994</v>
+        <v>17.52290718323529</v>
       </c>
       <c r="G18">
-        <v>2.049489884885266</v>
+        <v>21.12109034169018</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.212040360045881</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.414575983181787</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>31.66221346678273</v>
+        <v>16.11371982348679</v>
       </c>
       <c r="L18">
-        <v>13.73997735237587</v>
+        <v>6.315120704908396</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.64261427091218</v>
       </c>
       <c r="N18">
-        <v>12.56682131243418</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>32.57840787169236</v>
+        <v>13.4046009497485</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.66741525052897</v>
+        <v>14.21208848461281</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.654553546587073</v>
+        <v>5.68768295284125</v>
       </c>
       <c r="E19">
-        <v>11.22929628731783</v>
+        <v>13.16079058509081</v>
       </c>
       <c r="F19">
-        <v>41.1115142603045</v>
+        <v>17.49334868774907</v>
       </c>
       <c r="G19">
-        <v>2.050538059095115</v>
+        <v>21.08560984317818</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.215447591784789</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.405860056995482</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>31.51402678909804</v>
+        <v>16.06925069138827</v>
       </c>
       <c r="L19">
-        <v>13.67587862038807</v>
+        <v>6.292975116702311</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.61762396538769</v>
       </c>
       <c r="N19">
-        <v>12.59392721322474</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>32.47490698636049</v>
+        <v>13.40123868656056</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.04223848425518</v>
+        <v>14.41960081818163</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.769990916700085</v>
+        <v>5.760655819641436</v>
       </c>
       <c r="E20">
-        <v>11.36846798678857</v>
+        <v>13.07454743702068</v>
       </c>
       <c r="F20">
-        <v>41.67927070887534</v>
+        <v>17.62726239214066</v>
       </c>
       <c r="G20">
-        <v>2.045824384510303</v>
+        <v>21.24690955208863</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.20054113771935</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.445135204295698</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>32.17742284556984</v>
+        <v>16.26842256068617</v>
       </c>
       <c r="L20">
-        <v>13.96283528953629</v>
+        <v>6.392064852145504</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.72989658499522</v>
       </c>
       <c r="N20">
-        <v>12.47191844619613</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>32.94177269204535</v>
+        <v>13.41735694699006</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.28033409293389</v>
+        <v>15.10308248605306</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.154364721301685</v>
+        <v>5.999061862094162</v>
       </c>
       <c r="E21">
-        <v>11.83294596850568</v>
+        <v>12.79035986606439</v>
       </c>
       <c r="F21">
-        <v>43.61440521688565</v>
+        <v>18.09273672356082</v>
       </c>
       <c r="G21">
-        <v>2.03001947546595</v>
+        <v>21.81743246267399</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.158151992830287</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.57817049876304</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>34.347378441501</v>
+        <v>16.92081990777958</v>
       </c>
       <c r="L21">
-        <v>14.90152305087477</v>
+        <v>6.715022685329615</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.10357313964417</v>
       </c>
       <c r="N21">
-        <v>12.06091290343607</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>34.53027736648677</v>
+        <v>13.48925726415874</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.07387473661597</v>
+        <v>15.53911020705309</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.403580639998442</v>
+        <v>6.149734066426552</v>
       </c>
       <c r="E22">
-        <v>12.13471132665753</v>
+        <v>12.60872419929344</v>
       </c>
       <c r="F22">
-        <v>44.90091676590671</v>
+        <v>18.40833465088474</v>
       </c>
       <c r="G22">
-        <v>2.019682561222318</v>
+        <v>22.21155174663584</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.136470287368564</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.666132595535352</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>35.7237053129254</v>
+        <v>17.33439069733736</v>
       </c>
       <c r="L22">
-        <v>15.49696942183642</v>
+        <v>6.918636857732194</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.34483509372991</v>
       </c>
       <c r="N22">
-        <v>11.79076201256562</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>35.58435688364639</v>
+        <v>13.55002111604846</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.65175451332659</v>
+        <v>15.3073950132223</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.270709387515832</v>
+        <v>6.069793119692685</v>
       </c>
       <c r="E23">
-        <v>11.97377948569959</v>
+        <v>12.70529543039292</v>
       </c>
       <c r="F23">
-        <v>44.21218732606101</v>
+        <v>18.23886571922057</v>
       </c>
       <c r="G23">
-        <v>2.025202432669938</v>
+        <v>21.99926363439084</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.147472369609314</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.619077494683818</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>34.99282163517173</v>
+        <v>17.11484916372665</v>
       </c>
       <c r="L23">
-        <v>15.18075585070617</v>
+        <v>6.810647556455571</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.21635866768088</v>
       </c>
       <c r="N23">
-        <v>11.93513757592553</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>35.02023457360779</v>
+        <v>13.51629556058636</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.02173517508924</v>
+        <v>14.40825566749381</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.763666109405612</v>
+        <v>5.756673719049748</v>
       </c>
       <c r="E24">
-        <v>11.36083824482031</v>
+        <v>13.07926236092453</v>
       </c>
       <c r="F24">
-        <v>41.64799103518354</v>
+        <v>17.61984952767378</v>
       </c>
       <c r="G24">
-        <v>2.046083040190976</v>
+        <v>21.23794419106819</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.201331497899607</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.442974843939368</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>32.1412190912547</v>
+        <v>16.25754734687238</v>
       </c>
       <c r="L24">
-        <v>13.94717494595293</v>
+        <v>6.386660729668003</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.72374358603473</v>
       </c>
       <c r="N24">
-        <v>12.47862087154358</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>32.91606186936386</v>
+        <v>13.41640646876678</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.19563092047384</v>
+        <v>13.39563127164022</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.204567243558897</v>
+        <v>5.397500463114609</v>
       </c>
       <c r="E25">
-        <v>10.68885761367551</v>
+        <v>13.50063023410009</v>
       </c>
       <c r="F25">
-        <v>38.96881883305134</v>
+        <v>17.00226216628803</v>
       </c>
       <c r="G25">
-        <v>2.068769293007663</v>
+        <v>20.5081041215203</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.283450050065735</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.256086393126303</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>28.8726558453156</v>
+        <v>15.27986133308246</v>
       </c>
       <c r="L25">
-        <v>12.54798073824803</v>
+        <v>5.897531580192013</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.18182517980859</v>
       </c>
       <c r="N25">
-        <v>13.06281688479191</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>30.70884566591416</v>
+        <v>13.36420158995649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.6174379379578</v>
+        <v>15.73813591030776</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.115478086288052</v>
+        <v>4.826604299473929</v>
       </c>
       <c r="E2">
-        <v>13.826858191089</v>
+        <v>21.47658616257852</v>
       </c>
       <c r="F2">
-        <v>16.59162196014292</v>
+        <v>22.8697344708558</v>
       </c>
       <c r="G2">
-        <v>20.0484492753571</v>
+        <v>26.29328704279751</v>
       </c>
       <c r="H2">
-        <v>8.362663586036586</v>
+        <v>13.73259625338684</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.51718717898117</v>
+        <v>12.03577553756201</v>
       </c>
       <c r="L2">
-        <v>5.517118417337348</v>
+        <v>7.934078062814927</v>
       </c>
       <c r="M2">
-        <v>9.776386296945756</v>
+        <v>14.58959126765185</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.36937972807923</v>
+        <v>20.56275605144707</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.07251522209737</v>
+        <v>15.65424054670321</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.913974175995614</v>
+        <v>4.749414101993303</v>
       </c>
       <c r="E3">
-        <v>14.05817152845554</v>
+        <v>21.56438718243541</v>
       </c>
       <c r="F3">
-        <v>16.34108267583403</v>
+        <v>22.90814565811468</v>
       </c>
       <c r="G3">
-        <v>19.7843622818038</v>
+        <v>26.35819782191314</v>
       </c>
       <c r="H3">
-        <v>8.427145822318021</v>
+        <v>13.777984373216</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.97543234456078</v>
+        <v>11.80823693697445</v>
       </c>
       <c r="L3">
-        <v>5.315158008776166</v>
+        <v>7.908617977980042</v>
       </c>
       <c r="M3">
-        <v>9.499180478204353</v>
+        <v>14.56632286585677</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.39793503211269</v>
+        <v>20.63533945619076</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.73045395802446</v>
+        <v>15.60535374633824</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.785378846179677</v>
+        <v>4.700738543284764</v>
       </c>
       <c r="E4">
-        <v>14.20532795811047</v>
+        <v>21.62123997517299</v>
       </c>
       <c r="F4">
-        <v>16.20093064699423</v>
+        <v>22.93786783794481</v>
       </c>
       <c r="G4">
-        <v>19.64503863116511</v>
+        <v>26.40681311736239</v>
       </c>
       <c r="H4">
-        <v>8.471784233762076</v>
+        <v>13.80799037409581</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.63127775961962</v>
+        <v>11.66514542806026</v>
       </c>
       <c r="L4">
-        <v>5.188857466472133</v>
+        <v>7.893892611023823</v>
       </c>
       <c r="M4">
-        <v>9.32836503094703</v>
+        <v>14.5539385656488</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.4270912859706</v>
+        <v>20.68430101451257</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.58938557312794</v>
+        <v>15.58610861314475</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.731793879681448</v>
+        <v>4.68059359669985</v>
       </c>
       <c r="E5">
-        <v>14.26659722732961</v>
+        <v>21.64514988243929</v>
       </c>
       <c r="F5">
-        <v>16.14724519936234</v>
+        <v>22.9515203666901</v>
       </c>
       <c r="G5">
-        <v>19.59389591126557</v>
+        <v>26.42881835619118</v>
       </c>
       <c r="H5">
-        <v>8.491203738717354</v>
+        <v>13.82075568717442</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.48826909673763</v>
+        <v>11.60603310876901</v>
       </c>
       <c r="L5">
-        <v>5.136883969844237</v>
+        <v>7.888123868014851</v>
       </c>
       <c r="M5">
-        <v>9.258698810359409</v>
+        <v>14.54937417150281</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.44178637564811</v>
+        <v>20.70535661215447</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.56586654940898</v>
+        <v>15.58295430412951</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.72282617964852</v>
+        <v>4.677230246134451</v>
       </c>
       <c r="E6">
-        <v>14.27684992280598</v>
+        <v>21.64916497383254</v>
       </c>
       <c r="F6">
-        <v>16.13853717629533</v>
+        <v>22.9538803060425</v>
       </c>
       <c r="G6">
-        <v>19.58574030630211</v>
+        <v>26.43260455788187</v>
       </c>
       <c r="H6">
-        <v>8.494501428577541</v>
+        <v>13.82290783273094</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.464359954644</v>
+        <v>11.59617062735234</v>
       </c>
       <c r="L6">
-        <v>5.128225564011738</v>
+        <v>7.887180090791188</v>
       </c>
       <c r="M6">
-        <v>9.247130208859902</v>
+        <v>14.54864549576729</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.44439323382441</v>
+        <v>20.70891946463458</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.72855795602327</v>
+        <v>15.60509143897885</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.784660901749602</v>
+        <v>4.700468096529299</v>
       </c>
       <c r="E7">
-        <v>14.20614896984162</v>
+        <v>21.62155942583331</v>
       </c>
       <c r="F7">
-        <v>16.20019277372491</v>
+        <v>22.93804572750809</v>
       </c>
       <c r="G7">
-        <v>19.64432625483311</v>
+        <v>26.40710101593094</v>
       </c>
       <c r="H7">
-        <v>8.47204120724432</v>
+        <v>13.80816035458046</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.62936009392407</v>
+        <v>11.66435139700923</v>
       </c>
       <c r="L7">
-        <v>5.1881584775767</v>
+        <v>7.89381386760797</v>
       </c>
       <c r="M7">
-        <v>9.327425590623669</v>
+        <v>14.55387505085184</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.42727822073084</v>
+        <v>20.68458051261921</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.43121501151808</v>
+        <v>15.70867407136204</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.047034821848269</v>
+        <v>4.800262358844319</v>
       </c>
       <c r="E8">
-        <v>13.90555778407919</v>
+        <v>21.50625041432967</v>
       </c>
       <c r="F8">
-        <v>16.50239319670872</v>
+        <v>22.88170327241054</v>
       </c>
       <c r="G8">
-        <v>19.95259738026018</v>
+        <v>26.31384528572043</v>
       </c>
       <c r="H8">
-        <v>8.383825208045234</v>
+        <v>13.74780251555916</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.33285443002799</v>
+        <v>11.95805087765166</v>
       </c>
       <c r="L8">
-        <v>5.448000186803704</v>
+        <v>7.925113486871934</v>
       </c>
       <c r="M8">
-        <v>9.680988206597915</v>
+        <v>14.58117584874903</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.37674768062047</v>
+        <v>20.58686954905052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.742119557203</v>
+        <v>15.93186519801911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.521283114658494</v>
+        <v>4.985266487502726</v>
       </c>
       <c r="E9">
-        <v>13.35624426953068</v>
+        <v>21.30338721411833</v>
       </c>
       <c r="F9">
-        <v>17.20350339268605</v>
+        <v>22.82001584786747</v>
       </c>
       <c r="G9">
-        <v>20.74178730725094</v>
+        <v>26.20081779668133</v>
       </c>
       <c r="H9">
-        <v>8.252751683832953</v>
+        <v>13.6463952428357</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.61605467024995</v>
+        <v>12.50512246954439</v>
       </c>
       <c r="L9">
-        <v>6.066515857311905</v>
+        <v>7.993514397770542</v>
       </c>
       <c r="M9">
-        <v>10.36556204400414</v>
+        <v>14.64962813526714</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.37472840850996</v>
+        <v>20.43020994831769</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.65582833617985</v>
+        <v>16.10699867881871</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.843380733034298</v>
+        <v>5.113997448201102</v>
       </c>
       <c r="E10">
-        <v>12.9763668956913</v>
+        <v>21.16839460191105</v>
       </c>
       <c r="F10">
-        <v>17.78397694366326</v>
+        <v>22.80454370140825</v>
       </c>
       <c r="G10">
-        <v>21.4373849684827</v>
+        <v>26.16075747684527</v>
       </c>
       <c r="H10">
-        <v>8.18472904755725</v>
+        <v>13.58221873594255</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.49451176665461</v>
+        <v>12.88689558258375</v>
       </c>
       <c r="L10">
-        <v>6.504253690104902</v>
+        <v>8.047803243959056</v>
       </c>
       <c r="M10">
-        <v>10.85839231380048</v>
+        <v>14.70875626943316</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.43895859223662</v>
+        <v>20.33652327189481</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.05940728389674</v>
+        <v>16.18884957143231</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.98391129538929</v>
+        <v>5.170867463969938</v>
       </c>
       <c r="E11">
-        <v>12.80853479036631</v>
+        <v>21.11000700057677</v>
       </c>
       <c r="F11">
-        <v>18.0619068935885</v>
+        <v>22.80399368626024</v>
       </c>
       <c r="G11">
-        <v>21.77922332077081</v>
+        <v>26.15192836776273</v>
       </c>
       <c r="H11">
-        <v>8.160553817907381</v>
+        <v>13.55526399918228</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.87928639423174</v>
+        <v>13.05570423997449</v>
       </c>
       <c r="L11">
-        <v>6.694529735027539</v>
+        <v>8.073320687705804</v>
       </c>
       <c r="M11">
-        <v>11.0795255429127</v>
+        <v>14.73751377219675</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.48380668652953</v>
+        <v>20.2985728377899</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.2104088184742</v>
+        <v>16.22013667583196</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.036246433980508</v>
+        <v>5.192149309685409</v>
       </c>
       <c r="E12">
-        <v>12.74568424696165</v>
+        <v>21.08832956193629</v>
       </c>
       <c r="F12">
-        <v>18.16910921849287</v>
+        <v>22.80471773898774</v>
       </c>
       <c r="G12">
-        <v>21.91231760925471</v>
+        <v>26.14993909809724</v>
       </c>
       <c r="H12">
-        <v>8.152427667347286</v>
+        <v>13.5453788909319</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.02279817460518</v>
+        <v>13.11889074740554</v>
       </c>
       <c r="L12">
-        <v>6.765303749856905</v>
+        <v>8.083096549170548</v>
       </c>
       <c r="M12">
-        <v>11.16276067696854</v>
+        <v>14.74866537869355</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.50314449425302</v>
+        <v>20.28487487739512</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.17797033870389</v>
+        <v>16.21338580531795</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.025014559688219</v>
+        <v>5.1875773233818</v>
       </c>
       <c r="E13">
-        <v>12.75918911528744</v>
+        <v>21.09297897065187</v>
       </c>
       <c r="F13">
-        <v>18.14593490953698</v>
+        <v>22.804520354562</v>
       </c>
       <c r="G13">
-        <v>21.88349137829594</v>
+        <v>26.15030726043824</v>
       </c>
       <c r="H13">
-        <v>8.154131133756874</v>
+        <v>13.54749350139931</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.99198876224461</v>
+        <v>13.10531579666726</v>
       </c>
       <c r="L13">
-        <v>6.750118258420676</v>
+        <v>8.080986201715968</v>
       </c>
       <c r="M13">
-        <v>11.14485781327945</v>
+        <v>14.74625213170765</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.49887334933733</v>
+        <v>20.28779501708815</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.0718672958305</v>
+        <v>16.19141785567216</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.988234685614261</v>
+        <v>5.172623474815819</v>
       </c>
       <c r="E14">
-        <v>12.80334999821195</v>
+        <v>21.10821492318346</v>
       </c>
       <c r="F14">
-        <v>18.07068751491484</v>
+        <v>22.80403457581955</v>
       </c>
       <c r="G14">
-        <v>21.79010004602441</v>
+        <v>26.15173755687617</v>
       </c>
       <c r="H14">
-        <v>8.159864337919762</v>
+        <v>13.55444429052072</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.89113747045899</v>
+        <v>13.06091762750828</v>
       </c>
       <c r="L14">
-        <v>6.700378018548159</v>
+        <v>8.074122719702181</v>
       </c>
       <c r="M14">
-        <v>11.08638376968214</v>
+        <v>14.73842600882904</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.48534982350268</v>
+        <v>20.29743239966816</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.00663609850839</v>
+        <v>16.17799921801677</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.965590752946674</v>
+        <v>5.163430483024683</v>
       </c>
       <c r="E15">
-        <v>12.83049113273898</v>
+        <v>21.11760367944871</v>
       </c>
       <c r="F15">
-        <v>18.02484989774656</v>
+        <v>22.80385840613975</v>
       </c>
       <c r="G15">
-        <v>21.73336977442496</v>
+        <v>26.15279007490823</v>
       </c>
       <c r="H15">
-        <v>8.163511707383758</v>
+        <v>13.55874379294842</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.82907582509598</v>
+        <v>13.03362530107074</v>
       </c>
       <c r="L15">
-        <v>6.669743952580333</v>
+        <v>8.069933194875263</v>
       </c>
       <c r="M15">
-        <v>11.05049943950967</v>
+        <v>14.7336661992966</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.4773760645755</v>
+        <v>20.30342327628726</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.62920255886072</v>
+        <v>16.10169158153348</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.834074430920935</v>
+        <v>5.110245931518814</v>
       </c>
       <c r="E16">
-        <v>12.98743423922734</v>
+        <v>21.172271011942</v>
       </c>
       <c r="F16">
-        <v>17.76608947131344</v>
+        <v>22.80471016704036</v>
       </c>
       <c r="G16">
-        <v>21.41555608071434</v>
+        <v>26.1615238241166</v>
       </c>
       <c r="H16">
-        <v>8.186449819666581</v>
+        <v>13.58402535806081</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.46906182972378</v>
+        <v>12.87576235360893</v>
       </c>
       <c r="L16">
-        <v>6.491639920160535</v>
+        <v>8.046151708412538</v>
       </c>
       <c r="M16">
-        <v>10.84387360474968</v>
+        <v>14.70691384395218</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.43635141937633</v>
+        <v>20.33909751031385</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.39449827388652</v>
+        <v>16.05542277387483</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.751843786676999</v>
+        <v>5.077178316226993</v>
       </c>
       <c r="E17">
-        <v>13.08497978571451</v>
+        <v>21.20658019103195</v>
       </c>
       <c r="F17">
-        <v>17.61087461702243</v>
+        <v>22.80689426820119</v>
       </c>
       <c r="G17">
-        <v>21.22709521826806</v>
+        <v>26.16929053572462</v>
       </c>
       <c r="H17">
-        <v>8.202293720209266</v>
+        <v>13.60010838539509</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.24435767862904</v>
+        <v>12.77764507214855</v>
       </c>
       <c r="L17">
-        <v>6.380105534314703</v>
+        <v>8.031769260198834</v>
       </c>
       <c r="M17">
-        <v>10.71628458854303</v>
+        <v>14.69097452756372</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.41526462082253</v>
+        <v>20.36217940539531</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.25837045644693</v>
+        <v>16.02901687682793</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.703983666224275</v>
+        <v>5.0580001870346</v>
       </c>
       <c r="E18">
-        <v>13.1415544527587</v>
+        <v>21.22659839894529</v>
       </c>
       <c r="F18">
-        <v>17.52290718323529</v>
+        <v>22.80876130755763</v>
       </c>
       <c r="G18">
-        <v>21.12109034169018</v>
+        <v>26.17464188780172</v>
       </c>
       <c r="H18">
-        <v>8.212040360045881</v>
+        <v>13.60956970564277</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.11371982348679</v>
+        <v>12.72075512709017</v>
       </c>
       <c r="L18">
-        <v>6.315120704908396</v>
+        <v>8.023574465652526</v>
       </c>
       <c r="M18">
-        <v>10.64261427091218</v>
+        <v>14.68198206523329</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.4046009497485</v>
+        <v>20.37589478452812</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.21208848461281</v>
+        <v>16.02011245056742</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.68768295284125</v>
+        <v>5.051479907992706</v>
       </c>
       <c r="E19">
-        <v>13.16079058509081</v>
+        <v>21.23342513333387</v>
       </c>
       <c r="F19">
-        <v>17.49334868774907</v>
+        <v>22.80949836931376</v>
       </c>
       <c r="G19">
-        <v>21.08560984317818</v>
+        <v>26.17660549838929</v>
       </c>
       <c r="H19">
-        <v>8.215447591784789</v>
+        <v>13.61280934827607</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.06925069138827</v>
+        <v>12.70141615669676</v>
       </c>
       <c r="L19">
-        <v>6.292975116702311</v>
+        <v>8.020813332226599</v>
       </c>
       <c r="M19">
-        <v>10.61762396538769</v>
+        <v>14.67896766773805</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.40123868656056</v>
+        <v>20.38061396793713</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.41960081818163</v>
+        <v>16.06032693143132</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.760655819641436</v>
+        <v>5.080714903797227</v>
       </c>
       <c r="E20">
-        <v>13.07454743702068</v>
+        <v>21.20289849106933</v>
       </c>
       <c r="F20">
-        <v>17.62726239214066</v>
+        <v>22.80659855372128</v>
       </c>
       <c r="G20">
-        <v>21.24690955208863</v>
+        <v>26.1683722231479</v>
       </c>
       <c r="H20">
-        <v>8.20054113771935</v>
+        <v>13.59837450365339</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.26842256068617</v>
+        <v>12.78813725206584</v>
       </c>
       <c r="L20">
-        <v>6.392064852145504</v>
+        <v>8.033292300757285</v>
       </c>
       <c r="M20">
-        <v>10.72989658499522</v>
+        <v>14.69265318094312</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.41735694699006</v>
+        <v>20.3596768208781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.10308248605306</v>
+        <v>16.19786262748644</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.999061862094162</v>
+        <v>5.177022746046831</v>
       </c>
       <c r="E21">
-        <v>12.79035986606439</v>
+        <v>21.10372802581695</v>
       </c>
       <c r="F21">
-        <v>18.09273672356082</v>
+        <v>22.80415196681936</v>
       </c>
       <c r="G21">
-        <v>21.81743246267399</v>
+        <v>26.15128067440123</v>
       </c>
       <c r="H21">
-        <v>8.158151992830287</v>
+        <v>13.55239393424459</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.92081990777958</v>
+        <v>13.07397876045534</v>
       </c>
       <c r="L21">
-        <v>6.715022685329615</v>
+        <v>8.076135666611883</v>
       </c>
       <c r="M21">
-        <v>11.10357313964417</v>
+        <v>14.74071767309437</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.48925726415874</v>
+        <v>20.29458338683677</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.53911020705309</v>
+        <v>16.28944144896785</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.149734066426552</v>
+        <v>5.238482881104263</v>
       </c>
       <c r="E22">
-        <v>12.60872419929344</v>
+        <v>21.04143557054717</v>
       </c>
       <c r="F22">
-        <v>18.40833465088474</v>
+        <v>22.80798646703725</v>
       </c>
       <c r="G22">
-        <v>22.21155174663584</v>
+        <v>26.14800380818235</v>
       </c>
       <c r="H22">
-        <v>8.136470287368564</v>
+        <v>13.52422023382298</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.33439069733736</v>
+        <v>13.25647695629974</v>
       </c>
       <c r="L22">
-        <v>6.918636857732194</v>
+        <v>8.104792220800922</v>
       </c>
       <c r="M22">
-        <v>11.34483509372991</v>
+        <v>14.77365355216932</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.55002111604846</v>
+        <v>20.25596484487053</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.3073950132223</v>
+        <v>16.24041666440138</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.069793119692685</v>
+        <v>5.20581943214009</v>
       </c>
       <c r="E23">
-        <v>12.70529543039292</v>
+        <v>21.07445211756682</v>
       </c>
       <c r="F23">
-        <v>18.23886571922057</v>
+        <v>22.80544318044178</v>
       </c>
       <c r="G23">
-        <v>21.99926363439084</v>
+        <v>26.14902975237768</v>
       </c>
       <c r="H23">
-        <v>8.147472369609314</v>
+        <v>13.53908528799172</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.11484916372665</v>
+        <v>13.15948119347225</v>
       </c>
       <c r="L23">
-        <v>6.810647556455571</v>
+        <v>8.089439389557027</v>
       </c>
       <c r="M23">
-        <v>11.21635866768088</v>
+        <v>14.75593764255478</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.51629556058636</v>
+        <v>20.27621669886467</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.40825566749381</v>
+        <v>16.05810915381559</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.756673719049748</v>
+        <v>5.079116532284731</v>
       </c>
       <c r="E24">
-        <v>13.07926236092453</v>
+        <v>21.20456207356598</v>
       </c>
       <c r="F24">
-        <v>17.61984952767378</v>
+        <v>22.80673034182983</v>
       </c>
       <c r="G24">
-        <v>21.23794419106819</v>
+        <v>26.16878463218693</v>
       </c>
       <c r="H24">
-        <v>8.201331497899607</v>
+        <v>13.59915772195961</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.25754734687238</v>
+        <v>12.78339523284235</v>
       </c>
       <c r="L24">
-        <v>6.386660729668003</v>
+        <v>8.032603503650297</v>
       </c>
       <c r="M24">
-        <v>10.72374358603473</v>
+        <v>14.69189372785909</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.41640646876678</v>
+        <v>20.36080685242359</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.39563127164022</v>
+        <v>15.86944620089139</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.397500463114609</v>
+        <v>4.936434295363527</v>
       </c>
       <c r="E25">
-        <v>13.50063023410009</v>
+        <v>21.35579045499871</v>
       </c>
       <c r="F25">
-        <v>17.00226216628803</v>
+        <v>22.83146651459988</v>
       </c>
       <c r="G25">
-        <v>20.5081041215203</v>
+        <v>26.22387143909537</v>
       </c>
       <c r="H25">
-        <v>8.283450050065735</v>
+        <v>13.67201440166022</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.27986133308246</v>
+        <v>12.36048984999863</v>
       </c>
       <c r="L25">
-        <v>5.897531580192013</v>
+        <v>7.974283045666369</v>
       </c>
       <c r="M25">
-        <v>10.18182517980859</v>
+        <v>14.62953857147303</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.36420158995649</v>
+        <v>20.4688377220426</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.73813591030776</v>
+        <v>12.61743793795779</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.826604299473929</v>
+        <v>5.115478086288093</v>
       </c>
       <c r="E2">
-        <v>21.47658616257852</v>
+        <v>13.82685819108894</v>
       </c>
       <c r="F2">
-        <v>22.8697344708558</v>
+        <v>16.5916219601428</v>
       </c>
       <c r="G2">
-        <v>26.29328704279751</v>
+        <v>20.04844927535691</v>
       </c>
       <c r="H2">
-        <v>13.73259625338684</v>
+        <v>8.362663586036573</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.03577553756201</v>
+        <v>14.51718717898117</v>
       </c>
       <c r="L2">
-        <v>7.934078062814927</v>
+        <v>5.517118417337342</v>
       </c>
       <c r="M2">
-        <v>14.58959126765185</v>
+        <v>9.776386296945732</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.56275605144707</v>
+        <v>13.36937972807916</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.65424054670321</v>
+        <v>12.07251522209741</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.749414101993303</v>
+        <v>4.913974175995716</v>
       </c>
       <c r="E3">
-        <v>21.56438718243541</v>
+        <v>14.05817152845541</v>
       </c>
       <c r="F3">
-        <v>22.90814565811468</v>
+        <v>16.34108267583413</v>
       </c>
       <c r="G3">
-        <v>26.35819782191314</v>
+        <v>19.78436228180398</v>
       </c>
       <c r="H3">
-        <v>13.777984373216</v>
+        <v>8.427145822318028</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.80823693697445</v>
+        <v>13.97543234456068</v>
       </c>
       <c r="L3">
-        <v>7.908617977980042</v>
+        <v>5.315158008776127</v>
       </c>
       <c r="M3">
-        <v>14.56632286585677</v>
+        <v>9.49918047820435</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.63533945619076</v>
+        <v>13.39793503211278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.60535374633824</v>
+        <v>11.73045395802445</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.700738543284764</v>
+        <v>4.78537884617969</v>
       </c>
       <c r="E4">
-        <v>21.62123997517299</v>
+        <v>14.20532795811047</v>
       </c>
       <c r="F4">
-        <v>22.93786783794481</v>
+        <v>16.20093064699418</v>
       </c>
       <c r="G4">
-        <v>26.40681311736239</v>
+        <v>19.64503863116519</v>
       </c>
       <c r="H4">
-        <v>13.80799037409581</v>
+        <v>8.471784233762016</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.66514542806026</v>
+        <v>13.63127775961961</v>
       </c>
       <c r="L4">
-        <v>7.893892611023823</v>
+        <v>5.188857466472129</v>
       </c>
       <c r="M4">
-        <v>14.5539385656488</v>
+        <v>9.32836503094703</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.68430101451257</v>
+        <v>13.42709128597054</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.58610861314475</v>
+        <v>11.58938557312792</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.68059359669985</v>
+        <v>4.731793879681454</v>
       </c>
       <c r="E5">
-        <v>21.64514988243929</v>
+        <v>14.26659722732981</v>
       </c>
       <c r="F5">
-        <v>22.9515203666901</v>
+        <v>16.14724519936234</v>
       </c>
       <c r="G5">
-        <v>26.42881835619118</v>
+        <v>19.59389591126561</v>
       </c>
       <c r="H5">
-        <v>13.82075568717442</v>
+        <v>8.491203738717337</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.60603310876901</v>
+        <v>13.48826909673765</v>
       </c>
       <c r="L5">
-        <v>7.888123868014851</v>
+        <v>5.136883969844321</v>
       </c>
       <c r="M5">
-        <v>14.54937417150281</v>
+        <v>9.258698810359482</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.70535661215447</v>
+        <v>13.44178637564811</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.58295430412951</v>
+        <v>11.56586654940899</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.677230246134451</v>
+        <v>4.722826179648569</v>
       </c>
       <c r="E6">
-        <v>21.64916497383254</v>
+        <v>14.27684992280612</v>
       </c>
       <c r="F6">
-        <v>22.9538803060425</v>
+        <v>16.13853717629508</v>
       </c>
       <c r="G6">
-        <v>26.43260455788187</v>
+        <v>19.58574030630163</v>
       </c>
       <c r="H6">
-        <v>13.82290783273094</v>
+        <v>8.494501428577417</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.59617062735234</v>
+        <v>13.46435995464408</v>
       </c>
       <c r="L6">
-        <v>7.887180090791188</v>
+        <v>5.128225564011742</v>
       </c>
       <c r="M6">
-        <v>14.54864549576729</v>
+        <v>9.247130208859911</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.70891946463458</v>
+        <v>13.44439323382418</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.60509143897885</v>
+        <v>11.72855795602331</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.700468096529299</v>
+        <v>4.784660901749613</v>
       </c>
       <c r="E7">
-        <v>21.62155942583331</v>
+        <v>14.20614896984175</v>
       </c>
       <c r="F7">
-        <v>22.93804572750809</v>
+        <v>16.20019277372494</v>
       </c>
       <c r="G7">
-        <v>26.40710101593094</v>
+        <v>19.64432625483308</v>
       </c>
       <c r="H7">
-        <v>13.80816035458046</v>
+        <v>8.472041207244372</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.66435139700923</v>
+        <v>13.62936009392405</v>
       </c>
       <c r="L7">
-        <v>7.89381386760797</v>
+        <v>5.188158477576731</v>
       </c>
       <c r="M7">
-        <v>14.55387505085184</v>
+        <v>9.327425590623712</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.68458051261921</v>
+        <v>13.42727822073088</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.70867407136204</v>
+        <v>12.43121501151808</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.800262358844319</v>
+        <v>5.047034821848333</v>
       </c>
       <c r="E8">
-        <v>21.50625041432967</v>
+        <v>13.90555778407926</v>
       </c>
       <c r="F8">
-        <v>22.88170327241054</v>
+        <v>16.50239319670864</v>
       </c>
       <c r="G8">
-        <v>26.31384528572043</v>
+        <v>19.95259738026011</v>
       </c>
       <c r="H8">
-        <v>13.74780251555916</v>
+        <v>8.383825208045234</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.95805087765166</v>
+        <v>14.33285443002802</v>
       </c>
       <c r="L8">
-        <v>7.925113486871934</v>
+        <v>5.448000186803745</v>
       </c>
       <c r="M8">
-        <v>14.58117584874903</v>
+        <v>9.68098820659794</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.58686954905052</v>
+        <v>13.37674768062042</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.93186519801911</v>
+        <v>13.74211955720302</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.985266487502726</v>
+        <v>5.521283114658637</v>
       </c>
       <c r="E9">
-        <v>21.30338721411833</v>
+        <v>13.35624426953075</v>
       </c>
       <c r="F9">
-        <v>22.82001584786747</v>
+        <v>17.20350339268603</v>
       </c>
       <c r="G9">
-        <v>26.20081779668133</v>
+        <v>20.74178730725096</v>
       </c>
       <c r="H9">
-        <v>13.6463952428357</v>
+        <v>8.252751683833054</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.50512246954439</v>
+        <v>15.61605467025</v>
       </c>
       <c r="L9">
-        <v>7.993514397770542</v>
+        <v>6.066515857311945</v>
       </c>
       <c r="M9">
-        <v>14.64962813526714</v>
+        <v>10.36556204400413</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.43020994831769</v>
+        <v>13.37472840851002</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.10699867881871</v>
+        <v>14.65582833617984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.113997448201102</v>
+        <v>5.843380733034312</v>
       </c>
       <c r="E10">
-        <v>21.16839460191105</v>
+        <v>12.97636689569122</v>
       </c>
       <c r="F10">
-        <v>22.80454370140825</v>
+        <v>17.78397694366319</v>
       </c>
       <c r="G10">
-        <v>26.16075747684527</v>
+        <v>21.43738496848263</v>
       </c>
       <c r="H10">
-        <v>13.58221873594255</v>
+        <v>8.184729047557093</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.88689558258375</v>
+        <v>16.49451176665468</v>
       </c>
       <c r="L10">
-        <v>8.047803243959056</v>
+        <v>6.50425369010489</v>
       </c>
       <c r="M10">
-        <v>14.70875626943316</v>
+        <v>10.85839231380044</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.33652327189481</v>
+        <v>13.4389585922365</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.18884957143231</v>
+        <v>15.05940728389676</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.170867463969938</v>
+        <v>5.983911295389227</v>
       </c>
       <c r="E11">
-        <v>21.11000700057677</v>
+        <v>12.8085347903665</v>
       </c>
       <c r="F11">
-        <v>22.80399368626024</v>
+        <v>18.06190689358839</v>
       </c>
       <c r="G11">
-        <v>26.15192836776273</v>
+        <v>21.77922332077058</v>
       </c>
       <c r="H11">
-        <v>13.55526399918228</v>
+        <v>8.160553817907317</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.05570423997449</v>
+        <v>16.87928639423181</v>
       </c>
       <c r="L11">
-        <v>8.073320687705804</v>
+        <v>6.694529735027505</v>
       </c>
       <c r="M11">
-        <v>14.73751377219675</v>
+        <v>11.07952554291273</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.2985728377899</v>
+        <v>13.48380668652937</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.22013667583196</v>
+        <v>15.21040881847419</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.192149309685409</v>
+        <v>6.036246433980431</v>
       </c>
       <c r="E12">
-        <v>21.08832956193629</v>
+        <v>12.74568424696179</v>
       </c>
       <c r="F12">
-        <v>22.80471773898774</v>
+        <v>18.16910921849269</v>
       </c>
       <c r="G12">
-        <v>26.14993909809724</v>
+        <v>21.91231760925437</v>
       </c>
       <c r="H12">
-        <v>13.5453788909319</v>
+        <v>8.152427667347133</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.11889074740554</v>
+        <v>17.02279817460526</v>
       </c>
       <c r="L12">
-        <v>8.083096549170548</v>
+        <v>6.765303749856868</v>
       </c>
       <c r="M12">
-        <v>14.74866537869355</v>
+        <v>11.16276067696853</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.28487487739512</v>
+        <v>13.50314449425276</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.21338580531795</v>
+        <v>15.17797033870391</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.1875773233818</v>
+        <v>6.025014559688314</v>
       </c>
       <c r="E13">
-        <v>21.09297897065187</v>
+        <v>12.75918911528743</v>
       </c>
       <c r="F13">
-        <v>22.804520354562</v>
+        <v>18.14593490953692</v>
       </c>
       <c r="G13">
-        <v>26.15030726043824</v>
+        <v>21.88349137829599</v>
       </c>
       <c r="H13">
-        <v>13.54749350139931</v>
+        <v>8.154131133756817</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.10531579666726</v>
+        <v>16.99198876224466</v>
       </c>
       <c r="L13">
-        <v>8.080986201715968</v>
+        <v>6.750118258420726</v>
       </c>
       <c r="M13">
-        <v>14.74625213170765</v>
+        <v>11.14485781327943</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.28779501708815</v>
+        <v>13.49887334933731</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.19141785567216</v>
+        <v>15.07186729583054</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.172623474815819</v>
+        <v>5.988234685614169</v>
       </c>
       <c r="E14">
-        <v>21.10821492318346</v>
+        <v>12.80334999821208</v>
       </c>
       <c r="F14">
-        <v>22.80403457581955</v>
+        <v>18.07068751491484</v>
       </c>
       <c r="G14">
-        <v>26.15173755687617</v>
+        <v>21.79010004602437</v>
       </c>
       <c r="H14">
-        <v>13.55444429052072</v>
+        <v>8.159864337919746</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.06091762750828</v>
+        <v>16.89113747045899</v>
       </c>
       <c r="L14">
-        <v>8.074122719702181</v>
+        <v>6.700378018548163</v>
       </c>
       <c r="M14">
-        <v>14.73842600882904</v>
+        <v>11.08638376968215</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.29743239966816</v>
+        <v>13.48534982350265</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.17799921801677</v>
+        <v>15.00663609850834</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.163430483024683</v>
+        <v>5.96559075294659</v>
       </c>
       <c r="E15">
-        <v>21.11760367944871</v>
+        <v>12.83049113273885</v>
       </c>
       <c r="F15">
-        <v>22.80385840613975</v>
+        <v>18.02484989774646</v>
       </c>
       <c r="G15">
-        <v>26.15279007490823</v>
+        <v>21.73336977442474</v>
       </c>
       <c r="H15">
-        <v>13.55874379294842</v>
+        <v>8.16351170738367</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.03362530107074</v>
+        <v>16.82907582509596</v>
       </c>
       <c r="L15">
-        <v>8.069933194875263</v>
+        <v>6.669743952580331</v>
       </c>
       <c r="M15">
-        <v>14.7336661992966</v>
+        <v>11.05049943950964</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.30342327628726</v>
+        <v>13.47737606457534</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.10169158153348</v>
+        <v>14.62920255886074</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.110245931518814</v>
+        <v>5.834074430921123</v>
       </c>
       <c r="E16">
-        <v>21.172271011942</v>
+        <v>12.98743423922748</v>
       </c>
       <c r="F16">
-        <v>22.80471016704036</v>
+        <v>17.7660894713133</v>
       </c>
       <c r="G16">
-        <v>26.1615238241166</v>
+        <v>21.41555608071419</v>
       </c>
       <c r="H16">
-        <v>13.58402535806081</v>
+        <v>8.186449819666581</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.87576235360893</v>
+        <v>16.46906182972382</v>
       </c>
       <c r="L16">
-        <v>8.046151708412538</v>
+        <v>6.491639920160535</v>
       </c>
       <c r="M16">
-        <v>14.70691384395218</v>
+        <v>10.84387360474969</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.33909751031385</v>
+        <v>13.43635141937626</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.05542277387483</v>
+        <v>14.39449827388648</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.077178316226993</v>
+        <v>5.75184378667714</v>
       </c>
       <c r="E17">
-        <v>21.20658019103195</v>
+        <v>13.08497978571463</v>
       </c>
       <c r="F17">
-        <v>22.80689426820119</v>
+        <v>17.61087461702232</v>
       </c>
       <c r="G17">
-        <v>26.16929053572462</v>
+        <v>21.22709521826797</v>
       </c>
       <c r="H17">
-        <v>13.60010838539509</v>
+        <v>8.20229372020926</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.77764507214855</v>
+        <v>16.24435767862909</v>
       </c>
       <c r="L17">
-        <v>8.031769260198834</v>
+        <v>6.380105534314659</v>
       </c>
       <c r="M17">
-        <v>14.69097452756372</v>
+        <v>10.71628458854303</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.36217940539531</v>
+        <v>13.41526462082247</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.02901687682793</v>
+        <v>14.25837045644695</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.0580001870346</v>
+        <v>5.70398366622432</v>
       </c>
       <c r="E18">
-        <v>21.22659839894529</v>
+        <v>13.14155445275884</v>
       </c>
       <c r="F18">
-        <v>22.80876130755763</v>
+        <v>17.52290718323525</v>
       </c>
       <c r="G18">
-        <v>26.17464188780172</v>
+        <v>21.12109034169028</v>
       </c>
       <c r="H18">
-        <v>13.60956970564277</v>
+        <v>8.212040360045828</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.72075512709017</v>
+        <v>16.11371982348686</v>
       </c>
       <c r="L18">
-        <v>8.023574465652526</v>
+        <v>6.315120704908414</v>
       </c>
       <c r="M18">
-        <v>14.68198206523329</v>
+        <v>10.64261427091218</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.37589478452812</v>
+        <v>13.40460094974846</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.02011245056742</v>
+        <v>14.21208848461278</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.051479907992706</v>
+        <v>5.687682952841355</v>
       </c>
       <c r="E19">
-        <v>21.23342513333387</v>
+        <v>13.16079058509081</v>
       </c>
       <c r="F19">
-        <v>22.80949836931376</v>
+        <v>17.49334868774893</v>
       </c>
       <c r="G19">
-        <v>26.17660549838929</v>
+        <v>21.08560984317813</v>
       </c>
       <c r="H19">
-        <v>13.61280934827607</v>
+        <v>8.215447591784676</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.70141615669676</v>
+        <v>16.06925069138834</v>
       </c>
       <c r="L19">
-        <v>8.020813332226599</v>
+        <v>6.292975116702318</v>
       </c>
       <c r="M19">
-        <v>14.67896766773805</v>
+        <v>10.61762396538766</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.38061396793713</v>
+        <v>13.40123868656045</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.06032693143132</v>
+        <v>14.41960081818162</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.080714903797227</v>
+        <v>5.76065581964145</v>
       </c>
       <c r="E20">
-        <v>21.20289849106933</v>
+        <v>13.07454743702062</v>
       </c>
       <c r="F20">
-        <v>22.80659855372128</v>
+        <v>17.62726239214062</v>
       </c>
       <c r="G20">
-        <v>26.1683722231479</v>
+        <v>21.24690955208852</v>
       </c>
       <c r="H20">
-        <v>13.59837450365339</v>
+        <v>8.200541137719297</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.78813725206584</v>
+        <v>16.26842256068617</v>
       </c>
       <c r="L20">
-        <v>8.033292300757285</v>
+        <v>6.392064852145561</v>
       </c>
       <c r="M20">
-        <v>14.69265318094312</v>
+        <v>10.72989658499519</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.3596768208781</v>
+        <v>13.41735694698999</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.19786262748644</v>
+        <v>15.10308248605305</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.177022746046831</v>
+        <v>5.999061862094169</v>
       </c>
       <c r="E21">
-        <v>21.10372802581695</v>
+        <v>12.79035986606439</v>
       </c>
       <c r="F21">
-        <v>22.80415196681936</v>
+        <v>18.09273672356073</v>
       </c>
       <c r="G21">
-        <v>26.15128067440123</v>
+        <v>21.81743246267384</v>
       </c>
       <c r="H21">
-        <v>13.55239393424459</v>
+        <v>8.158151992830248</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.07397876045534</v>
+        <v>16.92081990777961</v>
       </c>
       <c r="L21">
-        <v>8.076135666611883</v>
+        <v>6.715022685329607</v>
       </c>
       <c r="M21">
-        <v>14.74071767309437</v>
+        <v>11.10357313964417</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.29458338683677</v>
+        <v>13.4892572641586</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.28944144896785</v>
+        <v>15.53911020705306</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.238482881104263</v>
+        <v>6.149734066426641</v>
       </c>
       <c r="E22">
-        <v>21.04143557054717</v>
+        <v>12.60872419929345</v>
       </c>
       <c r="F22">
-        <v>22.80798646703725</v>
+        <v>18.40833465088468</v>
       </c>
       <c r="G22">
-        <v>26.14800380818235</v>
+        <v>22.2115517466358</v>
       </c>
       <c r="H22">
-        <v>13.52422023382298</v>
+        <v>8.136470287368507</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.25647695629974</v>
+        <v>17.33439069733737</v>
       </c>
       <c r="L22">
-        <v>8.104792220800922</v>
+        <v>6.918636857732219</v>
       </c>
       <c r="M22">
-        <v>14.77365355216932</v>
+        <v>11.34483509372991</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.25596484487053</v>
+        <v>13.55002111604841</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.24041666440138</v>
+        <v>15.30739501322232</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.20581943214009</v>
+        <v>6.069793119692692</v>
       </c>
       <c r="E23">
-        <v>21.07445211756682</v>
+        <v>12.70529543039305</v>
       </c>
       <c r="F23">
-        <v>22.80544318044178</v>
+        <v>18.23886571922053</v>
       </c>
       <c r="G23">
-        <v>26.14902975237768</v>
+        <v>21.99926363439084</v>
       </c>
       <c r="H23">
-        <v>13.53908528799172</v>
+        <v>8.147472369609261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.15948119347225</v>
+        <v>17.11484916372667</v>
       </c>
       <c r="L23">
-        <v>8.089439389557027</v>
+        <v>6.810647556455534</v>
       </c>
       <c r="M23">
-        <v>14.75593764255478</v>
+        <v>11.2163586676809</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.27621669886467</v>
+        <v>13.5162955605863</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.05810915381559</v>
+        <v>14.40825566749379</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.079116532284731</v>
+        <v>5.756673719049618</v>
       </c>
       <c r="E24">
-        <v>21.20456207356598</v>
+        <v>13.07926236092459</v>
       </c>
       <c r="F24">
-        <v>22.80673034182983</v>
+        <v>17.61984952767374</v>
       </c>
       <c r="G24">
-        <v>26.16878463218693</v>
+        <v>21.23794419106797</v>
       </c>
       <c r="H24">
-        <v>13.59915772195961</v>
+        <v>8.20133149789959</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.78339523284235</v>
+        <v>16.25754734687249</v>
       </c>
       <c r="L24">
-        <v>8.032603503650297</v>
+        <v>6.386660729668008</v>
       </c>
       <c r="M24">
-        <v>14.69189372785909</v>
+        <v>10.7237435860347</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.36080685242359</v>
+        <v>13.41640646876666</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.86944620089139</v>
+        <v>13.3956312716403</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.936434295363527</v>
+        <v>5.397500463114609</v>
       </c>
       <c r="E25">
-        <v>21.35579045499871</v>
+        <v>13.50063023410016</v>
       </c>
       <c r="F25">
-        <v>22.83146651459988</v>
+        <v>17.00226216628792</v>
       </c>
       <c r="G25">
-        <v>26.22387143909537</v>
+        <v>20.50810412152007</v>
       </c>
       <c r="H25">
-        <v>13.67201440166022</v>
+        <v>8.283450050065676</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.36048984999863</v>
+        <v>15.27986133308256</v>
       </c>
       <c r="L25">
-        <v>7.974283045666369</v>
+        <v>5.897531580192052</v>
       </c>
       <c r="M25">
-        <v>14.62953857147303</v>
+        <v>10.18182517980858</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.4688377220426</v>
+        <v>13.36420158995636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.61743793795779</v>
+        <v>12.31189769439443</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.115478086288093</v>
+        <v>6.686476063285429</v>
       </c>
       <c r="E2">
-        <v>13.82685819108894</v>
+        <v>9.798583226682153</v>
       </c>
       <c r="F2">
-        <v>16.5916219601428</v>
+        <v>20.35721699597575</v>
       </c>
       <c r="G2">
-        <v>20.04844927535691</v>
+        <v>21.68408798230362</v>
       </c>
       <c r="H2">
-        <v>8.362663586036573</v>
+        <v>2.579065484618016</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.93647358924509</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.859282628831583</v>
       </c>
       <c r="K2">
-        <v>14.51718717898117</v>
+        <v>16.35367093348527</v>
       </c>
       <c r="L2">
-        <v>5.517118417337342</v>
+        <v>6.956982628078591</v>
       </c>
       <c r="M2">
-        <v>9.776386296945732</v>
+        <v>12.72634972547853</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.888040856279493</v>
       </c>
       <c r="O2">
-        <v>13.36937972807916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.1085824462147</v>
+      </c>
+      <c r="Q2">
+        <v>14.33398715686555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.07251522209741</v>
+        <v>11.64944192411605</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.913974175995716</v>
+        <v>6.556012791745977</v>
       </c>
       <c r="E3">
-        <v>14.05817152845541</v>
+        <v>9.71436777530039</v>
       </c>
       <c r="F3">
-        <v>16.34108267583413</v>
+        <v>20.13770714077816</v>
       </c>
       <c r="G3">
-        <v>19.78436228180398</v>
+        <v>21.32159165840812</v>
       </c>
       <c r="H3">
-        <v>8.427145822318028</v>
+        <v>2.744939729818289</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.043483443317039</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.87739089909409</v>
       </c>
       <c r="K3">
-        <v>13.97543234456068</v>
+        <v>16.46903013200266</v>
       </c>
       <c r="L3">
-        <v>5.315158008776127</v>
+        <v>6.920344022484999</v>
       </c>
       <c r="M3">
-        <v>9.49918047820435</v>
+        <v>12.05718188048925</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.586202753355226</v>
       </c>
       <c r="O3">
-        <v>13.39793503211278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.21626787422361</v>
+      </c>
+      <c r="Q3">
+        <v>14.2823252187722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.73045395802445</v>
+        <v>11.21963021061067</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.78537884617969</v>
+        <v>6.474880518545932</v>
       </c>
       <c r="E4">
-        <v>14.20532795811047</v>
+        <v>9.661012364707112</v>
       </c>
       <c r="F4">
-        <v>16.20093064699418</v>
+        <v>20.00905225655398</v>
       </c>
       <c r="G4">
-        <v>19.64503863116519</v>
+        <v>21.10738100531041</v>
       </c>
       <c r="H4">
-        <v>8.471784233762016</v>
+        <v>2.850786632045703</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.112466401151705</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.891395307973383</v>
       </c>
       <c r="K4">
-        <v>13.63127775961961</v>
+        <v>16.54218147949961</v>
       </c>
       <c r="L4">
-        <v>5.188857466472129</v>
+        <v>6.896851846935495</v>
       </c>
       <c r="M4">
-        <v>9.32836503094703</v>
+        <v>11.62659117650958</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.39606754265154</v>
       </c>
       <c r="O4">
-        <v>13.42709128597054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.2843207045082</v>
+      </c>
+      <c r="Q4">
+        <v>14.25646997660628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.58938557312792</v>
+        <v>11.03020069778099</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.731793879681454</v>
+        <v>6.440381152523769</v>
       </c>
       <c r="E5">
-        <v>14.26659722732981</v>
+        <v>9.636760718994793</v>
       </c>
       <c r="F5">
-        <v>16.14724519936234</v>
+        <v>19.95338010898926</v>
       </c>
       <c r="G5">
-        <v>19.59389591126561</v>
+        <v>21.01525719145563</v>
       </c>
       <c r="H5">
-        <v>8.491203738717337</v>
+        <v>2.895200997489593</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.143895586424919</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.896707174789951</v>
       </c>
       <c r="K5">
-        <v>13.48826909673765</v>
+        <v>16.56849018487345</v>
       </c>
       <c r="L5">
-        <v>5.136883969844321</v>
+        <v>6.886495103276637</v>
       </c>
       <c r="M5">
-        <v>9.258698810359482</v>
+        <v>11.4489497176547</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.321967206900897</v>
       </c>
       <c r="O5">
-        <v>13.44178637564811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.31259968189028</v>
+      </c>
+      <c r="Q5">
+        <v>14.24456737106698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.56586654940899</v>
+        <v>10.98787573725714</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.722826179648569</v>
+        <v>6.433154798746407</v>
       </c>
       <c r="E6">
-        <v>14.27684992280612</v>
+        <v>9.630147285481149</v>
       </c>
       <c r="F6">
-        <v>16.13853717629508</v>
+        <v>19.93835206740055</v>
       </c>
       <c r="G6">
-        <v>19.58574030630163</v>
+        <v>20.99154097284983</v>
       </c>
       <c r="H6">
-        <v>8.494501428577417</v>
+        <v>2.902960316682117</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.152339333326585</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.896278869956124</v>
       </c>
       <c r="K6">
-        <v>13.46435995464408</v>
+        <v>16.567910682444</v>
       </c>
       <c r="L6">
-        <v>5.128225564011742</v>
+        <v>6.884116087964284</v>
       </c>
       <c r="M6">
-        <v>9.247130208859911</v>
+        <v>11.42245298755717</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.315104564537497</v>
       </c>
       <c r="O6">
-        <v>13.44439323382418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.31740509118673</v>
+      </c>
+      <c r="Q6">
+        <v>14.23923545076634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.72855795602331</v>
+        <v>11.1888904035449</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.784660901749613</v>
+        <v>6.470391588272835</v>
       </c>
       <c r="E7">
-        <v>14.20614896984175</v>
+        <v>9.653737482090143</v>
       </c>
       <c r="F7">
-        <v>16.20019277372494</v>
+        <v>19.99232307207194</v>
       </c>
       <c r="G7">
-        <v>19.64432625483308</v>
+        <v>21.08293232682994</v>
       </c>
       <c r="H7">
-        <v>8.472041207244372</v>
+        <v>2.852244195176488</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.121265904320082</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.887780625674342</v>
       </c>
       <c r="K7">
-        <v>13.62936009392405</v>
+        <v>16.52894983579253</v>
       </c>
       <c r="L7">
-        <v>5.188158477576731</v>
+        <v>6.894983588781302</v>
       </c>
       <c r="M7">
-        <v>9.327425590623712</v>
+        <v>11.63305086230652</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.409866158002556</v>
       </c>
       <c r="O7">
-        <v>13.42727822073088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.28498451896343</v>
+      </c>
+      <c r="Q7">
+        <v>14.24693647728012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.43121501151808</v>
+        <v>12.05342971916679</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.047034821848333</v>
+        <v>6.636550652347662</v>
       </c>
       <c r="E8">
-        <v>13.90555778407926</v>
+        <v>9.760919325104958</v>
       </c>
       <c r="F8">
-        <v>16.50239319670864</v>
+        <v>20.25954125383082</v>
       </c>
       <c r="G8">
-        <v>19.95259738026011</v>
+        <v>21.52747373354594</v>
       </c>
       <c r="H8">
-        <v>8.383825208045234</v>
+        <v>2.636496183762347</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.983205632098239</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.860093531104637</v>
       </c>
       <c r="K8">
-        <v>14.33285443002802</v>
+        <v>16.37513690368522</v>
       </c>
       <c r="L8">
-        <v>5.448000186803745</v>
+        <v>6.942396783927883</v>
       </c>
       <c r="M8">
-        <v>9.68098820659794</v>
+        <v>12.51079063694764</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.803521252262351</v>
       </c>
       <c r="O8">
-        <v>13.37674768062042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.14597560923924</v>
+      </c>
+      <c r="Q8">
+        <v>14.30270690425025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.74211955720302</v>
+        <v>13.60713156735885</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.521283114658637</v>
+        <v>6.959688345563173</v>
       </c>
       <c r="E9">
-        <v>13.35624426953075</v>
+        <v>9.969951285424083</v>
       </c>
       <c r="F9">
-        <v>17.20350339268603</v>
+        <v>20.85895454417546</v>
       </c>
       <c r="G9">
-        <v>20.74178730725096</v>
+        <v>22.5030133866934</v>
       </c>
       <c r="H9">
-        <v>8.252751683833054</v>
+        <v>2.243268650342469</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.724649885785163</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.835879056941133</v>
       </c>
       <c r="K9">
-        <v>15.61605467025</v>
+        <v>16.11602972293136</v>
       </c>
       <c r="L9">
-        <v>6.066515857311945</v>
+        <v>7.030513372422632</v>
       </c>
       <c r="M9">
-        <v>10.36556204400413</v>
+        <v>14.05776063502875</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.509495909382107</v>
       </c>
       <c r="O9">
-        <v>13.37472840851002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.88771599766205</v>
+      </c>
+      <c r="Q9">
+        <v>14.47625853186829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.65582833617984</v>
+        <v>14.56286706483593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.843380733034312</v>
+        <v>7.145226193261032</v>
       </c>
       <c r="E10">
-        <v>12.97636689569122</v>
+        <v>10.0548767825237</v>
       </c>
       <c r="F10">
-        <v>17.78397694366319</v>
+        <v>21.22053571279209</v>
       </c>
       <c r="G10">
-        <v>21.43738496848263</v>
+        <v>23.12367847274591</v>
       </c>
       <c r="H10">
-        <v>8.184729047557093</v>
+        <v>2.000926550795917</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.559202865856634</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.811917656221661</v>
       </c>
       <c r="K10">
-        <v>16.49451176665468</v>
+        <v>15.88996375982697</v>
       </c>
       <c r="L10">
-        <v>6.50425369010489</v>
+        <v>7.081344609533005</v>
       </c>
       <c r="M10">
-        <v>10.85839231380044</v>
+        <v>15.09941915517869</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.929171276274921</v>
       </c>
       <c r="O10">
-        <v>13.4389585922365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.71300646715195</v>
+      </c>
+      <c r="Q10">
+        <v>14.57957407695651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.05940728389676</v>
+        <v>14.46120592437852</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.983911295389227</v>
+        <v>6.861357428587088</v>
       </c>
       <c r="E11">
-        <v>12.8085347903665</v>
+        <v>9.66816548576651</v>
       </c>
       <c r="F11">
-        <v>18.06190689358839</v>
+        <v>20.51031225679121</v>
       </c>
       <c r="G11">
-        <v>21.77922332077058</v>
+        <v>22.33510342179062</v>
       </c>
       <c r="H11">
-        <v>8.160553817907317</v>
+        <v>2.930386013358543</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.538179053271918</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.626436847800219</v>
       </c>
       <c r="K11">
-        <v>16.87928639423181</v>
+        <v>15.43327937268252</v>
       </c>
       <c r="L11">
-        <v>6.694529735027505</v>
+        <v>7.074808451036878</v>
       </c>
       <c r="M11">
-        <v>11.07952554291273</v>
+        <v>15.58079071761029</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.478575972781784</v>
       </c>
       <c r="O11">
-        <v>13.48380668652937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.69437420855096</v>
+      </c>
+      <c r="Q11">
+        <v>14.1805912457036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.21040881847419</v>
+        <v>14.20904650155935</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.036246433980431</v>
+        <v>6.592179220502654</v>
       </c>
       <c r="E12">
-        <v>12.74568424696179</v>
+        <v>9.44626380809906</v>
       </c>
       <c r="F12">
-        <v>18.16910921849269</v>
+        <v>19.84449149477872</v>
       </c>
       <c r="G12">
-        <v>21.91231760925437</v>
+        <v>21.55080114650706</v>
       </c>
       <c r="H12">
-        <v>8.152427667347133</v>
+        <v>4.265001021783341</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.537517386074771</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.476662330129821</v>
       </c>
       <c r="K12">
-        <v>17.02279817460526</v>
+        <v>15.13359870480681</v>
       </c>
       <c r="L12">
-        <v>6.765303749856868</v>
+        <v>7.12313530186091</v>
       </c>
       <c r="M12">
-        <v>11.16276067696853</v>
+        <v>15.76430834938694</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.985720796775762</v>
       </c>
       <c r="O12">
-        <v>13.50314449425276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.72608383354114</v>
+      </c>
+      <c r="Q12">
+        <v>13.82673243578451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.17797033870391</v>
+        <v>13.7843410727375</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.025014559688314</v>
+        <v>6.310818711497022</v>
       </c>
       <c r="E13">
-        <v>12.75918911528743</v>
+        <v>9.331976509879954</v>
       </c>
       <c r="F13">
-        <v>18.14593490953692</v>
+        <v>19.14372004234062</v>
       </c>
       <c r="G13">
-        <v>21.88349137829599</v>
+        <v>20.67583337794679</v>
       </c>
       <c r="H13">
-        <v>8.154131133756817</v>
+        <v>5.66361537663078</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.565729796186552</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.339458827615577</v>
       </c>
       <c r="K13">
-        <v>16.99198876224466</v>
+        <v>14.9178814527017</v>
       </c>
       <c r="L13">
-        <v>6.750118258420726</v>
+        <v>7.210116796824423</v>
       </c>
       <c r="M13">
-        <v>11.14485781327943</v>
+        <v>15.74588472447786</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.437835327383573</v>
       </c>
       <c r="O13">
-        <v>13.49887334933731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.7960163891514</v>
+      </c>
+      <c r="Q13">
+        <v>13.46996769293059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.07186729583054</v>
+        <v>13.39640168546737</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.988234685614169</v>
+        <v>6.108786289149856</v>
       </c>
       <c r="E14">
-        <v>12.80334999821208</v>
+        <v>9.317736059522334</v>
       </c>
       <c r="F14">
-        <v>18.07068751491484</v>
+        <v>18.63353697236489</v>
       </c>
       <c r="G14">
-        <v>21.79010004602437</v>
+        <v>20.01277275221799</v>
       </c>
       <c r="H14">
-        <v>8.159864337919746</v>
+        <v>6.660843346927726</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.601055387587067</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.248677020561896</v>
       </c>
       <c r="K14">
-        <v>16.89113747045899</v>
+        <v>14.80673984806871</v>
       </c>
       <c r="L14">
-        <v>6.700378018548163</v>
+        <v>7.294538929998792</v>
       </c>
       <c r="M14">
-        <v>11.08638376968215</v>
+        <v>15.6435731133208</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.028226540137505</v>
       </c>
       <c r="O14">
-        <v>13.48534982350265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.86286678446202</v>
+      </c>
+      <c r="Q14">
+        <v>13.21710895226359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.00663609850834</v>
+        <v>13.25527089467518</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.96559075294659</v>
+        <v>6.055452708631504</v>
       </c>
       <c r="E15">
-        <v>12.83049113273885</v>
+        <v>9.321687039500899</v>
       </c>
       <c r="F15">
-        <v>18.02484989774646</v>
+        <v>18.49858462381645</v>
       </c>
       <c r="G15">
-        <v>21.73336977442474</v>
+        <v>19.82631001309191</v>
       </c>
       <c r="H15">
-        <v>8.16351170738367</v>
+        <v>6.893454502130298</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.620015323365089</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.228647574218538</v>
       </c>
       <c r="K15">
-        <v>16.82907582509596</v>
+        <v>14.79246920339363</v>
       </c>
       <c r="L15">
-        <v>6.669743952580331</v>
+        <v>7.315611775273717</v>
       </c>
       <c r="M15">
-        <v>11.05049943950964</v>
+        <v>15.57783987754045</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.921072785099855</v>
       </c>
       <c r="O15">
-        <v>13.47737606457534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.88627930691218</v>
+      </c>
+      <c r="Q15">
+        <v>13.15317225913529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.62920255886074</v>
+        <v>12.90262702379094</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.834074430921123</v>
+        <v>6.026433116276463</v>
       </c>
       <c r="E16">
-        <v>12.98743423922748</v>
+        <v>9.300441514859886</v>
       </c>
       <c r="F16">
-        <v>17.7660894713133</v>
+        <v>18.46451793608588</v>
       </c>
       <c r="G16">
-        <v>21.41555608071419</v>
+        <v>19.69325103390446</v>
       </c>
       <c r="H16">
-        <v>8.186449819666581</v>
+        <v>6.695513866291601</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.690522768157265</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.263729662305879</v>
       </c>
       <c r="K16">
-        <v>16.46906182972382</v>
+        <v>14.92775171517975</v>
       </c>
       <c r="L16">
-        <v>6.491639920160535</v>
+        <v>7.270352567746192</v>
       </c>
       <c r="M16">
-        <v>10.84387360474969</v>
+        <v>15.15826280727207</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.833503479947214</v>
       </c>
       <c r="O16">
-        <v>13.43635141937626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.93729344593426</v>
+      </c>
+      <c r="Q16">
+        <v>13.17061602172967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.39449827388648</v>
+        <v>12.8426310862796</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.75184378667714</v>
+        <v>6.111494759512447</v>
       </c>
       <c r="E17">
-        <v>13.08497978571463</v>
+        <v>9.280674205183766</v>
       </c>
       <c r="F17">
-        <v>17.61087461702232</v>
+        <v>18.71242273458331</v>
       </c>
       <c r="G17">
-        <v>21.22709521826797</v>
+        <v>19.95229427545074</v>
       </c>
       <c r="H17">
-        <v>8.20229372020926</v>
+        <v>5.983361019835602</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.726461657974337</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.339116458352454</v>
       </c>
       <c r="K17">
-        <v>16.24435767862909</v>
+        <v>15.08754741462054</v>
       </c>
       <c r="L17">
-        <v>6.380105534314659</v>
+        <v>7.186210160094785</v>
       </c>
       <c r="M17">
-        <v>10.71628458854303</v>
+        <v>14.88702248726711</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.991754061252393</v>
       </c>
       <c r="O17">
-        <v>13.41526462082247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.94227718121563</v>
+      </c>
+      <c r="Q17">
+        <v>13.31971174234983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.25837045644695</v>
+        <v>13.05139712425193</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.70398366622432</v>
+        <v>6.312083430829219</v>
       </c>
       <c r="E18">
-        <v>13.14155445275884</v>
+        <v>9.323034235612425</v>
       </c>
       <c r="F18">
-        <v>17.52290718323525</v>
+        <v>19.23975720645574</v>
       </c>
       <c r="G18">
-        <v>21.12109034169028</v>
+        <v>20.587653702359</v>
       </c>
       <c r="H18">
-        <v>8.212040360045828</v>
+        <v>4.782364677623264</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.726248164261456</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.459205768101025</v>
       </c>
       <c r="K18">
-        <v>16.11371982348686</v>
+        <v>15.30547804499424</v>
       </c>
       <c r="L18">
-        <v>6.315120704908414</v>
+        <v>7.086107137631821</v>
       </c>
       <c r="M18">
-        <v>10.64261427091218</v>
+        <v>14.71198863347479</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.371021125035635</v>
       </c>
       <c r="O18">
-        <v>13.40460094974846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.9114177661687</v>
+      </c>
+      <c r="Q18">
+        <v>13.60284901374094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.21208848461278</v>
+        <v>13.41291462489686</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.687682952841355</v>
+        <v>6.591537019373618</v>
       </c>
       <c r="E19">
-        <v>13.16079058509081</v>
+        <v>9.499270136959192</v>
       </c>
       <c r="F19">
-        <v>17.49334868774893</v>
+        <v>19.92595789632509</v>
       </c>
       <c r="G19">
-        <v>21.08560984317813</v>
+        <v>21.43240819035266</v>
       </c>
       <c r="H19">
-        <v>8.215447591784676</v>
+        <v>3.398550759151288</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.711839345102834</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.599872825115433</v>
       </c>
       <c r="K19">
-        <v>16.06925069138834</v>
+        <v>15.55405053778885</v>
       </c>
       <c r="L19">
-        <v>6.292975116702318</v>
+        <v>7.025561519433397</v>
       </c>
       <c r="M19">
-        <v>10.61762396538766</v>
+        <v>14.64417233221383</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.91924271685504</v>
       </c>
       <c r="O19">
-        <v>13.40123868656045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.86498903074574</v>
+      </c>
+      <c r="Q19">
+        <v>13.9559067679699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.41960081818162</v>
+        <v>14.24686071003923</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.76065581964145</v>
+        <v>7.083846160629062</v>
       </c>
       <c r="E20">
-        <v>13.07454743702062</v>
+        <v>10.01102500847364</v>
       </c>
       <c r="F20">
-        <v>17.62726239214062</v>
+        <v>21.07322064252197</v>
       </c>
       <c r="G20">
-        <v>21.24690955208852</v>
+        <v>22.88752807693552</v>
       </c>
       <c r="H20">
-        <v>8.200541137719297</v>
+        <v>2.064907159208163</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.628451681818508</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.805210654272448</v>
       </c>
       <c r="K20">
-        <v>16.26842256068617</v>
+        <v>15.90595373179454</v>
       </c>
       <c r="L20">
-        <v>6.392064852145561</v>
+        <v>7.06362951433695</v>
       </c>
       <c r="M20">
-        <v>10.72989658499519</v>
+        <v>14.85546014206897</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.855085180582424</v>
       </c>
       <c r="O20">
-        <v>13.41735694698999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.76152608094051</v>
+      </c>
+      <c r="Q20">
+        <v>14.5203893767864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.10308248605305</v>
+        <v>15.04687642458548</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.999061862094169</v>
+        <v>7.291638798883383</v>
       </c>
       <c r="E21">
-        <v>12.79035986606439</v>
+        <v>10.1668395578582</v>
       </c>
       <c r="F21">
-        <v>18.09273672356073</v>
+        <v>21.5227713303393</v>
       </c>
       <c r="G21">
-        <v>21.81743246267384</v>
+        <v>23.57645894151218</v>
       </c>
       <c r="H21">
-        <v>8.158151992830248</v>
+        <v>1.842596997527246</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.493888502118975</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.82495251731431</v>
       </c>
       <c r="K21">
-        <v>16.92081990777961</v>
+        <v>15.80760058081471</v>
       </c>
       <c r="L21">
-        <v>6.715022685329607</v>
+        <v>7.11592286822018</v>
       </c>
       <c r="M21">
-        <v>11.10357313964417</v>
+        <v>15.6131553400429</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.275525028762786</v>
       </c>
       <c r="O21">
-        <v>13.4892572641586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.62234761311606</v>
+      </c>
+      <c r="Q21">
+        <v>14.69403447190357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.53911020705306</v>
+        <v>15.54527341231565</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.149734066426641</v>
+        <v>7.408339027888529</v>
       </c>
       <c r="E22">
-        <v>12.60872419929345</v>
+        <v>10.24600237517962</v>
       </c>
       <c r="F22">
-        <v>18.40833465088468</v>
+        <v>21.78890386566351</v>
       </c>
       <c r="G22">
-        <v>22.2115517466358</v>
+        <v>23.99577020316491</v>
       </c>
       <c r="H22">
-        <v>8.136470287368507</v>
+        <v>1.712698745105504</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.400074300354432</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.835420950239458</v>
       </c>
       <c r="K22">
-        <v>17.33439069733737</v>
+        <v>15.7420217606037</v>
       </c>
       <c r="L22">
-        <v>6.918636857732219</v>
+        <v>7.14668235547712</v>
       </c>
       <c r="M22">
-        <v>11.34483509372991</v>
+        <v>16.08204080992478</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.490458059472909</v>
       </c>
       <c r="O22">
-        <v>13.55002111604841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.53416384730967</v>
+      </c>
+      <c r="Q22">
+        <v>14.79896772342726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.30739501322232</v>
+        <v>15.30638587184246</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.069793119692692</v>
+        <v>7.35037661579455</v>
       </c>
       <c r="E23">
-        <v>12.70529543039305</v>
+        <v>10.21121707126525</v>
       </c>
       <c r="F23">
-        <v>18.23886571922053</v>
+        <v>21.66349575491716</v>
       </c>
       <c r="G23">
-        <v>21.99926363439084</v>
+        <v>23.79540699960087</v>
       </c>
       <c r="H23">
-        <v>8.147472369609261</v>
+        <v>1.780994796310657</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.439573735844487</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.833703263603249</v>
       </c>
       <c r="K23">
-        <v>17.11484916372667</v>
+        <v>15.79235161774885</v>
       </c>
       <c r="L23">
-        <v>6.810647556455534</v>
+        <v>7.131913804505932</v>
       </c>
       <c r="M23">
-        <v>11.2163586676809</v>
+        <v>15.8254391921169</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.36267518133749</v>
       </c>
       <c r="O23">
-        <v>13.5162955605863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.57972074635832</v>
+      </c>
+      <c r="Q23">
+        <v>14.75272527460892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.40825566749379</v>
+        <v>14.31879029719962</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.756673719049618</v>
+        <v>7.120711921603943</v>
       </c>
       <c r="E24">
-        <v>13.07926236092459</v>
+        <v>10.06525028276117</v>
       </c>
       <c r="F24">
-        <v>17.61984952767374</v>
+        <v>21.17135880124984</v>
       </c>
       <c r="G24">
-        <v>21.23794419106797</v>
+        <v>23.01042897427136</v>
       </c>
       <c r="H24">
-        <v>8.20133149789959</v>
+        <v>2.047045904887363</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.610837942211853</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.827011363194174</v>
       </c>
       <c r="K24">
-        <v>16.25754734687249</v>
+        <v>15.96329261978545</v>
       </c>
       <c r="L24">
-        <v>6.386660729668008</v>
+        <v>7.07214230911744</v>
       </c>
       <c r="M24">
-        <v>10.7237435860347</v>
+        <v>14.82801652210663</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.887128028192452</v>
       </c>
       <c r="O24">
-        <v>13.41640646876666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.75796023494716</v>
+      </c>
+      <c r="Q24">
+        <v>14.57373221711566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.3956312716403</v>
+        <v>13.16380145519837</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.397500463114609</v>
+        <v>6.866714354074638</v>
       </c>
       <c r="E25">
-        <v>13.50063023410016</v>
+        <v>9.902996312064833</v>
       </c>
       <c r="F25">
-        <v>17.00226216628792</v>
+        <v>20.66436087759113</v>
       </c>
       <c r="G25">
-        <v>20.50810412152007</v>
+        <v>22.19338209966314</v>
       </c>
       <c r="H25">
-        <v>8.283450050065676</v>
+        <v>2.347688495147901</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.806604125365711</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.833302109491575</v>
       </c>
       <c r="K25">
-        <v>15.27986133308256</v>
+        <v>16.16006653342659</v>
       </c>
       <c r="L25">
-        <v>5.897531580192052</v>
+        <v>7.004758329607554</v>
       </c>
       <c r="M25">
-        <v>10.18182517980858</v>
+        <v>13.67066510103719</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.346814445909371</v>
       </c>
       <c r="O25">
-        <v>13.36420158995636</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.9573431690425</v>
+      </c>
+      <c r="Q25">
+        <v>14.40765158831908</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.31189769439443</v>
+        <v>11.78627592580935</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.686476063285429</v>
+        <v>6.543416056882954</v>
       </c>
       <c r="E2">
-        <v>9.798583226682153</v>
+        <v>9.438131949032423</v>
       </c>
       <c r="F2">
-        <v>20.35721699597575</v>
+        <v>20.04079291543649</v>
       </c>
       <c r="G2">
-        <v>21.68408798230362</v>
+        <v>20.70196166180579</v>
       </c>
       <c r="H2">
-        <v>2.579065484618016</v>
+        <v>2.443183676167012</v>
       </c>
       <c r="I2">
-        <v>3.93647358924509</v>
+        <v>3.684376972594994</v>
       </c>
       <c r="J2">
-        <v>8.859282628831583</v>
+        <v>9.218781445792294</v>
       </c>
       <c r="K2">
-        <v>16.35367093348527</v>
+        <v>15.61097959905186</v>
       </c>
       <c r="L2">
-        <v>6.956982628078591</v>
+        <v>12.28191426971298</v>
       </c>
       <c r="M2">
-        <v>12.72634972547853</v>
+        <v>10.74267303494507</v>
       </c>
       <c r="N2">
-        <v>6.888040856279493</v>
+        <v>6.766380380194398</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.74679423064524</v>
       </c>
       <c r="P2">
-        <v>13.1085824462147</v>
+        <v>7.235873684394728</v>
       </c>
       <c r="Q2">
-        <v>14.33398715686555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.94772330960902</v>
+      </c>
+      <c r="S2">
+        <v>14.16111117393874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.64944192411605</v>
+        <v>11.16072102175299</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.556012791745977</v>
+        <v>6.420600613835728</v>
       </c>
       <c r="E3">
-        <v>9.71436777530039</v>
+        <v>9.365910297575113</v>
       </c>
       <c r="F3">
-        <v>20.13770714077816</v>
+        <v>19.84564939370976</v>
       </c>
       <c r="G3">
-        <v>21.32159165840812</v>
+        <v>20.39082007248652</v>
       </c>
       <c r="H3">
-        <v>2.744939729818289</v>
+        <v>2.600226937522402</v>
       </c>
       <c r="I3">
-        <v>4.043483443317039</v>
+        <v>3.777544231667251</v>
       </c>
       <c r="J3">
-        <v>8.87739089909409</v>
+        <v>9.212625763383349</v>
       </c>
       <c r="K3">
-        <v>16.46903013200266</v>
+        <v>15.73698605635645</v>
       </c>
       <c r="L3">
-        <v>6.920344022484999</v>
+        <v>12.43405049086864</v>
       </c>
       <c r="M3">
-        <v>12.05718188048925</v>
+        <v>10.82638646789212</v>
       </c>
       <c r="N3">
-        <v>6.586202753355226</v>
+        <v>6.729747087127966</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.05438313866906</v>
       </c>
       <c r="P3">
-        <v>13.21626787422361</v>
+        <v>6.917825820072484</v>
       </c>
       <c r="Q3">
-        <v>14.2823252187722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.04377348516698</v>
+      </c>
+      <c r="S3">
+        <v>14.12241140300442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21963021061067</v>
+        <v>10.75306730791264</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.474880518545932</v>
+        <v>6.344138256301216</v>
       </c>
       <c r="E4">
-        <v>9.661012364707112</v>
+        <v>9.319866891716387</v>
       </c>
       <c r="F4">
-        <v>20.00905225655398</v>
+        <v>19.73119861733403</v>
       </c>
       <c r="G4">
-        <v>21.10738100531041</v>
+        <v>20.21044569015012</v>
       </c>
       <c r="H4">
-        <v>2.850786632045703</v>
+        <v>2.700453955939231</v>
       </c>
       <c r="I4">
-        <v>4.112466401151705</v>
+        <v>3.837889875851189</v>
       </c>
       <c r="J4">
-        <v>8.891395307973383</v>
+        <v>9.210202440005952</v>
       </c>
       <c r="K4">
-        <v>16.54218147949961</v>
+        <v>15.81591997544214</v>
       </c>
       <c r="L4">
-        <v>6.896851846935495</v>
+        <v>12.53120671831122</v>
       </c>
       <c r="M4">
-        <v>11.62659117650958</v>
+        <v>10.88970358497016</v>
       </c>
       <c r="N4">
-        <v>6.39606754265154</v>
+        <v>6.706317855139396</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.6086523733793</v>
       </c>
       <c r="P4">
-        <v>13.2843207045082</v>
+        <v>6.71820239950941</v>
       </c>
       <c r="Q4">
-        <v>14.25646997660628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.10495517608891</v>
+      </c>
+      <c r="S4">
+        <v>14.10390133340809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03020069778099</v>
+        <v>10.57255342747403</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.440381152523769</v>
+        <v>6.311559794002982</v>
       </c>
       <c r="E5">
-        <v>9.636760718994793</v>
+        <v>9.298659007046034</v>
       </c>
       <c r="F5">
-        <v>19.95338010898926</v>
+        <v>19.68124393036477</v>
       </c>
       <c r="G5">
-        <v>21.01525719145563</v>
+        <v>20.13272970814723</v>
       </c>
       <c r="H5">
-        <v>2.895200997489593</v>
+        <v>2.742516065257967</v>
       </c>
       <c r="I5">
-        <v>4.143895586424919</v>
+        <v>3.866189847731766</v>
       </c>
       <c r="J5">
-        <v>8.896707174789951</v>
+        <v>9.208472606846247</v>
       </c>
       <c r="K5">
-        <v>16.56849018487345</v>
+        <v>15.84458243731491</v>
       </c>
       <c r="L5">
-        <v>6.886495103276637</v>
+        <v>12.56740723027453</v>
       </c>
       <c r="M5">
-        <v>11.4489497176547</v>
+        <v>10.91691342821339</v>
       </c>
       <c r="N5">
-        <v>6.321967206900897</v>
+        <v>6.696051368844167</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.42458955357595</v>
       </c>
       <c r="P5">
-        <v>13.31259968189028</v>
+        <v>6.640129679008407</v>
       </c>
       <c r="Q5">
-        <v>14.24456737106698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.13055422217804</v>
+      </c>
+      <c r="S5">
+        <v>14.09491706557679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98787573725714</v>
+        <v>10.53177592881154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.433154798746407</v>
+        <v>6.304686145383307</v>
       </c>
       <c r="E6">
-        <v>9.630147285481149</v>
+        <v>9.292649485050754</v>
       </c>
       <c r="F6">
-        <v>19.93835206740055</v>
+        <v>19.66731279617461</v>
       </c>
       <c r="G6">
-        <v>20.99154097284983</v>
+        <v>20.11154433173228</v>
       </c>
       <c r="H6">
-        <v>2.902960316682117</v>
+        <v>2.749867492342892</v>
       </c>
       <c r="I6">
-        <v>4.152339333326585</v>
+        <v>3.874673088093501</v>
       </c>
       <c r="J6">
-        <v>8.896278869956124</v>
+        <v>9.206885241523741</v>
       </c>
       <c r="K6">
-        <v>16.567910682444</v>
+        <v>15.84460932358495</v>
       </c>
       <c r="L6">
-        <v>6.884116087964284</v>
+        <v>12.56820337760529</v>
       </c>
       <c r="M6">
-        <v>11.42245298755717</v>
+        <v>10.91968940505169</v>
       </c>
       <c r="N6">
-        <v>6.315104564537497</v>
+        <v>6.693750132887631</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.3969631208387</v>
       </c>
       <c r="P6">
-        <v>13.31740509118673</v>
+        <v>6.63231533374901</v>
       </c>
       <c r="Q6">
-        <v>14.23923545076634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.13498605270952</v>
+      </c>
+      <c r="S6">
+        <v>14.09015972278011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.1888904035449</v>
+        <v>10.72309455030127</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.470391588272835</v>
+        <v>6.342846208469448</v>
       </c>
       <c r="E7">
-        <v>9.653737482090143</v>
+        <v>9.313995284103401</v>
       </c>
       <c r="F7">
-        <v>19.99232307207194</v>
+        <v>19.70506788838997</v>
       </c>
       <c r="G7">
-        <v>21.08293232682994</v>
+        <v>20.26786206179446</v>
       </c>
       <c r="H7">
-        <v>2.852244195176488</v>
+        <v>2.702283958251304</v>
       </c>
       <c r="I7">
-        <v>4.121265904320082</v>
+        <v>3.848363460135044</v>
       </c>
       <c r="J7">
-        <v>8.887780625674342</v>
+        <v>9.173147118749476</v>
       </c>
       <c r="K7">
-        <v>16.52894983579253</v>
+        <v>15.80099932464267</v>
       </c>
       <c r="L7">
-        <v>6.894983588781302</v>
+        <v>12.51522412994803</v>
       </c>
       <c r="M7">
-        <v>11.63305086230652</v>
+        <v>10.88333174402259</v>
       </c>
       <c r="N7">
-        <v>6.409866158002556</v>
+        <v>6.704458656434465</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.60931402836613</v>
       </c>
       <c r="P7">
-        <v>13.28498451896343</v>
+        <v>6.728813336269853</v>
       </c>
       <c r="Q7">
-        <v>14.24693647728012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.1060627993416</v>
+      </c>
+      <c r="S7">
+        <v>14.08653308761719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.05342971916679</v>
+        <v>11.5422809495055</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.636550652347662</v>
+        <v>6.506302691724512</v>
       </c>
       <c r="E8">
-        <v>9.760919325104958</v>
+        <v>9.408657123433207</v>
       </c>
       <c r="F8">
-        <v>20.25954125383082</v>
+        <v>19.91979594338849</v>
       </c>
       <c r="G8">
-        <v>21.52747373354594</v>
+        <v>20.82972648227927</v>
       </c>
       <c r="H8">
-        <v>2.636496183762347</v>
+        <v>2.498924380529042</v>
       </c>
       <c r="I8">
-        <v>3.983205632098239</v>
+        <v>3.728989347710523</v>
       </c>
       <c r="J8">
-        <v>8.860093531104637</v>
+        <v>9.102513251009526</v>
       </c>
       <c r="K8">
-        <v>16.37513690368522</v>
+        <v>15.62968615763534</v>
       </c>
       <c r="L8">
-        <v>6.942396783927883</v>
+        <v>12.30981191052979</v>
       </c>
       <c r="M8">
-        <v>12.51079063694764</v>
+        <v>10.75559169569539</v>
       </c>
       <c r="N8">
-        <v>6.803521252262351</v>
+        <v>6.751537349219911</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.50585894088309</v>
       </c>
       <c r="P8">
-        <v>13.14597560923924</v>
+        <v>7.137338599572525</v>
       </c>
       <c r="Q8">
-        <v>14.30270690425025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.98258196910629</v>
+      </c>
+      <c r="S8">
+        <v>14.10789836863044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.60713156735885</v>
+        <v>13.00278200081861</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.959688345563173</v>
+        <v>6.812535130801929</v>
       </c>
       <c r="E9">
-        <v>9.969951285424083</v>
+        <v>9.58825602158044</v>
       </c>
       <c r="F9">
-        <v>20.85895454417546</v>
+        <v>20.44640491361155</v>
       </c>
       <c r="G9">
-        <v>22.5030133866934</v>
+        <v>21.75202260696931</v>
       </c>
       <c r="H9">
-        <v>2.243268650342469</v>
+        <v>2.126928319970696</v>
       </c>
       <c r="I9">
-        <v>3.724649885785163</v>
+        <v>3.502774642900835</v>
       </c>
       <c r="J9">
-        <v>8.835879056941133</v>
+        <v>9.100178105200067</v>
       </c>
       <c r="K9">
-        <v>16.11602972293136</v>
+        <v>15.33709177186534</v>
       </c>
       <c r="L9">
-        <v>7.030513372422632</v>
+        <v>11.96739053604113</v>
       </c>
       <c r="M9">
-        <v>14.05776063502875</v>
+        <v>10.61732901751945</v>
       </c>
       <c r="N9">
-        <v>7.509495909382107</v>
+        <v>6.8397085990735</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.10330344750278</v>
       </c>
       <c r="P9">
-        <v>12.88771599766205</v>
+        <v>7.885027352755697</v>
       </c>
       <c r="Q9">
-        <v>14.47625853186829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.75564849645543</v>
+      </c>
+      <c r="S9">
+        <v>14.23848437943149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56286706483593</v>
+        <v>13.90082089861921</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.145226193261032</v>
+        <v>7.003568239502887</v>
       </c>
       <c r="E10">
-        <v>10.0548767825237</v>
+        <v>9.663048010880837</v>
       </c>
       <c r="F10">
-        <v>21.22053571279209</v>
+        <v>20.70406078168154</v>
       </c>
       <c r="G10">
-        <v>23.12367847274591</v>
+        <v>22.79280113984878</v>
       </c>
       <c r="H10">
-        <v>2.000926550795917</v>
+        <v>1.901530748159691</v>
       </c>
       <c r="I10">
-        <v>3.559202865856634</v>
+        <v>3.362032131297231</v>
       </c>
       <c r="J10">
-        <v>8.811917656221661</v>
+        <v>8.904203626964321</v>
       </c>
       <c r="K10">
-        <v>15.88996375982697</v>
+        <v>15.07815602014287</v>
       </c>
       <c r="L10">
-        <v>7.081344609533005</v>
+        <v>11.69674766603485</v>
       </c>
       <c r="M10">
-        <v>15.09941915517869</v>
+        <v>10.53334814521319</v>
       </c>
       <c r="N10">
-        <v>7.929171276274921</v>
+        <v>6.893206591470713</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.14895037576459</v>
       </c>
       <c r="P10">
-        <v>12.71300646715195</v>
+        <v>8.32040361424615</v>
       </c>
       <c r="Q10">
-        <v>14.57957407695651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.61014686935757</v>
+      </c>
+      <c r="S10">
+        <v>14.26531349835021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.46120592437852</v>
+        <v>13.84674462344143</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.861357428587088</v>
+        <v>6.758649416198383</v>
       </c>
       <c r="E11">
-        <v>9.66816548576651</v>
+        <v>9.319757911697812</v>
       </c>
       <c r="F11">
-        <v>20.51031225679121</v>
+        <v>19.90988320260166</v>
       </c>
       <c r="G11">
-        <v>22.33510342179062</v>
+        <v>23.00596432621895</v>
       </c>
       <c r="H11">
-        <v>2.930386013358543</v>
+        <v>2.868143591399837</v>
       </c>
       <c r="I11">
-        <v>3.538179053271918</v>
+        <v>3.352133705906767</v>
       </c>
       <c r="J11">
-        <v>8.626436847800219</v>
+        <v>8.398564183456998</v>
       </c>
       <c r="K11">
-        <v>15.43327937268252</v>
+        <v>14.65837847255828</v>
       </c>
       <c r="L11">
-        <v>7.074808451036878</v>
+        <v>11.3716866928982</v>
       </c>
       <c r="M11">
-        <v>15.58079071761029</v>
+        <v>10.24824171455382</v>
       </c>
       <c r="N11">
-        <v>7.478575972781784</v>
+        <v>6.90974450474615</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.56443186921322</v>
       </c>
       <c r="P11">
-        <v>12.69437420855096</v>
+        <v>7.824027948816806</v>
       </c>
       <c r="Q11">
-        <v>14.1805912457036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.62189502065206</v>
+      </c>
+      <c r="S11">
+        <v>13.78780845537074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.20904650155935</v>
+        <v>13.64618318100906</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.592179220502654</v>
+        <v>6.508796331934885</v>
       </c>
       <c r="E12">
-        <v>9.44626380809906</v>
+        <v>9.125401831271221</v>
       </c>
       <c r="F12">
-        <v>19.84449149477872</v>
+        <v>19.23045885305813</v>
       </c>
       <c r="G12">
-        <v>21.55080114650706</v>
+        <v>22.70528441537333</v>
       </c>
       <c r="H12">
-        <v>4.265001021783341</v>
+        <v>4.222803836965292</v>
       </c>
       <c r="I12">
-        <v>3.537517386074771</v>
+        <v>3.35263825055989</v>
       </c>
       <c r="J12">
-        <v>8.476662330129821</v>
+        <v>8.147538039928147</v>
       </c>
       <c r="K12">
-        <v>15.13359870480681</v>
+        <v>14.40332760412316</v>
       </c>
       <c r="L12">
-        <v>7.12313530186091</v>
+        <v>11.19612630831125</v>
       </c>
       <c r="M12">
-        <v>15.76430834938694</v>
+        <v>10.04808005894018</v>
       </c>
       <c r="N12">
-        <v>6.985720796775762</v>
+        <v>6.973277122003288</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.7069180676997</v>
       </c>
       <c r="P12">
-        <v>12.72608383354114</v>
+        <v>7.297415751845167</v>
       </c>
       <c r="Q12">
-        <v>13.82673243578451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.66983227310565</v>
+      </c>
+      <c r="S12">
+        <v>13.41411916364319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.7843410727375</v>
+        <v>13.28062931369674</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.310818711497022</v>
+        <v>6.227435005661256</v>
       </c>
       <c r="E13">
-        <v>9.331976509879954</v>
+        <v>9.031669478449823</v>
       </c>
       <c r="F13">
-        <v>19.14372004234062</v>
+        <v>18.59153703392202</v>
       </c>
       <c r="G13">
-        <v>20.67583337794679</v>
+        <v>21.74475794755782</v>
       </c>
       <c r="H13">
-        <v>5.66361537663078</v>
+        <v>5.63014718744888</v>
       </c>
       <c r="I13">
-        <v>3.565729796186552</v>
+        <v>3.376523836142508</v>
       </c>
       <c r="J13">
-        <v>8.339458827615577</v>
+        <v>8.091406266030786</v>
       </c>
       <c r="K13">
-        <v>14.9178814527017</v>
+        <v>14.24175403974806</v>
       </c>
       <c r="L13">
-        <v>7.210116796824423</v>
+        <v>11.09534247170897</v>
       </c>
       <c r="M13">
-        <v>15.74588472447786</v>
+        <v>9.897850538150955</v>
       </c>
       <c r="N13">
-        <v>6.437835327383573</v>
+        <v>7.071829902287351</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.67428250414032</v>
       </c>
       <c r="P13">
-        <v>12.7960163891514</v>
+        <v>6.727091398558727</v>
       </c>
       <c r="Q13">
-        <v>13.46996769293059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.74142081719042</v>
+      </c>
+      <c r="S13">
+        <v>13.10033776244832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.39640168546737</v>
+        <v>12.93828228640562</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.108786289149856</v>
+        <v>6.017988573432997</v>
       </c>
       <c r="E14">
-        <v>9.317736059522334</v>
+        <v>9.030880438468754</v>
       </c>
       <c r="F14">
-        <v>18.63353697236489</v>
+        <v>18.15593210231303</v>
       </c>
       <c r="G14">
-        <v>20.01277275221799</v>
+        <v>20.77466214135594</v>
       </c>
       <c r="H14">
-        <v>6.660843346927726</v>
+        <v>6.630576294344606</v>
       </c>
       <c r="I14">
-        <v>3.601055387587067</v>
+        <v>3.40689175106312</v>
       </c>
       <c r="J14">
-        <v>8.248677020561896</v>
+        <v>8.126790489807121</v>
       </c>
       <c r="K14">
-        <v>14.80673984806871</v>
+        <v>14.16917981197305</v>
       </c>
       <c r="L14">
-        <v>7.294538929998792</v>
+        <v>11.05222566190532</v>
       </c>
       <c r="M14">
-        <v>15.6435731133208</v>
+        <v>9.818975549815539</v>
       </c>
       <c r="N14">
-        <v>6.028226540137505</v>
+        <v>7.162647080980213</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.5735328313174</v>
       </c>
       <c r="P14">
-        <v>12.86286678446202</v>
+        <v>6.3068579502742</v>
       </c>
       <c r="Q14">
-        <v>13.21710895226359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.80170966506785</v>
+      </c>
+      <c r="S14">
+        <v>12.90347648550379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.25527089467518</v>
+        <v>12.81006734044373</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.055452708631504</v>
+        <v>5.960045073329114</v>
       </c>
       <c r="E15">
-        <v>9.321687039500899</v>
+        <v>9.038658823433444</v>
       </c>
       <c r="F15">
-        <v>18.49858462381645</v>
+        <v>18.05238869757735</v>
       </c>
       <c r="G15">
-        <v>19.82631001309191</v>
+        <v>20.40955060419813</v>
       </c>
       <c r="H15">
-        <v>6.893454502130298</v>
+        <v>6.863333163659538</v>
       </c>
       <c r="I15">
-        <v>3.620015323365089</v>
+        <v>3.424179207125824</v>
       </c>
       <c r="J15">
-        <v>8.228647574218538</v>
+        <v>8.168005216798086</v>
       </c>
       <c r="K15">
-        <v>14.79246920339363</v>
+        <v>14.16528247908657</v>
       </c>
       <c r="L15">
-        <v>7.315611775273717</v>
+        <v>11.05015877815931</v>
       </c>
       <c r="M15">
-        <v>15.57783987754045</v>
+        <v>9.80871107262136</v>
       </c>
       <c r="N15">
-        <v>5.921072785099855</v>
+        <v>7.185134533817557</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.51309361523602</v>
       </c>
       <c r="P15">
-        <v>12.88627930691218</v>
+        <v>6.198905798483807</v>
       </c>
       <c r="Q15">
-        <v>13.15317225913529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.82048171239759</v>
+      </c>
+      <c r="S15">
+        <v>12.86410854670935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.90262702379094</v>
+        <v>12.47075299414742</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.026433116276463</v>
+        <v>5.90816845791524</v>
       </c>
       <c r="E16">
-        <v>9.300441514859886</v>
+        <v>9.0210420564663</v>
       </c>
       <c r="F16">
-        <v>18.46451793608588</v>
+        <v>18.1270358655153</v>
       </c>
       <c r="G16">
-        <v>19.69325103390446</v>
+        <v>19.43215885730735</v>
       </c>
       <c r="H16">
-        <v>6.695513866291601</v>
+        <v>6.659881442038151</v>
       </c>
       <c r="I16">
-        <v>3.690522768157265</v>
+        <v>3.484307151615075</v>
       </c>
       <c r="J16">
-        <v>8.263729662305879</v>
+        <v>8.471587406304041</v>
       </c>
       <c r="K16">
-        <v>14.92775171517975</v>
+        <v>14.30881681749116</v>
       </c>
       <c r="L16">
-        <v>7.270352567746192</v>
+        <v>11.14289934917779</v>
       </c>
       <c r="M16">
-        <v>15.15826280727207</v>
+        <v>9.90388596248718</v>
       </c>
       <c r="N16">
-        <v>5.833503479947214</v>
+        <v>7.139189369437456</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.13420769443252</v>
       </c>
       <c r="P16">
-        <v>12.93729344593426</v>
+        <v>6.126461805260221</v>
       </c>
       <c r="Q16">
-        <v>13.17061602172967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.84658141095853</v>
+      </c>
+      <c r="S16">
+        <v>12.97109553521492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.8426310862796</v>
+        <v>12.39626261844396</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.111494759512447</v>
+        <v>5.982005387335054</v>
       </c>
       <c r="E17">
-        <v>9.280674205183766</v>
+        <v>8.993203813362202</v>
       </c>
       <c r="F17">
-        <v>18.71242273458331</v>
+        <v>18.40709676140867</v>
       </c>
       <c r="G17">
-        <v>19.95229427545074</v>
+        <v>19.32666096326874</v>
       </c>
       <c r="H17">
-        <v>5.983361019835602</v>
+        <v>5.940665550892271</v>
       </c>
       <c r="I17">
-        <v>3.726461657974337</v>
+        <v>3.515267041000139</v>
       </c>
       <c r="J17">
-        <v>8.339116458352454</v>
+        <v>8.662641062169946</v>
       </c>
       <c r="K17">
-        <v>15.08754741462054</v>
+        <v>14.45656178188585</v>
       </c>
       <c r="L17">
-        <v>7.186210160094785</v>
+        <v>11.24642312163351</v>
       </c>
       <c r="M17">
-        <v>14.88702248726711</v>
+        <v>10.01123226064806</v>
       </c>
       <c r="N17">
-        <v>5.991754061252393</v>
+        <v>7.050245193586082</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.88658718546681</v>
       </c>
       <c r="P17">
-        <v>12.94227718121563</v>
+        <v>6.298883775701613</v>
       </c>
       <c r="Q17">
-        <v>13.31971174234983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.83942421849741</v>
+      </c>
+      <c r="S17">
+        <v>13.14906571017416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.05139712425193</v>
+        <v>12.56431107100537</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.312083430829219</v>
+        <v>6.173857647772856</v>
       </c>
       <c r="E18">
-        <v>9.323034235612425</v>
+        <v>9.014923088979131</v>
       </c>
       <c r="F18">
-        <v>19.23975720645574</v>
+        <v>18.92455083203209</v>
       </c>
       <c r="G18">
-        <v>20.587653702359</v>
+        <v>19.78891362750863</v>
       </c>
       <c r="H18">
-        <v>4.782364677623264</v>
+        <v>4.727940427306485</v>
       </c>
       <c r="I18">
-        <v>3.726248164261456</v>
+        <v>3.512334165473329</v>
       </c>
       <c r="J18">
-        <v>8.459205768101025</v>
+        <v>8.824237625885562</v>
       </c>
       <c r="K18">
-        <v>15.30547804499424</v>
+        <v>14.64450957279903</v>
       </c>
       <c r="L18">
-        <v>7.086107137631821</v>
+        <v>11.38819886851862</v>
       </c>
       <c r="M18">
-        <v>14.71198863347479</v>
+        <v>10.15026458480446</v>
       </c>
       <c r="N18">
-        <v>6.371021125035635</v>
+        <v>6.94052487599904</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.73269754123927</v>
       </c>
       <c r="P18">
-        <v>12.9114177661687</v>
+        <v>6.698198046834801</v>
       </c>
       <c r="Q18">
-        <v>13.60284901374094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.80222885947626</v>
+      </c>
+      <c r="S18">
+        <v>13.42967403419795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.41291462489686</v>
+        <v>12.8684360430951</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.591537019373618</v>
+        <v>6.444909260600783</v>
       </c>
       <c r="E19">
-        <v>9.499270136959192</v>
+        <v>9.160640370749899</v>
       </c>
       <c r="F19">
-        <v>19.92595789632509</v>
+        <v>19.57609095677402</v>
       </c>
       <c r="G19">
-        <v>21.43240819035266</v>
+        <v>20.55524745796551</v>
       </c>
       <c r="H19">
-        <v>3.398550759151288</v>
+        <v>3.323962458870513</v>
       </c>
       <c r="I19">
-        <v>3.711839345102834</v>
+        <v>3.500801278714838</v>
       </c>
       <c r="J19">
-        <v>8.599872825115433</v>
+        <v>8.966365743707144</v>
       </c>
       <c r="K19">
-        <v>15.55405053778885</v>
+        <v>14.8500342774802</v>
       </c>
       <c r="L19">
-        <v>7.025561519433397</v>
+        <v>11.54850143055247</v>
       </c>
       <c r="M19">
-        <v>14.64417233221383</v>
+        <v>10.30336091283852</v>
       </c>
       <c r="N19">
-        <v>6.91924271685504</v>
+        <v>6.865483962373983</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.68597892666095</v>
       </c>
       <c r="P19">
-        <v>12.86498903074574</v>
+        <v>7.271410381376239</v>
       </c>
       <c r="Q19">
-        <v>13.9559067679699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.75222354257883</v>
+      </c>
+      <c r="S19">
+        <v>13.76226523937251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.24686071003923</v>
+        <v>13.60073546771561</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.083846160629062</v>
+        <v>6.930857600187472</v>
       </c>
       <c r="E20">
-        <v>10.01102500847364</v>
+        <v>9.619643024102082</v>
       </c>
       <c r="F20">
-        <v>21.07322064252197</v>
+        <v>20.61959714639852</v>
       </c>
       <c r="G20">
-        <v>22.88752807693552</v>
+        <v>22.17416756610708</v>
       </c>
       <c r="H20">
-        <v>2.064907159208163</v>
+        <v>1.95967137663099</v>
       </c>
       <c r="I20">
-        <v>3.628451681818508</v>
+        <v>3.429257084326721</v>
       </c>
       <c r="J20">
-        <v>8.805210654272448</v>
+        <v>9.056197473317548</v>
       </c>
       <c r="K20">
-        <v>15.90595373179454</v>
+        <v>15.11536279020722</v>
       </c>
       <c r="L20">
-        <v>7.06362951433695</v>
+        <v>11.74289402914217</v>
       </c>
       <c r="M20">
-        <v>14.85546014206897</v>
+        <v>10.52858212963234</v>
       </c>
       <c r="N20">
-        <v>7.855085180582424</v>
+        <v>6.876262959910437</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.91960533127912</v>
       </c>
       <c r="P20">
-        <v>12.76152608094051</v>
+        <v>8.247585591926176</v>
       </c>
       <c r="Q20">
-        <v>14.5203893767864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.64992418409684</v>
+      </c>
+      <c r="S20">
+        <v>14.25615935220074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.04687642458548</v>
+        <v>14.34971619383218</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.291638798883383</v>
+        <v>7.195557888284876</v>
       </c>
       <c r="E21">
-        <v>10.1668395578582</v>
+        <v>9.781476927360867</v>
       </c>
       <c r="F21">
-        <v>21.5227713303393</v>
+        <v>20.80246299851499</v>
       </c>
       <c r="G21">
-        <v>23.57645894151218</v>
+        <v>24.61665032947322</v>
       </c>
       <c r="H21">
-        <v>1.842596997527246</v>
+        <v>1.755889584969557</v>
       </c>
       <c r="I21">
-        <v>3.493888502118975</v>
+        <v>3.31690791809976</v>
       </c>
       <c r="J21">
-        <v>8.82495251731431</v>
+        <v>8.398100058550529</v>
       </c>
       <c r="K21">
-        <v>15.80760058081471</v>
+        <v>14.93639017255557</v>
       </c>
       <c r="L21">
-        <v>7.11592286822018</v>
+        <v>11.56074665550622</v>
       </c>
       <c r="M21">
-        <v>15.6131553400429</v>
+        <v>10.49054278310693</v>
       </c>
       <c r="N21">
-        <v>8.275525028762786</v>
+        <v>6.923892267973167</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.60185759716962</v>
       </c>
       <c r="P21">
-        <v>12.62234761311606</v>
+        <v>8.649702628209766</v>
       </c>
       <c r="Q21">
-        <v>14.69403447190357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.54395149633424</v>
+      </c>
+      <c r="S21">
+        <v>14.21320472204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.54527341231565</v>
+        <v>14.81897297245097</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.408339027888529</v>
+        <v>7.354831356423149</v>
       </c>
       <c r="E22">
-        <v>10.24600237517962</v>
+        <v>9.870281005247495</v>
       </c>
       <c r="F22">
-        <v>21.78890386566351</v>
+        <v>20.88243720982592</v>
       </c>
       <c r="G22">
-        <v>23.99577020316491</v>
+        <v>26.2947996263299</v>
       </c>
       <c r="H22">
-        <v>1.712698745105504</v>
+        <v>1.637905420778123</v>
       </c>
       <c r="I22">
-        <v>3.400074300354432</v>
+        <v>3.235052457001459</v>
       </c>
       <c r="J22">
-        <v>8.835420950239458</v>
+        <v>7.996156950885585</v>
       </c>
       <c r="K22">
-        <v>15.7420217606037</v>
+        <v>14.81525137680971</v>
       </c>
       <c r="L22">
-        <v>7.14668235547712</v>
+        <v>11.44302105165167</v>
       </c>
       <c r="M22">
-        <v>16.08204080992478</v>
+        <v>10.47044947410884</v>
       </c>
       <c r="N22">
-        <v>8.490458059472909</v>
+        <v>6.953237754916884</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.01666010250056</v>
       </c>
       <c r="P22">
-        <v>12.53416384730967</v>
+        <v>8.849211063163834</v>
       </c>
       <c r="Q22">
-        <v>14.79896772342726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.4798987348285</v>
+      </c>
+      <c r="S22">
+        <v>14.16415663388769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.30638587184246</v>
+        <v>14.59424050171623</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.35037661579455</v>
+        <v>7.26624326778203</v>
       </c>
       <c r="E23">
-        <v>10.21121707126525</v>
+        <v>9.826488801578117</v>
       </c>
       <c r="F23">
-        <v>21.66349575491716</v>
+        <v>20.88052940855921</v>
       </c>
       <c r="G23">
-        <v>23.79540699960087</v>
+        <v>25.21977367824272</v>
       </c>
       <c r="H23">
-        <v>1.780994796310657</v>
+        <v>1.699183359855461</v>
       </c>
       <c r="I23">
-        <v>3.439573735844487</v>
+        <v>3.265726932769202</v>
       </c>
       <c r="J23">
-        <v>8.833703263603249</v>
+        <v>8.269335894610043</v>
       </c>
       <c r="K23">
-        <v>15.79235161774885</v>
+        <v>14.89917192680256</v>
       </c>
       <c r="L23">
-        <v>7.131913804505932</v>
+        <v>11.51811184144314</v>
       </c>
       <c r="M23">
-        <v>15.8254391921169</v>
+        <v>10.49718231853603</v>
       </c>
       <c r="N23">
-        <v>8.36267518133749</v>
+        <v>6.939065545017425</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.80011538373112</v>
       </c>
       <c r="P23">
-        <v>12.57972074635832</v>
+        <v>8.735270114266211</v>
       </c>
       <c r="Q23">
-        <v>14.75272527460892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.51013867512113</v>
+      </c>
+      <c r="S23">
+        <v>14.22099595959773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.31879029719962</v>
+        <v>13.66619609290443</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.120711921603943</v>
+        <v>6.966218229963412</v>
       </c>
       <c r="E24">
-        <v>10.06525028276117</v>
+        <v>9.669193285358341</v>
       </c>
       <c r="F24">
-        <v>21.17135880124984</v>
+        <v>20.71457020278275</v>
       </c>
       <c r="G24">
-        <v>23.01042897427136</v>
+        <v>22.27742072146683</v>
       </c>
       <c r="H24">
-        <v>2.047045904887363</v>
+        <v>1.941543173247841</v>
       </c>
       <c r="I24">
-        <v>3.610837942211853</v>
+        <v>3.40856180217397</v>
       </c>
       <c r="J24">
-        <v>8.827011363194174</v>
+        <v>9.081797518905438</v>
       </c>
       <c r="K24">
-        <v>15.96329261978545</v>
+        <v>15.16503798970029</v>
       </c>
       <c r="L24">
-        <v>7.07214230911744</v>
+        <v>11.78141950567099</v>
       </c>
       <c r="M24">
-        <v>14.82801652210663</v>
+        <v>10.56570870738869</v>
       </c>
       <c r="N24">
-        <v>7.887128028192452</v>
+        <v>6.882007220939043</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.89498671425708</v>
       </c>
       <c r="P24">
-        <v>12.75796023494716</v>
+        <v>8.283505032118219</v>
       </c>
       <c r="Q24">
-        <v>14.57373221711566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.64457924970291</v>
+      </c>
+      <c r="S24">
+        <v>14.30790203504488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.16380145519837</v>
+        <v>12.58502034623821</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.866714354074638</v>
+        <v>6.720117893600023</v>
       </c>
       <c r="E25">
-        <v>9.902996312064833</v>
+        <v>9.528482244309206</v>
       </c>
       <c r="F25">
-        <v>20.66436087759113</v>
+        <v>20.28657632383655</v>
       </c>
       <c r="G25">
-        <v>22.19338209966314</v>
+        <v>21.34370493494805</v>
       </c>
       <c r="H25">
-        <v>2.347688495147901</v>
+        <v>2.225148913696386</v>
       </c>
       <c r="I25">
-        <v>3.806604125365711</v>
+        <v>3.5785208602115</v>
       </c>
       <c r="J25">
-        <v>8.833302109491575</v>
+        <v>9.139681560766268</v>
       </c>
       <c r="K25">
-        <v>16.16006653342659</v>
+        <v>15.39621315524856</v>
       </c>
       <c r="L25">
-        <v>7.004758329607554</v>
+        <v>12.04085729199099</v>
       </c>
       <c r="M25">
-        <v>13.67066510103719</v>
+        <v>10.63163838213346</v>
       </c>
       <c r="N25">
-        <v>7.346814445909371</v>
+        <v>6.814564253899917</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.70997276127714</v>
       </c>
       <c r="P25">
-        <v>12.9573431690425</v>
+        <v>7.712881078278923</v>
       </c>
       <c r="Q25">
-        <v>14.40765158831908</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.8164367721568</v>
+      </c>
+      <c r="S25">
+        <v>14.19403628062998</v>
       </c>
     </row>
   </sheetData>
